--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2352" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{362AB774-A064-4B6A-B864-8C17E444F78B}"/>
+  <xr:revisionPtr revIDLastSave="2354" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0793FFE-932A-41FA-80FD-5AF6B08A1E5A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -57,13 +57,25 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
+    <t>Day of Week</t>
+  </si>
+  <si>
+    <t>Week No.</t>
+  </si>
+  <si>
     <t>Presenter</t>
   </si>
   <si>
-    <t>Deptartmental contact</t>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>Departmental contact</t>
   </si>
   <si>
     <t>Title</t>
@@ -112,6 +124,9 @@
   </si>
   <si>
     <t>S and E events updated: EventsSE@ul.ie?</t>
+  </si>
+  <si>
+    <t>12pm</t>
   </si>
   <si>
     <t>Marcos Prates</t>
@@ -297,9 +312,6 @@
   </si>
   <si>
     <t>The Arctic is the fastest warming region on Earth. Understanding how a rapidly changing climate change impacts Arctic systems is therefore an important challenge. This is the basis of the `Compost-Bomb' instability, a theorized runaway heating of northern latitude peat soils when atmospheric temperature rises faster than some critical rate, first proposed in [Luke &amp; Cox, European Journal of Soil Science (2011), 62.1] and analysed in [Wieczorek et al, Proceedings of the Royal Society A (2011), 467.2129]. The Compost Bomb instability was one of the first examples of what is known as Rate-induced tipping or R-tipping.The key trigger for the compost bomb instability is heat produced by microbial respiration. Here, the original soil carbon and temperature model of Luke &amp; Cox is augmented with a non-monotone microbial respiration function, for a more realistic representation of the process. This gives rise to a meta-stable state, reproducing the results of [Khvorostyanov et al, Tellus (2008), 60B] where a complex PDE model is used. Two non-autonomous climate forcings are examined: (i) a rise in mean air temperature over decades (ii) a short-lived extreme weather event, with the rate-induced compost bomb observed in each. Using techniques of compactification, singular perturbation theory and desingularisation, we reduce the R-tipping problem to one of heteroclinic orbits, uncovering the tipping mechanism for each climate change scenario.</t>
-  </si>
-  <si>
-    <t>Andrew Fowler</t>
   </si>
   <si>
     <t>Ann Smith</t>
@@ -363,16 +375,16 @@
     <t>Natalya's husband (also a statistician) Per Arnqvist will also be visiting and may say a few words too. They are interested in building a collaborative link to UL following their daughter doing Erasmus here.</t>
   </si>
   <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Padraig MacCarron</t>
+    <t>Graeme Hocking</t>
   </si>
   <si>
     <t>Splashes, waves and bores - unsteady, free-surface flows</t>
   </si>
   <si>
     <t xml:space="preserve">Superficially it should be relatively simple to simulate the movement of an air-water interface, but the development of curvature singularities places strict limits how far one can go.  However, a "fundamental singularities" method does not seem to have this problem and simulations can run until the surface breaks up in some way due to splashing or wave breaking.  The availability of such simulations allows us to consider the behaviour of a number of flows.  Surface evolution due to flow from sources and into sinks will produce a number of interesting surface effects as described in the title.  </t>
+  </si>
+  <si>
+    <t>Laura Keane</t>
   </si>
   <si>
     <t>Simulation and analysis of double charge layers in electrolyte models for Lithium-ion batteries</t>
@@ -384,10 +396,13 @@
 </t>
   </si>
   <si>
-    <t>Affiliation</t>
+    <t>Day of week</t>
   </si>
   <si>
     <t>Anything else we should know?</t>
+  </si>
+  <si>
+    <t>2pm</t>
   </si>
   <si>
     <t>Nastaran Sharifian</t>
@@ -546,34 +561,13 @@
     <t>December 6</t>
   </si>
   <si>
+    <t>Week no.</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Sarah Heaps</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Day of week</t>
-  </si>
-  <si>
-    <t>Week no.</t>
-  </si>
-  <si>
-    <t>11am</t>
   </si>
   <si>
     <t>University of Limerick</t>
@@ -603,6 +597,9 @@
 In this presentation, a review and discussion of the use and misuse of confidence, prediction, and tolerance intervals and their place in the curriculum will be discussed. New approaches for generating personalised adaptive reference intervals for longitudinal monitoring will be also presented. Such adaptive reference intervals will adapt successively whenever a new measurement is recorded for an individual by accounting for both the between and within individual variability.</t>
   </si>
   <si>
+    <t>Mar</t>
+  </si>
+  <si>
     <t>Mainendra Dewangan</t>
   </si>
   <si>
@@ -618,19 +615,22 @@
     <t>https://scholar.google.co.in/citations?hl=en&amp;user=jUEUMhYAAAAJ&amp;view_op=list_works&amp;sortby=pubdate</t>
   </si>
   <si>
-    <t>2pm</t>
-  </si>
-  <si>
     <t>Iain Moyles</t>
   </si>
   <si>
     <t>York University</t>
   </si>
   <si>
+    <t>Andrew Fowler</t>
+  </si>
+  <si>
     <t>The Only Thing to Fear is Fear Itself</t>
   </si>
   <si>
     <t>We present a disease model with behavioural impact in the form of fear of infection. This fear induces prophylactic action in the form of contact reduction. Increase in fear is driven by rising case numbers while decrease in fear occurs both naturally over time and with increasing recovery of infection. We show that our model exhibits two limits, one where fear can be effective at mitigating the disease and one where it is not. When fear is an effective tool, we analyze its limitations in stopping disease spread.</t>
+  </si>
+  <si>
+    <t>Apr</t>
   </si>
   <si>
     <t>Robert Garvey</t>
@@ -645,6 +645,9 @@
     <t>The dissolution of solid spherical particles is a canonical problem found in many applications. Of particular interest is the dissolution of drug particles in the pharmaceutical industry. In-vitro dissolution testing is crucial in investigating drug quality, stability, and regulatory compliance. The United States Pharmacopoeia set guidelines for testing dissolution and outlines seven main testing apparatus. One such widely utilised apparatus is the flow through device, USP4. The USP4 apparatus comprises of three main components: a reservoir containing the dissolution medium; a pump responsible for controlling the flow rate of the fluid; and a flow-through cell where the drug sample is situated as dissolution occurs.
 The solvent fluid is ordinarily pumped in a semi-sinusoidal manner or at a constant flow rate. This flow rate is impactful on dissolution characteristics. Mathematical modelling may be utilised to understand the complex interaction between the hydrodynamics and the dissolution process within the USP4 system. We investigate existing models; such models are solved numerically. We use non-dimensionalisation and asymptotic methods to derive analytical asymptotic solutions to these existing model equations. Our analytics are compared with numerical results and found to give good agreement; such analytical solutions are particularly valuable due to the time-consuming nature of solving these equations numerically, owing directly to the presence of the Basset history integral force. This Basset history integral may be interpreted as a fractional derivative.
 Existing models are unable to accurately capture all experimental data. We discuss recent developments on the modelling of hydrodynamics and dissolution and outline potential improvements.</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
   <si>
     <t>Colm Mulcahy</t>
@@ -687,6 +690,9 @@
     <t>London Mathematical Laboratory</t>
   </si>
   <si>
+    <t>Padraig MacCarron</t>
+  </si>
+  <si>
     <t>Rationality, decision theory and ergodicity</t>
   </si>
   <si>
@@ -699,7 +705,7 @@
     <t>11th of April</t>
   </si>
   <si>
-    <t>12pm</t>
+    <t>Sarah Heaps</t>
   </si>
   <si>
     <t>Durham University</t>
@@ -772,9 +778,6 @@
     <t>Models of contagions can describe many network dynamics, such as cascading failures in economic systems, information diffusion, and pathogen transmission. They figure prominently in intervention design problems—for example, deciding how to roll out vaccines or designing robust economic systems. The idea is, roughly, to test counterfactuals provided by realistic contagion models and tune the system to increase the likelihood of favorable outcomes. Unfortunately, this process involves costly numerical optimization and calculations. In this talk, I will first review the message passing framework, which is routinely used to tame the intervention design problem's complexity. I will then highlight some well-known issues with this framework, chiefly that it overestimates the likelihood of a contagion spreading. I will then discuss two promising approaches for correcting this issue: the neighborhood message passing (NMP) framework and a new graph machine learning algorithm.</t>
   </si>
   <si>
-    <t>Departmental contact</t>
-  </si>
-  <si>
     <t>Hlib Husarov &amp; Eberhard Mayerhofer</t>
   </si>
   <si>
@@ -788,6 +791,21 @@
   </si>
   <si>
     <t>We propose a recursive algorithm for identifying all finite sequences of positive integers whose product equals their sum. Our method uses solutions of strictly shorter length that are iteratively extended in pursuit of a valid solution. The algorithm is efficient, with a time complexity similar to the quick sort algorithm. Arxiv: https://arxiv.org/abs/2508.09647</t>
+  </si>
+  <si>
+    <t>4pm</t>
+  </si>
+  <si>
+    <t>Márton Karsai</t>
+  </si>
+  <si>
+    <t>Central European University</t>
+  </si>
+  <si>
+    <t>Padraig McCarron</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
   <si>
     <t>3pm</t>
@@ -863,6 +881,9 @@
     <t>Trinity College Dublin</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
   </si>
   <si>
@@ -875,6 +896,9 @@
     <t>Adacemic Host</t>
   </si>
   <si>
+    <t>Colm</t>
+  </si>
+  <si>
     <t>Niamh Cahill</t>
   </si>
   <si>
@@ -980,9 +1004,6 @@
     <t>Taken</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taken </t>
   </si>
   <si>
@@ -992,6 +1013,9 @@
     <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
   </si>
   <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -1002,30 +1026,6 @@
   </si>
   <si>
     <t>Leornard Henckel</t>
-  </si>
-  <si>
-    <t>Week No.</t>
-  </si>
-  <si>
-    <t>Graeme Hocking</t>
-  </si>
-  <si>
-    <t>Laura Keane</t>
-  </si>
-  <si>
-    <t>4pm</t>
-  </si>
-  <si>
-    <t>Márton Karsai</t>
-  </si>
-  <si>
-    <t>Central European University</t>
-  </si>
-  <si>
-    <t>Padraig McCarron</t>
-  </si>
-  <si>
-    <t>Day of Week</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1796,7 +1796,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1836,14 +1835,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1881,7 +1876,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1987,7 +1982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2129,7 +2124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2139,11 +2134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7958562-D4BB-4776-9668-682A6F2E2AD0}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2168,7 +2163,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,92 +2174,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C3" s="29" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(A3, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D3" s="156" t="str">
+      <c r="D3" s="26" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2272,63 +2267,63 @@
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="D4" s="156" t="str">
+      <c r="D4" s="26" t="str">
         <f>TEXT(A4, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -2336,59 +2331,59 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="5"/>
       <c r="S4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="U4" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="D5" s="156" t="str">
+      <c r="D5" s="26" t="str">
         <f>TEXT(A5, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2396,57 +2391,57 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="5"/>
       <c r="S5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="14"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="D6" s="156" t="str">
+      <c r="D6" s="26" t="str">
         <f>TEXT(A6, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2454,63 +2449,63 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="S6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="U6" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="D7" s="156" t="str">
+      <c r="D7" s="26" t="str">
         <f>TEXT(A7, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2518,65 +2513,65 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="14"/>
       <c r="W7" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="D8" s="156" t="str">
+      <c r="D8" s="26" t="str">
         <f>TEXT(A8, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2584,63 +2579,63 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="14"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="D9" s="156" t="str">
+      <c r="D9" s="26" t="str">
         <f>TEXT(A9, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2648,22 +2643,22 @@
         <v>6</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
@@ -2672,25 +2667,25 @@
       <c r="R9" s="5"/>
       <c r="S9" s="15"/>
       <c r="T9" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="14"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="D10" s="156" t="str">
+      <c r="D10" s="26" t="str">
         <f>TEXT(A10, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2698,65 +2693,65 @@
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="U10" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" ref="C11:C19" si="1">TEXT(A11, "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="D11" s="156" t="str">
+      <c r="D11" s="26" t="str">
         <f>TEXT(A11, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -2764,57 +2759,57 @@
         <v>9</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="14"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C12" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="D12" s="156" t="str">
+      <c r="D12" s="26" t="str">
         <f>TEXT(A12, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -2822,59 +2817,59 @@
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="14"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C13" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="D13" s="156" t="str">
+      <c r="D13" s="26" t="str">
         <f>TEXT(A13, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2882,65 +2877,65 @@
         <v>10</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V13" s="14"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C14" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="D14" s="156" t="str">
+      <c r="D14" s="26" t="str">
         <f>TEXT(A14, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2948,57 +2943,57 @@
         <v>11</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="5"/>
       <c r="S14" s="15"/>
       <c r="T14" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C15" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="D15" s="156" t="str">
+      <c r="D15" s="26" t="str">
         <f>TEXT(A15, "dddd")</f>
         <v>Tuesday</v>
       </c>
@@ -3006,65 +3001,65 @@
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C16" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Apr</v>
       </c>
-      <c r="D16" s="156" t="str">
+      <c r="D16" s="26" t="str">
         <f>TEXT(A16, "dddd")</f>
         <v>Friday</v>
       </c>
@@ -3072,59 +3067,59 @@
         <v>12</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S16" s="20"/>
       <c r="T16" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C17" s="26" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="D17" s="156" t="str">
+      <c r="D17" s="26" t="str">
         <f>TEXT(A17, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -3132,67 +3127,67 @@
         <v>15</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S17" s="20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Jul</v>
       </c>
-      <c r="D18" s="156" t="str">
+      <c r="D18" s="26" t="str">
         <f>TEXT(A18, "dddd")</f>
         <v>Monday</v>
       </c>
@@ -3200,17 +3195,17 @@
         <v>16</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="17"/>
@@ -3222,25 +3217,25 @@
       <c r="R18" s="17"/>
       <c r="S18" s="20"/>
       <c r="T18" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U18" s="21"/>
       <c r="V18" s="19"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C19" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Aug</v>
       </c>
-      <c r="D19" s="156" t="str">
+      <c r="D19" s="26" t="str">
         <f>TEXT(A19, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -3248,17 +3243,17 @@
         <v>19</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="17"/>
@@ -3270,14 +3265,14 @@
       <c r="R19" s="17"/>
       <c r="S19" s="20"/>
       <c r="T19" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="19"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3323,7 +3318,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3349,7 +3344,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3360,89 +3355,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1">
       <c r="A2" s="151" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E2" s="155" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="F2" s="150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" s="147" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="I2" s="149" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" s="146" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="V2" s="44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X2" s="46" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C3" s="26" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(A3, "mmm")</f>
@@ -3456,58 +3451,58 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M3" s="40"/>
       <c r="N3" s="38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="S3" s="38" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="T3" s="35"/>
       <c r="U3" s="40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V3" s="40"/>
       <c r="W3" s="40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="X3" s="47"/>
       <c r="Y3" s="45"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3521,20 +3516,20 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="5"/>
@@ -3551,12 +3546,12 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3570,20 +3565,20 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="5"/>
@@ -3600,12 +3595,12 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3619,20 +3614,20 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="5"/>
@@ -3649,12 +3644,12 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3668,20 +3663,20 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -3698,12 +3693,12 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3717,20 +3712,20 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -3747,12 +3742,12 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3766,20 +3761,20 @@
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="64" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="5"/>
@@ -3796,12 +3791,12 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3815,20 +3810,20 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="67" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -3845,12 +3840,12 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" ref="C11" si="2">TEXT(A11, "mmm")</f>
@@ -3864,20 +3859,20 @@
         <v>12</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="62" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -3894,12 +3889,12 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C12" s="48" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -3913,36 +3908,36 @@
         <v>13</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="51" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
       <c r="N12" s="21"/>
       <c r="O12" s="53"/>
       <c r="P12" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="T12" s="53"/>
       <c r="U12" s="17"/>
@@ -3951,20 +3946,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="66"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -3977,59 +3972,59 @@
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
     </row>
@@ -4062,7 +4057,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4090,7 +4085,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4101,89 +4096,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F2" s="146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" s="147" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="I2" s="149" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" s="146" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K2" s="72" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L2" s="73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M2" s="73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2" s="74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P2" s="71" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R2" s="73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S2" s="75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T2" s="73" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U2" s="71" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X2" s="76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D3" s="110" t="str">
         <f>TEXT(A3, "dddd")</f>
@@ -4193,46 +4188,46 @@
         <v>2</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H3" s="114"/>
       <c r="I3" s="119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35"/>
       <c r="O3" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
       <c r="R3" s="38"/>
       <c r="S3" s="35"/>
       <c r="T3" s="40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
       <c r="W3" s="47"/>
       <c r="X3" s="45"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D4" s="109" t="str">
         <f t="shared" ref="D4:D7" si="0">TEXT(A4, "dddd")</f>
@@ -4242,54 +4237,54 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="J4" s="104" t="s">
         <v>174</v>
-      </c>
-      <c r="H4" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="120" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="104" t="s">
-        <v>176</v>
       </c>
       <c r="K4" s="78"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="16"/>
       <c r="S4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D5" s="109" t="str">
         <f t="shared" si="0"/>
@@ -4299,52 +4294,52 @@
         <v>6</v>
       </c>
       <c r="F5" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="115" t="s">
+      <c r="I5" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="J5" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="K5" s="78" t="s">
         <v>180</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>181</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="16"/>
       <c r="S5" s="35"/>
       <c r="T5" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D6" s="109" t="str">
         <f t="shared" si="0"/>
@@ -4354,52 +4349,52 @@
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="121" t="s">
+      <c r="J6" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="J6" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="K6" s="78"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="16"/>
       <c r="S6" s="35"/>
       <c r="T6" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D7" s="109" t="str">
         <f t="shared" si="0"/>
@@ -4412,7 +4407,7 @@
         <v>187</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="115" t="s">
         <v>188</v>
@@ -4426,91 +4421,91 @@
       <c r="K7" s="79"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="16"/>
       <c r="S7" s="35"/>
       <c r="T7" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="E8" s="109">
         <v>10</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H8" s="115" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D9" s="109" t="str">
         <f>TEXT(A10, "dddd")</f>
@@ -4520,58 +4515,58 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="I9" s="121" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K9" s="79"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D10" s="109" t="str">
         <f t="shared" ref="D10:D15" si="1">TEXT(A10, "dddd")</f>
@@ -4581,50 +4576,50 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I10" s="121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J10" s="104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="52"/>
       <c r="M10" s="21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N10" s="53"/>
       <c r="O10" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="21"/>
       <c r="S10" s="53"/>
       <c r="T10" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D11" s="111" t="str">
         <f t="shared" si="1"/>
@@ -4634,53 +4629,53 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H11" s="116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I11" s="123" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J11" s="118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
       <c r="M11" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
       <c r="B12" s="134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="130" t="str">
         <f>TEXT(A12,"mmm")</f>
@@ -4694,53 +4689,53 @@
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H12" s="115" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J12" s="104" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K12" s="78"/>
       <c r="L12" s="78"/>
       <c r="M12" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
       <c r="B13" s="134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="130" t="str">
         <f>TEXT(A13,"mmm")</f>
@@ -4754,45 +4749,45 @@
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H13" s="115" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I13" s="120" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J13" s="104" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="78"/>
       <c r="L13" s="78"/>
       <c r="M13" s="14"/>
       <c r="N13" s="35"/>
       <c r="O13" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="35"/>
       <c r="T13" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C14" s="131" t="str">
         <f>TEXT(A14,"mmm")</f>
@@ -4806,39 +4801,39 @@
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I14" s="124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J14" s="118" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C15" s="131" t="str">
         <f>TEXT(A15,"mmm")</f>
@@ -4852,116 +4847,116 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J15" s="135" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="81"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="81"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="81"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="65"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="65"/>
     </row>
   </sheetData>
@@ -4989,11 +4984,667 @@
   </sheetPr>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="30">
+      <c r="A2" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="81">
+        <v>45911</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f>TEXT(A3, "mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="D3" s="59" t="str">
+        <f>TEXT(A3, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1">
+      <c r="A4" s="81">
+        <v>45917</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="29" t="str">
+        <f>TEXT(A4, "mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="D4" s="59" t="str">
+        <f>TEXT(A4, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A5" s="81">
+        <v>45926</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>TEXT(A5, "mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f>TEXT(A5, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E5">
+        <f>E3+2</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="108"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="81">
+        <v>45939</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="D6" s="27" t="str">
+        <f t="shared" ref="D6" si="1">TEXT(A6, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E6">
+        <f>E5+2</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="108"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="81">
+        <v>45946</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="108"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="81">
+        <v>45953</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f>TEXT(A8, "mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="D8" s="27" t="str">
+        <f>TEXT(A8, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E8">
+        <f>E6+2</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="108"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="81">
+        <v>45967</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>TEXT(A9, "mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="D9" s="27" t="str">
+        <f>TEXT(A9, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E9">
+        <f>E8+2</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="K9" s="108"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A10" s="81">
+        <v>45974</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>TEXT(A10, "mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="D10" s="27" t="str">
+        <f>TEXT(A10, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="108"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A11" s="81">
+        <v>45981</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>TEXT(A11, "mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="D11" s="27" t="str">
+        <f>TEXT(A11, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E11">
+        <f>E9+2</f>
+        <v>11</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A12" s="81">
+        <v>45995</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>TEXT(A12, "mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="D12" s="27" t="str">
+        <f>TEXT(A12, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="2">E11+2</f>
+        <v>13</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="108"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" ht="12.75" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:X2" name="Range4_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S12" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7_1"/>
+    <protectedRange sqref="W13:X13 F3:X12" name="Range8_1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5020,7 +5671,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5031,90 +5682,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1">
+      <c r="A3" s="81">
+        <v>46051</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>166</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="150" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
-        <v>45911</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>169</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
-        <v>Sep</v>
+        <v>Jan</v>
       </c>
       <c r="D3" s="59" t="str">
         <f>TEXT(A3, "dddd")</f>
@@ -5124,28 +5775,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I3" s="104" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J3" s="104" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
@@ -5157,44 +5808,48 @@
       <c r="W3" s="47"/>
       <c r="X3" s="45"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="81">
-        <v>45917</v>
+        <f>A3+14</f>
+        <v>46065</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="29" t="str">
-        <f>TEXT(A4, "mmm")</f>
-        <v>Sep</v>
-      </c>
-      <c r="D4" s="59" t="str">
-        <f>TEXT(A4, "dddd")</f>
-        <v>Wednesday</v>
+        <v>166</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="D4" s="27" t="str">
+        <f t="shared" ref="D4:D9" si="1">TEXT(A4, "dddd")</f>
+        <v>Thursday</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <f>E3+2</f>
+        <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="J4" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="79"/>
+        <v>237</v>
+      </c>
+      <c r="K4" s="108"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="16"/>
@@ -5205,46 +5860,47 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="81">
-        <v>45926</v>
+        <f t="shared" ref="A5:A9" si="2">A4+14</f>
+        <v>46079</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="C5" s="26" t="str">
-        <f>TEXT(A5, "mmm")</f>
-        <v>Sep</v>
+        <f t="shared" si="0"/>
+        <v>Feb</v>
       </c>
       <c r="D5" s="27" t="str">
-        <f>TEXT(A5, "dddd")</f>
-        <v>Friday</v>
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
       </c>
       <c r="E5">
-        <f>E3+2</f>
-        <v>3</v>
+        <f t="shared" ref="E5:E9" si="3">E4+2</f>
+        <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J5" s="104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K5" s="108"/>
       <c r="L5" s="5"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -5256,46 +5912,47 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="81">
-        <v>45939</v>
+        <f t="shared" si="2"/>
+        <v>46093</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="26" t="str">
-        <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
-        <v>Oct</v>
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
       <c r="D6" s="27" t="str">
-        <f t="shared" ref="D6" si="1">TEXT(A6, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E6">
-        <f>E5+2</f>
-        <v>5</v>
-      </c>
-      <c r="F6" s="107" t="s">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="106" t="s">
-        <v>164</v>
+        <v>237</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="104" t="s">
+        <v>237</v>
       </c>
       <c r="K6" s="108"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
       <c r="O6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -5307,43 +5964,47 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="81">
-        <v>45946</v>
+        <f t="shared" si="2"/>
+        <v>46107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>240</v>
+        <v>166</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
+      <c r="D7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>241</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" s="106" t="s">
-        <v>164</v>
+        <v>237</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>237</v>
       </c>
       <c r="K7" s="108"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -5355,679 +6016,13 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
-        <v>45953</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="26" t="str">
-        <f>TEXT(A8, "mmm")</f>
-        <v>Oct</v>
-      </c>
-      <c r="D8" s="27" t="str">
-        <f>TEXT(A8, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E8">
-        <f>E6+2</f>
-        <v>7</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
-        <v>45967</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="26" t="str">
-        <f>TEXT(A9, "mmm")</f>
-        <v>Nov</v>
-      </c>
-      <c r="D9" s="27" t="str">
-        <f>TEXT(A9, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E9">
-        <f>E8+2</f>
-        <v>9</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="J9" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
-        <v>45974</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="26" t="str">
-        <f>TEXT(A10, "mmm")</f>
-        <v>Nov</v>
-      </c>
-      <c r="D10" s="27" t="str">
-        <f>TEXT(A10, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="108"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
-        <v>45981</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="26" t="str">
-        <f>TEXT(A11, "mmm")</f>
-        <v>Nov</v>
-      </c>
-      <c r="D11" s="27" t="str">
-        <f>TEXT(A11, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E11">
-        <f>E9+2</f>
-        <v>11</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
-        <v>45995</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="26" t="str">
-        <f>TEXT(A12, "mmm")</f>
-        <v>Dec</v>
-      </c>
-      <c r="D12" s="27" t="str">
-        <f>TEXT(A12, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12" si="2">E11+2</f>
-        <v>13</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" s="138" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="13"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="18"/>
-    </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:X2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S12" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7_1"/>
-    <protectedRange sqref="W13:X13 F3:X12" name="Range8_1"/>
-  </protectedRanges>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
-  <dimension ref="A1:X13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="147" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="150" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
-        <v>46051</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="29" t="str">
-        <f>TEXT(A3, "mmm")</f>
-        <v>Jan</v>
-      </c>
-      <c r="D3" s="59" t="str">
-        <f>TEXT(A3, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="45"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
-        <f>A3+14</f>
-        <v>46065</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
-        <v>Feb</v>
-      </c>
-      <c r="D4" s="27" t="str">
-        <f t="shared" ref="D4:D9" si="1">TEXT(A4, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E4">
-        <f>E3+2</f>
-        <v>3</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
-        <f t="shared" ref="A5:A9" si="2">A4+14</f>
-        <v>46079</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Feb</v>
-      </c>
-      <c r="D5" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E9" si="3">E4+2</f>
-        <v>5</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
-        <f t="shared" si="2"/>
-        <v>46093</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Mar</v>
-      </c>
-      <c r="D6" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
-        <f t="shared" si="2"/>
-        <v>46107</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Mar</v>
-      </c>
-      <c r="D7" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="81">
         <f t="shared" si="2"/>
         <v>46121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6042,19 +6037,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="J8" s="104" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="K8" s="108"/>
       <c r="L8" s="5"/>
@@ -6071,13 +6066,13 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1">
       <c r="A9" s="81">
         <f t="shared" si="2"/>
         <v>46135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6092,26 +6087,26 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="I9" s="104" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="K9" s="108"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -6123,24 +6118,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6165,231 +6160,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="59" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="142" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="144" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="56" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="56" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="56" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="56" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="56" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="54"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="56" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C10" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="143" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>261</v>
-      </c>
       <c r="C18" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="57" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -6410,24 +6405,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C1" s="136" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="139">
         <v>45911</v>
       </c>
@@ -6435,13 +6430,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F2" s="81">
         <v>45911</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>TEXT(F2, "mmm")</f>
@@ -6455,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="139">
         <f>A2+7</f>
         <v>45918</v>
@@ -6465,13 +6460,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F3" s="81">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6486,7 +6481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="139">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6496,13 +6491,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F4" s="81">
         <v>45939</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" s="26" t="str">
         <f t="shared" ref="H4" si="2">TEXT(F4, "mmm")</f>
@@ -6517,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="139">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6527,25 +6522,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F5" s="81">
         <v>45946</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="139">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6555,13 +6550,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F6" s="81">
         <v>45953</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H6" s="26" t="str">
         <f>TEXT(F6, "mmm")</f>
@@ -6576,7 +6571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="139">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6586,13 +6581,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="F7" s="81">
         <v>45967</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H7" s="26" t="str">
         <f>TEXT(F7, "mmm")</f>
@@ -6607,7 +6602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="139">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6617,13 +6612,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F8" s="81">
         <v>45974</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8" s="26" t="str">
         <f>TEXT(F8, "mmm")</f>
@@ -6637,7 +6632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="139">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6647,13 +6642,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F9" s="81">
         <v>45981</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H9" s="26" t="str">
         <f>TEXT(F9, "mmm")</f>
@@ -6668,7 +6663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="139">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6678,13 +6673,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F10" s="81">
         <v>45995</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H10" s="26" t="str">
         <f>TEXT(F10, "mmm")</f>
@@ -6699,7 +6694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="139">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6709,10 +6704,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="139">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6722,10 +6717,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="139">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6735,10 +6730,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="140" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="139">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -6748,15 +6743,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="139"/>
       <c r="B15" s="140"/>
       <c r="C15" s="140"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -6787,7 +6782,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -6799,293 +6794,293 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="97" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="85" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E5" s="86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="H5" s="88" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="I5" s="87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="98">
         <v>45694</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E6" s="99">
         <v>2</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="91"/>
       <c r="I6" s="90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="89">
         <v>45708</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D7" s="100" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E7" s="100">
         <v>4</v>
       </c>
       <c r="F7" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="89">
         <v>45722</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E8" s="100">
         <v>6</v>
       </c>
       <c r="F8" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>178</v>
-      </c>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="89">
         <v>45735</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E9" s="100">
         <v>8</v>
       </c>
       <c r="F9" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>83</v>
-      </c>
       <c r="I9" s="92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="89">
         <v>45744</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="E10" s="100">
         <v>9</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="89">
         <v>45750</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D11" s="100" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E11" s="100">
         <v>10</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="89">
         <v>45758</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="E12" s="100">
         <v>11</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="89">
         <v>45764</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D13" s="100" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E13" s="100">
         <v>12</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="I13" s="92"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="94">
         <v>45771</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E14" s="101">
         <v>13</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H14" s="96" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I14" s="95" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="85"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2354" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0793FFE-932A-41FA-80FD-5AF6B08A1E5A}"/>
+  <xr:revisionPtr revIDLastSave="2380" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23E4818-1409-4DB5-B371-3E08D86DF036}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="324">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -141,7 +141,7 @@
     <t>Spatial confounding is defined as the confounding between the fixed and spatial random effects in generalized linear mixed models (GLMMs). It gained attention in the past years, as it may generate unexpected results in modeling. We introduce solutions to alleviate the spatial confounding beyond GLMMs for two families of statistical models. In the shared component models, multiple count responses are recorded at each spatial location, which may exhibit similar spatial patterns. Therefore, the spatial effect terms may be shared between the outcomes in addition to specific spatial patterns. Our proposal relies on the use of modified spatial structures for each shared component and specific effects. Spatial frailty models can incorporate spatially structured effects and it is common to observe more than one sample unit per area which means that the support of fixed and spatial effects differs. Thus, we introduce a projection-based approach for reducing the dimension of the data. An R package named "RASCO: An R package to Alleviate Spatial Confounding" is provided. Cases of lung and bronchus cancer in the state of California are investigated under both methodologies and the results prove the efficiency of the proposed methodology.</t>
   </si>
   <si>
-    <t>here</t>
+    <t>https://scholar.google.com.br/citations?user=Ujun714AAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>N</t>
@@ -166,6 +166,9 @@
 In the talk I will present recent results on how to design and analyse hypocoercivity-preserving Galerkin discretisations, in an effort to port the concept of hypocoercivity in the design and analysis of cutting-edge numerical methods. To that end I plan to start by presenting the first provably hypocoercivity-preserving Galerkin (non-conforming) finite element method for the model problem of Kolmogorov equation and discuss some very recent results on a different approach for the same equation. I plan to conclude with some first results of Galerkin methods for the inhomogeneous  Fokker-Plack equation on exponentially weighted function spaces. Some of the results are joint work with Zhaonan Dong (INRIA, Paris) and Philip Herbert (Sussex). </t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=SgSV1gIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>Coffee is a drink made by dissolving the soluble parts of ground, roast coffee beans in water. In espresso coffee this is done at high temperatures and pressures. It seems obvious that grinding coffee more finely will lead to more coffee being extracted. However, a recent experiment showed that, beyond a cutoff point grinding coffee more finely results in lower extraction. One possible explanation for this is that fine grinding promotes uneven extraction in the coffee bed. To explore this a low dimensional model in which there are two possible pathways for flow and coffee extraction is derived and analysed. This model shows that, below a critical grind size, there is decreasing extraction with decreasing grind size as is seen experimentally. In the model this is due to a complicated interplay between an initial imbalance in the porosities and permeabilities of the two pathways which is increased by flow and extraction, leading to the complete extraction of all soluble coffee from one pathway.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=fZNoYSMAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>Cameron Hall</t>
@@ -191,6 +197,9 @@
 One key tool for ensuring grid stability is mathematical modelling. Models of power grids can be used to estimate the inherent stability of the system, and models can be used to optimise the controllable features of generators to help ensure grid stability. Recent sophisticated optimisation methods have been proposed for finding optimal generator parameters for power grids. In this talk, I will describe some of these optimisation methods and explore some of their strengths and weaknesses. In particular, I will look at how robust the optimisation methods are when certain model parameters are not known exactly, or when multiple generators are combined in a model and treated as a single generator.</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=MJVJ8pUAAAAJ&amp;hl=en&amp;oi=ao</t>
+  </si>
+  <si>
     <t>8th feb</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve"> In this talk, I will show how tools from statistical physics can be used to study the Earth’s climate. The specific problem addressed is the geophysical-scale evolution of Arctic sea ice. Using an analogy with Brownian motion, the original evolution equation for the sea ice thickness distribution function, g(h), by Thorndike et al. (J. Geophys. Res. 80(33), 4501(1975)) is transformed to a Fokker-Planck-like equation. The steady solution for wintertime is g(h) = N(q, H) * h^q * exp(-h/H), where q and H are expressible in terms of moments over the transition probabilities between thickness categories. This solution exhibits the functional form used in observational fits and shows that for h &lt;&lt; 1, g(h) is controlled by both thermodynamics and mechanics, whereas for h &gt;&gt; 1 only mechanics controls g(h). Furthermore, seasonality is introduced by using the Eisenman-Wettlaufer (Proc. Natl. Acad. Sci. USA 106, 28 (2009)) and Semtner (J. Phys. Oceanogr. 6, 379 (1976)) models for the thermal growth of sea ice. The time-dependent problem is studied by numerically integrating the Fokker-Planck equation. The results obtained from these numerical integrations and their comparison with submarine and satellite observations of ice thickness will also be discussed. </t>
+  </si>
+  <si>
+    <t>https://eps.leeds.ac.uk/maths/staff/10606/dr-srikanth-toppaladoddi</t>
   </si>
   <si>
     <t>2</t>
@@ -252,6 +264,9 @@
     <t>Networks represent complex systems that capture interactions among entities, often resulting in the formation of communities. Additionally, networks frequently depict flows of quantities between nodes. For instance, in the Erasmus programme exchange network, interactions between European countries correspond to volumes of students being transferred among them. When modeling such networks, the exchanged volumes are influenced by the nodes' capacities to send and receive quantities, which can vary significantly across the network and may be associated with uninteresting aspects of the data. In the Erasmus programme network, for example, the volume of outgoing students from a country is limited by the size of its student population. Similarly, the volume of incoming students to a country is associated with the number of universities, which is also related to its student population. Clustering nodes in such networks by directly modeling these volumes often results in clustering solutions that merely reflect the capacities of sending and receiving nodes, masking interesting patterns associated with the relative strength of the connecting flows. We propose a model-based clustering approach that utilizes the relative strength of connections, leveraging concepts from compositional data analysis. We introduce a novel Dirichlet stochastic block model for clustering nodes in networks with compositional edge weights. The model relies on a mixture of Dirichlet distributions, whose parameters are determined by the cluster allocations of sender and receiver nodes, allowing for different propensities for retaining or transferring quantities over the network between the clusters. Consequently, nodes are clustered based on flows as parts of a whole, rather than raw volumes. Inference is implemented using a variation of the classification expectation-maximization algorithm, enabling efficient computations. The model is tested in a number of synthetic data experiments, showing good performance. Furthermore, we showcase the model on two datasets: the Erasmus programme exchange network among European countries and a bike-sharing network for the city of London.</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=yVUdTdUAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y </t>
   </si>
   <si>
@@ -277,6 +292,9 @@
 In this seminar I will present a new theory for wave-driven propulsion based on coupling the equations of motion of a floating raft to a quasi-potential flow model of the fluid. Using this model, expressions are derived for the drift speed and propulsive thrust of the raft which in turn are shown to be consistent with global momentum conservation. The validity of the model is explored by describing the motion of SurferBot, demonstrating close agreement with the experimentally determined drift speed and oscillatory dynamics. The efficiency of wave-driven propulsion is then computed as a function of driving oscillation frequency and the forcing location, revealing optimal values for both of these parameters which await confirmation in experiments. </t>
   </si>
   <si>
+    <t>https://scholar.google.co.uk/citations?user=xupsCdUAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t>27th</t>
   </si>
   <si>
@@ -312,6 +330,12 @@
   </si>
   <si>
     <t>The Arctic is the fastest warming region on Earth. Understanding how a rapidly changing climate change impacts Arctic systems is therefore an important challenge. This is the basis of the `Compost-Bomb' instability, a theorized runaway heating of northern latitude peat soils when atmospheric temperature rises faster than some critical rate, first proposed in [Luke &amp; Cox, European Journal of Soil Science (2011), 62.1] and analysed in [Wieczorek et al, Proceedings of the Royal Society A (2011), 467.2129]. The Compost Bomb instability was one of the first examples of what is known as Rate-induced tipping or R-tipping.The key trigger for the compost bomb instability is heat produced by microbial respiration. Here, the original soil carbon and temperature model of Luke &amp; Cox is augmented with a non-monotone microbial respiration function, for a more realistic representation of the process. This gives rise to a meta-stable state, reproducing the results of [Khvorostyanov et al, Tellus (2008), 60B] where a complex PDE model is used. Two non-autonomous climate forcings are examined: (i) a rise in mean air temperature over decades (ii) a short-lived extreme weather event, with the rate-induced compost bomb observed in each. Using techniques of compactification, singular perturbation theory and desingularisation, we reduce the R-tipping problem to one of heteroclinic orbits, uncovering the tipping mechanism for each climate change scenario.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=5QMkI0gAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2210.02376.pdf</t>
   </si>
   <si>
     <t>Ann Smith</t>
@@ -327,6 +351,9 @@
 If system dynamics can be reliably recovered from data along with insights into the complexities of predictive maintenance this will pave the way for a more reliable future.</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=j_8nzt8AAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t>Allan Greenleaf</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>Multilinear operators arise in a wide range of settings, from pure to applied maths. Estimates for multilinear operators are generally more difficult to obtain than for linear ones. I will discuss a very general `cheap’ method of leveraging known estimates for linear operators to (possibly) get estimates for multilinear ones, and give some examples, focusing on generalized Radon transforms.</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=obekKC8AAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t>Y --- already booked through Niamh</t>
   </si>
   <si>
@@ -370,6 +400,9 @@
   </si>
   <si>
     <t xml:space="preserve">Regression models that incorporate smooth functions of predictor variables to explain the relationships with a response variable have gained widespread usage and proved successful in various applications. By incorporating smooth functions of predictor variables, these models can capture complex relationships between the response and predictors while still allowing for interpretation of the results. In situations where the relationships between a response variable and predictors are explored, it is not uncommon to assume that these relationships adhere to certain shape constraints. Examples of such constraints include monotonicity and convexity.  Shape-constrained additive models (SCAM) offer a general framework for fitting exponential family generalized additive models with shape restrictions on smooths. The main objective of this talk is to provide extensions of the existing framework for SCAM with a mixture of unconstrained terms and various shape-restricted terms to accommodate smooth interaction of covariates, varying coefficient terms, linear functionals with or without shape constraints as model components, and data with short-term temporal or spatial autocorrelation. The practical usage of the suggested extensions will be illustrated in several examples. </t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=eoA_1iUAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>Natalya's husband (also a statistician) Per Arnqvist will also be visiting and may say a few words too. They are interested in building a collaborative link to UL following their daughter doing Erasmus here.</t>
@@ -781,7 +814,7 @@
     <t>Hlib Husarov &amp; Eberhard Mayerhofer</t>
   </si>
   <si>
-    <t>University of Limerick &amp; Mary Immaculate Secondary School, Lisdoonvarna</t>
+    <t>Mary Immaculate Secondary School, Lisdoonvarna &amp; University of Limerick</t>
   </si>
   <si>
     <t>Eberhard Mayerhofer</t>
@@ -791,6 +824,12 @@
   </si>
   <si>
     <t>We propose a recursive algorithm for identifying all finite sequences of positive integers whose product equals their sum. Our method uses solutions of strictly shorter length that are iteratively extended in pursuit of a valid solution. The algorithm is efficient, with a time complexity similar to the quick sort algorithm. Arxiv: https://arxiv.org/abs/2508.09647</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=N-A7h6EAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://arxiv.org/abs/2508.09647</t>
   </si>
   <si>
     <t>4pm</t>
@@ -839,6 +878,9 @@
     <t>Queen's University Belfast</t>
   </si>
   <si>
+    <t>Advances in Robust Mixed Effects Modelling</t>
+  </si>
+  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -1026,6 +1068,13 @@
   </si>
   <si>
     <t>Leornard Henckel</t>
+  </si>
+  <si>
+    <t>Clustering high-dimensional discrete data: a compressed approach</t>
+  </si>
+  <si>
+    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
+We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1084,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1835,10 +1884,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1876,7 +1929,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1982,7 +2035,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2124,7 +2177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2134,11 +2187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7958562-D4BB-4776-9668-682A6F2E2AD0}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2163,7 +2216,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2260,7 +2313,7 @@
         <v>Jan</v>
       </c>
       <c r="D3" s="26" t="str">
-        <f>TEXT(A3, "dddd")</f>
+        <f t="shared" ref="D3:D19" si="1">TEXT(A3, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="E3" s="27">
@@ -2312,7 +2365,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2324,7 +2377,7 @@
         <v>Feb</v>
       </c>
       <c r="D4" s="26" t="str">
-        <f>TEXT(A4, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E4" s="27">
@@ -2344,23 +2397,23 @@
         <v>39</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="5"/>
       <c r="S4" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>35</v>
@@ -2372,7 +2425,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2384,43 +2437,43 @@
         <v>Feb</v>
       </c>
       <c r="D5" s="26" t="str">
-        <f>TEXT(A5, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E5" s="27">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="5"/>
       <c r="S5" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>35</v>
@@ -2430,7 +2483,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2442,47 +2495,47 @@
         <v>Feb</v>
       </c>
       <c r="D6" s="26" t="str">
-        <f>TEXT(A6, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E6" s="27">
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>35</v>
@@ -2494,7 +2547,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2506,47 +2559,47 @@
         <v>Feb</v>
       </c>
       <c r="D7" s="26" t="str">
-        <f>TEXT(A7, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E7" s="27">
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>35</v>
@@ -2554,13 +2607,13 @@
       <c r="U7" s="16"/>
       <c r="V7" s="14"/>
       <c r="W7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2572,24 +2625,24 @@
         <v>Feb</v>
       </c>
       <c r="D8" s="26" t="str">
-        <f>TEXT(A8, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E8" s="27">
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -2615,16 +2668,16 @@
         <v>34</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="14"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2636,29 +2689,29 @@
         <v>Mar</v>
       </c>
       <c r="D9" s="26" t="str">
-        <f>TEXT(A9, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E9" s="27">
         <v>6</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
@@ -2674,7 +2727,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2686,53 +2739,53 @@
         <v>Mar</v>
       </c>
       <c r="D10" s="26" t="str">
-        <f>TEXT(A10, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E10" s="27">
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V10" s="14" t="s">
         <v>34</v>
@@ -2740,7 +2793,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2748,46 +2801,46 @@
         <v>27</v>
       </c>
       <c r="C11" s="26" t="str">
-        <f t="shared" ref="C11:C19" si="1">TEXT(A11, "mmm")</f>
+        <f t="shared" ref="C11:C19" si="2">TEXT(A11, "mmm")</f>
         <v>Mar</v>
       </c>
       <c r="D11" s="26" t="str">
-        <f>TEXT(A11, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E11" s="28">
         <v>9</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="5" t="s">
@@ -2798,7 +2851,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -2806,48 +2859,48 @@
         <v>27</v>
       </c>
       <c r="C12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
+      <c r="D12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
-      </c>
-      <c r="D12" s="26" t="str">
-        <f>TEXT(A12, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E12" s="27">
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="5" t="s">
@@ -2858,7 +2911,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -2866,37 +2919,37 @@
         <v>27</v>
       </c>
       <c r="C13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
+      <c r="D13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
-      </c>
-      <c r="D13" s="26" t="str">
-        <f>TEXT(A13, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="E13" s="27">
         <v>10</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14" t="s">
@@ -2924,7 +2977,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -2932,48 +2985,48 @@
         <v>27</v>
       </c>
       <c r="C14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
+      <c r="D14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
-      </c>
-      <c r="D14" s="26" t="str">
-        <f>TEXT(A14, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="E14" s="27">
         <v>11</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="5"/>
       <c r="S14" s="15"/>
       <c r="T14" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>34</v>
@@ -2982,7 +3035,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -2990,48 +3043,48 @@
         <v>27</v>
       </c>
       <c r="C15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
+      <c r="D15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
-      </c>
-      <c r="D15" s="26" t="str">
-        <f>TEXT(A15, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="E15" s="27">
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S15" s="15" t="s">
         <v>34</v>
@@ -3048,7 +3101,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3056,33 +3109,33 @@
         <v>27</v>
       </c>
       <c r="C16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
+      <c r="D16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Apr</v>
-      </c>
-      <c r="D16" s="26" t="str">
-        <f>TEXT(A16, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="E16" s="27">
         <v>12</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="19" t="s">
@@ -3103,12 +3156,12 @@
         <v>34</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3116,31 +3169,31 @@
         <v>27</v>
       </c>
       <c r="C17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>May</v>
+      </c>
+      <c r="D17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="D17" s="26" t="str">
-        <f>TEXT(A17, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E17" s="27">
         <v>15</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="17" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17" t="s">
@@ -3165,18 +3218,18 @@
         <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3184,28 +3237,28 @@
         <v>27</v>
       </c>
       <c r="C18" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Jul</v>
+      </c>
+      <c r="D18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
-      </c>
-      <c r="D18" s="26" t="str">
-        <f>TEXT(A18, "dddd")</f>
         <v>Monday</v>
       </c>
       <c r="E18" s="27">
         <v>16</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="17"/>
@@ -3224,7 +3277,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3232,28 +3285,28 @@
         <v>27</v>
       </c>
       <c r="C19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Aug</v>
+      </c>
+      <c r="D19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>Aug</v>
-      </c>
-      <c r="D19" s="26" t="str">
-        <f>TEXT(A19, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E19" s="27">
         <v>19</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="17"/>
@@ -3265,14 +3318,14 @@
       <c r="R19" s="17"/>
       <c r="S19" s="20"/>
       <c r="T19" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="19"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3296,14 +3349,14 @@
     <hyperlink ref="K6" r:id="rId2" xr:uid="{D50B6574-EA67-421C-A06C-511763C2CECC}"/>
     <hyperlink ref="K13" r:id="rId3" xr:uid="{81D25FB2-5DF9-414F-B2AA-D04B200F1303}"/>
     <hyperlink ref="L13" r:id="rId4" xr:uid="{5BC626BC-6B93-4451-B351-1C290775A798}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{7DA8F1F7-6C53-42A5-8DF1-F69372FA29E1}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{AA5A6F67-6D40-4017-A0BF-C0555655149E}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{D594D734-8A49-46FA-9C99-BF312BB87C4C}"/>
-    <hyperlink ref="K10" r:id="rId8" xr:uid="{A42BA110-594C-4702-8BBB-6FEBB117FEB1}"/>
-    <hyperlink ref="K11" r:id="rId9" xr:uid="{CA02B488-FA07-461F-AA14-616AE99D302F}"/>
-    <hyperlink ref="K14" r:id="rId10" xr:uid="{3AEAB718-97D2-4D83-B216-29567CA622BC}"/>
-    <hyperlink ref="K17" r:id="rId11" xr:uid="{1536CC25-4ADA-4A6B-BA94-9CD661751DC8}"/>
-    <hyperlink ref="K15" r:id="rId12" display="https://scholar.google.com/citations?user=obekKC8AAAAJ&amp;hl=en" xr:uid="{76AD086E-ACC7-425D-8974-7A203532CC1B}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{AA5A6F67-6D40-4017-A0BF-C0555655149E}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{D594D734-8A49-46FA-9C99-BF312BB87C4C}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{A42BA110-594C-4702-8BBB-6FEBB117FEB1}"/>
+    <hyperlink ref="K14" r:id="rId8" xr:uid="{3AEAB718-97D2-4D83-B216-29567CA622BC}"/>
+    <hyperlink ref="K17" r:id="rId9" xr:uid="{1536CC25-4ADA-4A6B-BA94-9CD661751DC8}"/>
+    <hyperlink ref="K15" r:id="rId10" xr:uid="{76AD086E-ACC7-425D-8974-7A203532CC1B}"/>
+    <hyperlink ref="K4" r:id="rId11" xr:uid="{7DA8F1F7-6C53-42A5-8DF1-F69372FA29E1}"/>
+    <hyperlink ref="K11" r:id="rId12" xr:uid="{CA02B488-FA07-461F-AA14-616AE99D302F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3314,11 +3367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3344,7 +3397,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3355,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="151" t="s">
         <v>3</v>
       </c>
@@ -3366,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E2" s="155" t="s">
         <v>7</v>
@@ -3423,7 +3476,7 @@
         <v>23</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X2" s="46" t="s">
         <v>25</v>
@@ -3432,12 +3485,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C3" s="26" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(A3, "mmm")</f>
@@ -3451,58 +3504,58 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="63" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M3" s="40"/>
       <c r="N3" s="38" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="40" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="S3" s="38" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="T3" s="35"/>
       <c r="U3" s="40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V3" s="40"/>
       <c r="W3" s="40" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="X3" s="47"/>
       <c r="Y3" s="45"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3516,20 +3569,20 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="25" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="5"/>
@@ -3546,12 +3599,12 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3565,20 +3618,20 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="5"/>
@@ -3595,12 +3648,12 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3614,20 +3667,20 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="5"/>
@@ -3644,12 +3697,12 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3663,20 +3716,20 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="25" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -3693,12 +3746,12 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3712,20 +3765,20 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="25" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -3742,12 +3795,12 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3761,20 +3814,20 @@
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="64" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="5"/>
@@ -3791,12 +3844,12 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3810,20 +3863,20 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="67" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -3840,12 +3893,12 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" ref="C11" si="2">TEXT(A11, "mmm")</f>
@@ -3859,20 +3912,20 @@
         <v>12</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="62" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -3889,12 +3942,12 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C12" s="48" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -3908,36 +3961,36 @@
         <v>13</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="51" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
       <c r="N12" s="21"/>
       <c r="O12" s="53"/>
       <c r="P12" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="T12" s="53"/>
       <c r="U12" s="17"/>
@@ -3946,20 +3999,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -3972,59 +4025,59 @@
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
     </row>
@@ -4054,10 +4107,10 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4085,7 +4138,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
@@ -4107,10 +4160,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F2" s="146" t="s">
         <v>8</v>
@@ -4161,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="W2" s="76" t="s">
         <v>25</v>
@@ -4170,15 +4223,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D3" s="110" t="str">
         <f>TEXT(A3, "dddd")</f>
@@ -4191,14 +4244,14 @@
         <v>37</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H3" s="114"/>
       <c r="I3" s="119" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
@@ -4212,22 +4265,22 @@
       <c r="R3" s="38"/>
       <c r="S3" s="35"/>
       <c r="T3" s="40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
       <c r="W3" s="47"/>
       <c r="X3" s="45"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D4" s="109" t="str">
         <f t="shared" ref="D4:D7" si="0">TEXT(A4, "dddd")</f>
@@ -4237,36 +4290,36 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H4" s="115" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J4" s="104" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K4" s="78"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="16"/>
       <c r="S4" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>35</v>
@@ -4276,15 +4329,15 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D5" s="109" t="str">
         <f t="shared" si="0"/>
@@ -4294,22 +4347,22 @@
         <v>6</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H5" s="115" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I5" s="121" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J5" s="106" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="16" t="s">
@@ -4331,15 +4384,15 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D6" s="109" t="str">
         <f t="shared" si="0"/>
@@ -4349,27 +4402,27 @@
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H6" s="115" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I6" s="121" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="J6" s="104" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K6" s="78"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>33</v>
@@ -4386,15 +4439,15 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D7" s="109" t="str">
         <f t="shared" si="0"/>
@@ -4404,19 +4457,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H7" s="115" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I7" s="121" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J7" s="104" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K7" s="79"/>
       <c r="L7" s="5"/>
@@ -4439,73 +4492,73 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E8" s="109">
         <v>10</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H8" s="115" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D9" s="109" t="str">
         <f>TEXT(A10, "dddd")</f>
@@ -4515,50 +4568,50 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I9" s="121" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K9" s="79"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4566,7 +4619,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D10" s="109" t="str">
         <f t="shared" ref="D10:D15" si="1">TEXT(A10, "dddd")</f>
@@ -4576,28 +4629,28 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H10" s="115" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="121" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="J10" s="104" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="52"/>
       <c r="M10" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" s="53"/>
       <c r="O10" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -4611,15 +4664,15 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D11" s="111" t="str">
         <f t="shared" si="1"/>
@@ -4629,38 +4682,38 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H11" s="116" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="I11" s="123" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="J11" s="118" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
       <c r="M11" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" s="14" t="s">
         <v>35</v>
@@ -4670,12 +4723,12 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
       <c r="B12" s="134" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C12" s="130" t="str">
         <f>TEXT(A12,"mmm")</f>
@@ -4689,53 +4742,53 @@
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H12" s="115" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J12" s="104" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K12" s="78"/>
       <c r="L12" s="78"/>
       <c r="M12" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
       <c r="B13" s="134" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C13" s="130" t="str">
         <f>TEXT(A13,"mmm")</f>
@@ -4749,26 +4802,26 @@
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H13" s="115" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I13" s="120" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="J13" s="104" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K13" s="78"/>
       <c r="L13" s="78"/>
       <c r="M13" s="14"/>
       <c r="N13" s="35"/>
       <c r="O13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -4782,12 +4835,12 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C14" s="131" t="str">
         <f>TEXT(A14,"mmm")</f>
@@ -4801,25 +4854,25 @@
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I14" s="124" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J14" s="118" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -4828,7 +4881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -4847,116 +4900,116 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="J15" s="135" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="81"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="81"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="65"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="65"/>
     </row>
   </sheetData>
@@ -4984,11 +5037,11 @@
   </sheetPr>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5015,7 +5068,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
@@ -5037,10 +5090,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F2" s="146" t="s">
         <v>8</v>
@@ -5091,7 +5144,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="W2" s="76" t="s">
         <v>25</v>
@@ -5100,12 +5153,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81">
         <v>45911</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
@@ -5119,22 +5172,26 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I3" s="104" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J3" s="104" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="40"/>
+        <v>243</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>245</v>
+      </c>
       <c r="M3" s="38"/>
       <c r="N3" s="35" t="s">
         <v>33</v>
@@ -5152,12 +5209,12 @@
       <c r="W3" s="47"/>
       <c r="X3" s="45"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>TEXT(A4, "mmm")</f>
@@ -5171,19 +5228,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J4" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K4" s="79"/>
       <c r="L4" s="5"/>
@@ -5200,12 +5257,12 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5220,19 +5277,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="J5" s="104" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K5" s="108"/>
       <c r="L5" s="5"/>
@@ -5251,12 +5308,12 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
         <v>45939</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
@@ -5271,26 +5328,26 @@
         <v>5</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K6" s="108"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
       <c r="O6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -5302,36 +5359,36 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
         <v>45946</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="103" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J7" s="106" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K7" s="108"/>
       <c r="L7" s="5"/>
@@ -5350,12 +5407,12 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <v>45953</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C8" s="26" t="str">
         <f>TEXT(A8, "mmm")</f>
@@ -5370,26 +5427,26 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J8" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K8" s="108"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -5401,12 +5458,12 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
         <v>45967</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C9" s="26" t="str">
         <f>TEXT(A9, "mmm")</f>
@@ -5421,19 +5478,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J9" s="103" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K9" s="108"/>
       <c r="L9" s="5"/>
@@ -5450,12 +5507,12 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1">
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81">
         <v>45974</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>TEXT(A10, "mmm")</f>
@@ -5469,26 +5526,26 @@
         <v>10</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J10" s="103" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K10" s="108"/>
       <c r="L10" s="5"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -5500,12 +5557,12 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1">
+    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81">
         <v>45981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C11" s="26" t="str">
         <f>TEXT(A11, "mmm")</f>
@@ -5520,19 +5577,19 @@
         <v>11</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I11" s="103" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J11" s="106" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="5"/>
@@ -5551,12 +5608,12 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1">
+    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81">
         <v>45995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C12" s="26" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -5571,26 +5628,26 @@
         <v>13</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="J12" s="138" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="K12" s="108"/>
       <c r="L12" s="5"/>
       <c r="M12" s="16"/>
       <c r="N12" s="35"/>
       <c r="O12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -5602,24 +5659,24 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1">
+    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5632,6 +5689,9 @@
     <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7_1"/>
     <protectedRange sqref="W13:X13 F3:X12" name="Range8_1"/>
   </protectedRanges>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5644,7 +5704,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5671,7 +5731,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5682,7 +5742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
@@ -5693,10 +5753,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F2" s="146" t="s">
         <v>8</v>
@@ -5747,7 +5807,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="W2" s="76" t="s">
         <v>25</v>
@@ -5756,12 +5816,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
         <v>46051</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
@@ -5775,19 +5835,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I3" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J3" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="40"/>
@@ -5808,13 +5868,13 @@
       <c r="W3" s="47"/>
       <c r="X3" s="45"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81">
         <f>A3+14</f>
         <v>46065</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
@@ -5829,19 +5889,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J4" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K4" s="108"/>
       <c r="L4" s="5"/>
@@ -5860,13 +5920,13 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -5881,26 +5941,26 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J5" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K5" s="108"/>
       <c r="L5" s="5"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -5912,13 +5972,13 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
         <f t="shared" si="2"/>
         <v>46093</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -5933,19 +5993,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I6" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J6" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K6" s="108"/>
       <c r="L6" s="5"/>
@@ -5964,13 +6024,13 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
         <f t="shared" si="2"/>
         <v>46107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -5985,26 +6045,26 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I7" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J7" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K7" s="108"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -6016,13 +6076,13 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <f t="shared" si="2"/>
         <v>46121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6037,19 +6097,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J8" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K8" s="108"/>
       <c r="L8" s="5"/>
@@ -6066,13 +6126,13 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
         <f t="shared" si="2"/>
         <v>46135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6087,26 +6147,26 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I9" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K9" s="108"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -6118,24 +6178,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6160,231 +6220,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B3" s="143"/>
       <c r="C3" s="144" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="54"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="143" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="143" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>269</v>
-      </c>
       <c r="C18" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6405,24 +6465,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C1" s="136" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139">
         <v>45911</v>
       </c>
@@ -6430,13 +6490,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F2" s="81">
         <v>45911</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>TEXT(F2, "mmm")</f>
@@ -6450,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="139">
         <f>A2+7</f>
         <v>45918</v>
@@ -6460,13 +6520,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F3" s="81">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6481,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="139">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6491,13 +6551,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F4" s="81">
         <v>45939</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H4" s="26" t="str">
         <f t="shared" ref="H4" si="2">TEXT(F4, "mmm")</f>
@@ -6512,7 +6572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="139">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6522,25 +6582,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F5" s="81">
         <v>45946</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="139">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6550,13 +6610,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F6" s="81">
         <v>45953</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H6" s="26" t="str">
         <f>TEXT(F6, "mmm")</f>
@@ -6571,7 +6631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="139">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6581,13 +6641,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F7" s="81">
         <v>45967</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H7" s="26" t="str">
         <f>TEXT(F7, "mmm")</f>
@@ -6602,7 +6662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="139">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6612,13 +6672,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F8" s="81">
         <v>45974</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H8" s="26" t="str">
         <f>TEXT(F8, "mmm")</f>
@@ -6632,7 +6692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="139">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6642,13 +6702,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F9" s="81">
         <v>45981</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H9" s="26" t="str">
         <f>TEXT(F9, "mmm")</f>
@@ -6663,7 +6723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="139">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6673,13 +6733,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F10" s="81">
         <v>45995</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H10" s="26" t="str">
         <f>TEXT(F10, "mmm")</f>
@@ -6694,7 +6754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="139">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6704,10 +6764,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="139">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6717,10 +6777,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="139">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6730,10 +6790,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="140" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="139">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -6743,15 +6803,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="140" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="139"/>
       <c r="B15" s="140"/>
       <c r="C15" s="140"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -6782,7 +6842,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -6794,17 +6854,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="85" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>3</v>
       </c>
@@ -6815,10 +6875,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E5" s="86" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F5" s="86" t="s">
         <v>8</v>
@@ -6827,24 +6887,24 @@
         <v>9</v>
       </c>
       <c r="H5" s="88" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="I5" s="87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="98">
         <v>45694</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E6" s="99">
         <v>2</v>
@@ -6853,153 +6913,153 @@
         <v>37</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H6" s="91"/>
       <c r="I6" s="90" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="89">
         <v>45708</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D7" s="100" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E7" s="100">
         <v>4</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H7" s="93" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="89">
         <v>45722</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E8" s="100">
         <v>6</v>
       </c>
       <c r="F8" s="93" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H8" s="93" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="89">
         <v>45735</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E9" s="100">
         <v>8</v>
       </c>
       <c r="F9" s="93" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G9" s="93" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="89">
         <v>45744</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E10" s="100">
         <v>9</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="89">
         <v>45750</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D11" s="100" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E11" s="100">
         <v>10</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="89">
         <v>45758</v>
       </c>
@@ -7007,80 +7067,80 @@
         <v>27</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E12" s="100">
         <v>11</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H12" s="93" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="89">
         <v>45764</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D13" s="100" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E13" s="100">
         <v>12</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
       <c r="I13" s="92"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="94">
         <v>45771</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E14" s="101">
         <v>13</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H14" s="96" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I14" s="95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" ht="18.75">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="85"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2380" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23E4818-1409-4DB5-B371-3E08D86DF036}"/>
+  <xr:revisionPtr revIDLastSave="2383" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439708A3-D07E-4B8C-81DF-7084FC42DA39}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1588,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1643,9 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1653,9 +1650,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,10 +1876,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2231,7 +2221,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="150" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2249,7 +2239,7 @@
       <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="146" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -3305,7 +3295,7 @@
       <c r="I19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="58" t="s">
         <v>123</v>
       </c>
       <c r="K19" s="23"/>
@@ -3365,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,113 +3369,109 @@
     <col min="6" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="41" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="41" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="146" t="s">
+      <c r="J2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="U2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="V2" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="W2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="X2" s="45" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3515,42 +3501,41 @@
       <c r="I3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="63" t="s">
+      <c r="J3" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="K3" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="P3" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="R3" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="40" t="s">
+      <c r="S3" s="35"/>
+      <c r="T3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="45"/>
-    </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="46"/>
+      <c r="X3" s="44"/>
+    </row>
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3580,26 +3565,25 @@
       <c r="I4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="35"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="35"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="13"/>
-    </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="15"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3629,26 +3613,25 @@
       <c r="I5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="35"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="35"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="13"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W5" s="15"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3678,26 +3661,25 @@
       <c r="I6" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="35"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="35"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="13"/>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="15"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3727,26 +3709,25 @@
       <c r="I7" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="25" t="s">
+      <c r="J7" s="25" t="s">
         <v>154</v>
       </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="35"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="35"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="13"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="15"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3776,26 +3757,25 @@
       <c r="I8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="25" t="s">
         <v>158</v>
       </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="35"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="35"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="13"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W8" s="15"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3822,29 +3802,28 @@
       <c r="H9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="64" t="s">
+      <c r="J9" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="35"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="35"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="13"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W9" s="15"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3871,29 +3850,28 @@
       <c r="H10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="67" t="s">
+      <c r="J10" s="65" t="s">
         <v>166</v>
       </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="35"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="35"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="13"/>
-    </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="15"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -3911,45 +3889,44 @@
       <c r="E11" s="36">
         <v>12</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="60" t="s">
         <v>168</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="62" t="s">
+      <c r="J11" s="60" t="s">
         <v>170</v>
       </c>
+      <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="35"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="35"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="13"/>
-    </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="15"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="48" t="str">
+      <c r="C12" s="47" t="str">
         <f>TEXT(A12, "mmm")</f>
         <v>Dec</v>
       </c>
@@ -3969,133 +3946,131 @@
       <c r="H12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51" t="s">
+      <c r="J12" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="53"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="P12" s="17" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="T12" s="53"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="18"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W12" s="20"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="C13:D14 A3:E12" name="Range3"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2 K2:Y2 E2 C2" name="Range4"/>
-    <protectedRange algorithmName="SHA-512" hashValue="EPNTMIKhlljkzdPC58ikZn0AHDc2sOXaxbx9arJoGJIw+hZ7TrmlAxbCd+L50nXlH1YXK7mVF91v5ft9IdIOGA==" saltValue="9DYWtwN7+2hPB3ZDnDmIXQ==" spinCount="100000" sqref="X2:Y12" name="Range5"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T12" name="Range6"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O12" name="Range7"/>
-    <protectedRange sqref="I3:I5 I7:I24 J3:Y24 F3:H24" name="Range8"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="F2:J2" name="Range4_1_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2 J2:X2 E2 C2" name="Range4"/>
+    <protectedRange algorithmName="SHA-512" hashValue="EPNTMIKhlljkzdPC58ikZn0AHDc2sOXaxbx9arJoGJIw+hZ7TrmlAxbCd+L50nXlH1YXK7mVF91v5ft9IdIOGA==" saltValue="9DYWtwN7+2hPB3ZDnDmIXQ==" spinCount="100000" sqref="W2:X12" name="Range5"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S12" name="Range6"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7"/>
+    <protectedRange sqref="I3:I5 I7:I24 J3:X24 F3:H24" name="Range8"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="F2:I2" name="Range4_1_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="D2" name="Range4_1_2"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="B2" name="Range4_1_3"/>
   </protectedRanges>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{CD40244B-175B-47E0-9489-5AC1E6696983}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{CD40244B-175B-47E0-9489-5AC1E6696983}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4150,76 +4125,76 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="146" t="s">
+      <c r="J2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="74" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4227,33 +4202,33 @@
       <c r="A3" s="2">
         <v>45694</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="110" t="str">
+      <c r="D3" s="108" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="108">
         <v>2</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="66" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="119" t="s">
+      <c r="H3" s="112"/>
+      <c r="I3" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="77"/>
+      <c r="K3" s="75"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35"/>
@@ -4269,24 +4244,24 @@
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="109" t="str">
+      <c r="D4" s="107" t="str">
         <f t="shared" ref="D4:D7" si="0">TEXT(A4, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="107">
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -4295,16 +4270,16 @@
       <c r="G4" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="118" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
         <v>41</v>
@@ -4333,35 +4308,35 @@
       <c r="A5" s="2">
         <v>45722</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="107" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="107">
         <v>6</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="111" t="s">
         <v>187</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="76" t="s">
         <v>191</v>
       </c>
       <c r="L5" s="5"/>
@@ -4388,17 +4363,17 @@
       <c r="A6" s="2">
         <v>45735</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="107" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="107">
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -4407,16 +4382,16 @@
       <c r="G6" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="H6" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16" t="s">
         <v>41</v>
@@ -4443,17 +4418,17 @@
       <c r="A7" s="2">
         <v>45750</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="109" t="str">
+      <c r="D7" s="107" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="107">
         <v>10</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -4462,16 +4437,16 @@
       <c r="G7" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="79"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16" t="s">
         <v>33</v>
@@ -4496,16 +4471,16 @@
       <c r="A8" s="2">
         <v>45751</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="107">
         <v>10</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -4514,10 +4489,10 @@
       <c r="G8" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="122" t="s">
+      <c r="I8" s="120" t="s">
         <v>206</v>
       </c>
       <c r="J8" s="16" t="s">
@@ -4554,17 +4529,17 @@
       <c r="A9" s="2">
         <v>45757</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="109" t="str">
+      <c r="D9" s="107" t="str">
         <f>TEXT(A10, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="107">
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -4573,16 +4548,16 @@
       <c r="G9" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="79"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16" t="s">
         <v>41</v>
@@ -4615,17 +4590,17 @@
       <c r="A10" s="2">
         <v>45758</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="109" t="str">
+      <c r="D10" s="107" t="str">
         <f t="shared" ref="D10:D15" si="1">TEXT(A10, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="107">
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -4634,28 +4609,28 @@
       <c r="G10" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="52"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="53"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="53"/>
+      <c r="S10" s="51"/>
       <c r="T10" s="17" t="s">
         <v>35</v>
       </c>
@@ -4668,17 +4643,17 @@
       <c r="A11" s="4">
         <v>45764</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="111" t="str">
+      <c r="D11" s="109" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="109">
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -4687,17 +4662,17 @@
       <c r="G11" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="123" t="s">
+      <c r="I11" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="118" t="s">
+      <c r="J11" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="14" t="s">
         <v>41</v>
       </c>
@@ -4727,18 +4702,18 @@
       <c r="A12" s="4">
         <v>45771</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="130" t="str">
+      <c r="C12" s="128" t="str">
         <f>TEXT(A12,"mmm")</f>
         <v>Apr</v>
       </c>
-      <c r="D12" s="111" t="str">
+      <c r="D12" s="109" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="109">
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -4747,17 +4722,17 @@
       <c r="G12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="115" t="s">
+      <c r="H12" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="120" t="s">
+      <c r="I12" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
       <c r="M12" s="14" t="s">
         <v>41</v>
       </c>
@@ -4787,18 +4762,18 @@
       <c r="A13" s="2">
         <v>45785</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="130" t="str">
+      <c r="C13" s="128" t="str">
         <f>TEXT(A13,"mmm")</f>
         <v>May</v>
       </c>
-      <c r="D13" s="111" t="str">
+      <c r="D13" s="109" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="109">
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -4807,17 +4782,17 @@
       <c r="G13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="120" t="s">
+      <c r="I13" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="14"/>
       <c r="N13" s="35"/>
       <c r="O13" s="14" t="s">
@@ -4839,18 +4814,18 @@
       <c r="A14" s="4">
         <v>45799</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="131" t="str">
+      <c r="C14" s="129" t="str">
         <f>TEXT(A14,"mmm")</f>
         <v>May</v>
       </c>
-      <c r="D14" s="112" t="str">
+      <c r="D14" s="110" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="110">
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -4859,13 +4834,13 @@
       <c r="G14" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="118" t="s">
+      <c r="J14" s="116" t="s">
         <v>235</v>
       </c>
       <c r="M14" t="s">
@@ -4885,14 +4860,14 @@
       <c r="A15" s="4">
         <v>45805</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="131" t="str">
+      <c r="C15" s="129" t="str">
         <f>TEXT(A15,"mmm")</f>
         <v>May</v>
       </c>
-      <c r="D15" s="112" t="str">
+      <c r="D15" s="110" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
@@ -4911,12 +4886,12 @@
       <c r="I15" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="133" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="79"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
@@ -4928,13 +4903,13 @@
       <c r="A19" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="79"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
+      <c r="A22" s="79"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
@@ -4955,62 +4930,62 @@
       <c r="A28" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="65"/>
+      <c r="B31" s="63"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="63"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0"/>
@@ -5080,91 +5055,91 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="146" t="s">
+      <c r="J2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="150" t="s">
+      <c r="K2" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
+      <c r="A3" s="79">
         <v>45911</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>177</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D3" s="59" t="str">
+      <c r="D3" s="57" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -5180,13 +5155,13 @@
       <c r="H3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="77" t="s">
         <v>244</v>
       </c>
       <c r="L3" s="40" t="s">
@@ -5206,11 +5181,11 @@
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+      <c r="A4" s="79">
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5220,7 +5195,7 @@
         <f>TEXT(A4, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D4" s="59" t="str">
+      <c r="D4" s="57" t="str">
         <f>TEXT(A4, "dddd")</f>
         <v>Wednesday</v>
       </c>
@@ -5236,13 +5211,13 @@
       <c r="H4" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="79"/>
+      <c r="K4" s="77"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
@@ -5258,7 +5233,7 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="79">
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5285,13 +5260,13 @@
       <c r="H5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="108"/>
+      <c r="K5" s="106"/>
       <c r="L5" s="5"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
@@ -5309,7 +5284,7 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="79">
         <v>45939</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5327,7 +5302,7 @@
         <f>E5+2</f>
         <v>5</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="105" t="s">
         <v>256</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -5336,13 +5311,13 @@
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="I6" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="J6" s="106" t="s">
+      <c r="J6" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="108"/>
+      <c r="K6" s="106"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
@@ -5360,7 +5335,7 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="79">
         <v>45946</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5375,7 +5350,7 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="105" t="s">
         <v>261</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -5384,13 +5359,13 @@
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="108"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
@@ -5408,7 +5383,7 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="79">
         <v>45953</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5435,13 +5410,13 @@
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="108"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
@@ -5459,7 +5434,7 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="79">
         <v>45967</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5486,13 +5461,13 @@
       <c r="H9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="108"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
@@ -5508,7 +5483,7 @@
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="79">
         <v>45974</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5534,13 +5509,13 @@
       <c r="H10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="108"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="5"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
@@ -5558,7 +5533,7 @@
       <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="79">
         <v>45981</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5585,10 +5560,10 @@
       <c r="H11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="106" t="s">
+      <c r="J11" s="104" t="s">
         <v>250</v>
       </c>
       <c r="K11" s="14"/>
@@ -5609,7 +5584,7 @@
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+      <c r="A12" s="79">
         <v>45995</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5636,13 +5611,13 @@
       <c r="H12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="136" t="s">
         <v>323</v>
       </c>
-      <c r="K12" s="108"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="5"/>
       <c r="M12" s="16"/>
       <c r="N12" s="35"/>
@@ -5743,91 +5718,91 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="146" t="s">
+      <c r="J2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="150" t="s">
+      <c r="K2" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="X2" s="74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
+      <c r="A3" s="79">
         <v>46051</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>177</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D3" s="59" t="str">
+      <c r="D3" s="57" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -5843,13 +5818,13 @@
       <c r="H3" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K3" s="79"/>
+      <c r="K3" s="77"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35" t="s">
@@ -5865,11 +5840,11 @@
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
+      <c r="A4" s="79">
         <f>A3+14</f>
         <v>46065</v>
       </c>
@@ -5897,13 +5872,13 @@
       <c r="H4" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
@@ -5921,7 +5896,7 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="79">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
       </c>
@@ -5949,13 +5924,13 @@
       <c r="H5" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K5" s="108"/>
+      <c r="K5" s="106"/>
       <c r="L5" s="5"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
@@ -5973,7 +5948,7 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="79">
         <f t="shared" si="2"/>
         <v>46093</v>
       </c>
@@ -6001,13 +5976,13 @@
       <c r="H6" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="108"/>
+      <c r="K6" s="106"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
@@ -6025,7 +6000,7 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="79">
         <f t="shared" si="2"/>
         <v>46107</v>
       </c>
@@ -6053,13 +6028,13 @@
       <c r="H7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="108"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
@@ -6077,7 +6052,7 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="79">
         <f t="shared" si="2"/>
         <v>46121</v>
       </c>
@@ -6105,13 +6080,13 @@
       <c r="H8" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="108"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
@@ -6127,7 +6102,7 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="79">
         <f t="shared" si="2"/>
         <v>46135</v>
       </c>
@@ -6155,13 +6130,13 @@
       <c r="H9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="108"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
@@ -6233,22 +6208,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="140" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="142" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6256,167 +6231,167 @@
       <c r="A4" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="52" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="52" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="52" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="141" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="143" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="53" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6472,37 +6447,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="134" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139">
+      <c r="A2" s="137">
         <v>45911</v>
       </c>
-      <c r="B2" s="140">
+      <c r="B2" s="138">
         <v>1</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="79">
         <v>45911</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="81" t="s">
         <v>177</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>TEXT(F2, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="I2" s="59" t="str">
+      <c r="I2" s="57" t="str">
         <f>TEXT(F2, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -6511,18 +6486,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="139">
+      <c r="A3" s="137">
         <f>A2+7</f>
         <v>45918</v>
       </c>
-      <c r="B3" s="140">
+      <c r="B3" s="138">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="79">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6542,18 +6517,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="139">
+      <c r="A4" s="137">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="138">
         <f t="shared" ref="B4:B11" si="1">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="79">
         <v>45939</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6573,18 +6548,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="139">
+      <c r="A5" s="137">
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="138">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="79">
         <v>45946</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -6601,18 +6576,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="139">
+      <c r="A6" s="137">
         <f t="shared" si="0"/>
         <v>45939</v>
       </c>
-      <c r="B6" s="140">
+      <c r="B6" s="138">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="79">
         <v>45953</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -6632,18 +6607,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="139">
+      <c r="A7" s="137">
         <f t="shared" si="0"/>
         <v>45946</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="138">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="79">
         <v>45967</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -6663,18 +6638,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="139">
+      <c r="A8" s="137">
         <f t="shared" si="0"/>
         <v>45953</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="138">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="138" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="79">
         <v>45974</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6693,18 +6668,18 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="139">
+      <c r="A9" s="137">
         <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="B9" s="140">
+      <c r="B9" s="138">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="79">
         <v>45981</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -6724,18 +6699,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="139">
+      <c r="A10" s="137">
         <f t="shared" si="0"/>
         <v>45967</v>
       </c>
-      <c r="B10" s="140">
+      <c r="B10" s="138">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="138" t="s">
         <v>314</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="79">
         <v>45995</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -6755,61 +6730,61 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="139">
+      <c r="A11" s="137">
         <f t="shared" si="0"/>
         <v>45974</v>
       </c>
-      <c r="B11" s="140">
+      <c r="B11" s="138">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="138" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="139">
+      <c r="A12" s="137">
         <f t="shared" si="0"/>
         <v>45981</v>
       </c>
-      <c r="B12" s="140">
+      <c r="B12" s="138">
         <f t="shared" ref="B12:B14" si="5">B11+1</f>
         <v>11</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="138" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="139">
+      <c r="A13" s="137">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
       </c>
-      <c r="B13" s="140">
+      <c r="B13" s="138">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="138" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="139">
+      <c r="A14" s="137">
         <f t="shared" si="6"/>
         <v>45995</v>
       </c>
-      <c r="B14" s="140">
+      <c r="B14" s="138">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="138" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
@@ -6855,293 +6830,293 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="98">
+      <c r="A6" s="96">
         <v>45694</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="97">
         <v>2</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="90" t="s">
+      <c r="H6" s="89"/>
+      <c r="I6" s="88" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="89">
+      <c r="A7" s="87">
         <v>45708</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="98">
         <v>4</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="90" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="89">
+      <c r="A8" s="87">
         <v>45722</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="98">
         <v>6</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="92"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="89">
+      <c r="A9" s="87">
         <v>45735</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="98">
         <v>8</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="90" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="89">
+      <c r="A10" s="87">
         <v>45744</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="98">
         <v>9</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="I10" s="92"/>
+      <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="89">
+      <c r="A11" s="87">
         <v>45750</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="98">
         <v>10</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="92" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="90" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="89">
+      <c r="A12" s="87">
         <v>45758</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="98">
         <v>11</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I12" s="90" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="89">
+      <c r="A13" s="87">
         <v>45764</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="98">
         <v>12</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="92"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="94">
+      <c r="A14" s="92">
         <v>45771</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="99">
         <v>13</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="94" t="s">
         <v>321</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="93" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H20" s="85"/>
+      <c r="H20" s="83"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2383" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439708A3-D07E-4B8C-81DF-7084FC42DA39}"/>
+  <xr:revisionPtr revIDLastSave="2386" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9DB52D-8063-43F8-A830-61E7396B1785}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -923,158 +923,158 @@
     <t>Trinity College Dublin</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
-  </si>
-  <si>
     <t>Clustering high-dimensional discrete data: a compressed approach</t>
   </si>
   <si>
     <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
 We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,9 +1879,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1919,7 +1919,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2025,7 +2025,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2167,7 +2167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2177,11 +2177,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7958562-D4BB-4776-9668-682A6F2E2AD0}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2206,7 +2206,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3358,10 +3358,10 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3386,7 +3386,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="149" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="13.5" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -3975,20 +3975,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -4000,59 +4000,59 @@
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
@@ -4085,7 +4085,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4113,7 +4113,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -4890,101 +4890,101 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="79"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="79"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="79"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="63"/>
     </row>
   </sheetData>
@@ -5012,11 +5012,11 @@
   </sheetPr>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5043,7 +5043,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="79">
         <v>45911</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="79">
         <v>45917</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="79">
         <v>45926</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="79">
         <v>45939</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="79">
         <v>45946</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="79">
         <v>45953</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="79">
         <v>45967</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18.75" customHeight="1">
       <c r="A10" s="79">
         <v>45974</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="19.5" customHeight="1">
       <c r="A11" s="79">
         <v>45981</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="19.5" customHeight="1">
       <c r="A12" s="79">
         <v>45995</v>
       </c>
@@ -5612,10 +5612,10 @@
         <v>91</v>
       </c>
       <c r="I12" s="101" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="J12" s="136" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="K12" s="106"/>
       <c r="L12" s="5"/>
@@ -5634,24 +5634,24 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="12.75" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5679,7 +5679,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5706,7 +5706,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="79">
         <v>46051</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>250</v>
@@ -5843,7 +5843,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="79">
         <f>A3+14</f>
         <v>46065</v>
@@ -5864,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>250</v>
@@ -5895,7 +5895,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="79">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -5916,7 +5916,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>250</v>
@@ -5947,7 +5947,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="79">
         <f t="shared" si="2"/>
         <v>46093</v>
@@ -5968,7 +5968,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>250</v>
@@ -5999,7 +5999,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="79">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6020,7 +6020,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>250</v>
@@ -6051,7 +6051,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="79">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6072,7 +6072,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>250</v>
@@ -6101,7 +6101,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1">
       <c r="A9" s="79">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6122,7 +6122,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>250</v>
@@ -6153,24 +6153,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6195,231 +6195,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="57" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="142" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="52"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B12" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="54" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="54" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="54" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="141" t="s">
         <v>271</v>
       </c>
       <c r="B16" s="141" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="54" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B17" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="55" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>218</v>
       </c>
       <c r="C19" s="53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>307</v>
-      </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6440,24 +6440,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="135" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C1" s="134" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="137">
         <v>45911</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F2" s="79">
         <v>45911</v>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="137">
         <f>A2+7</f>
         <v>45918</v>
@@ -6495,7 +6495,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F3" s="79">
         <v>45926</v>
@@ -6516,7 +6516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="137">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6526,7 +6526,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F4" s="79">
         <v>45939</v>
@@ -6547,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="137">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6557,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F5" s="79">
         <v>45946</v>
@@ -6575,7 +6575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="137">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6585,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" s="79">
         <v>45953</v>
@@ -6606,7 +6606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="137">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6616,7 +6616,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F7" s="79">
         <v>45967</v>
@@ -6637,7 +6637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="137">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6647,7 +6647,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F8" s="79">
         <v>45974</v>
@@ -6667,7 +6667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="137">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6677,7 +6677,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F9" s="79">
         <v>45981</v>
@@ -6698,7 +6698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="137">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6708,7 +6708,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F10" s="79">
         <v>45995</v>
@@ -6729,7 +6729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="137">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6739,10 +6739,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="137">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6752,10 +6752,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="137">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6765,10 +6765,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="137">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -6778,15 +6778,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="137"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -6817,7 +6817,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -6829,17 +6829,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="95" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="83" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
@@ -6862,13 +6862,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="96">
         <v>45694</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="87">
         <v>45708</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="87">
         <v>45722</v>
       </c>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="87">
         <v>45735</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>186</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E9" s="98">
         <v>8</v>
@@ -6980,7 +6980,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="87">
         <v>45744</v>
       </c>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="87">
         <v>45750</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G11" s="91" t="s">
         <v>179</v>
@@ -7034,7 +7034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="87">
         <v>45758</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="87">
         <v>45764</v>
       </c>
@@ -7080,13 +7080,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
       <c r="I13" s="90"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="92">
         <v>45771</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G14" s="94" t="s">
         <v>143</v>
@@ -7115,7 +7115,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="83"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2386" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9DB52D-8063-43F8-A830-61E7396B1785}"/>
+  <xr:revisionPtr revIDLastSave="2389" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93A4A704-73F9-40D0-AD98-57F2C22CB133}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="327">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -844,7 +844,13 @@
     <t>Padraig McCarron</t>
   </si>
   <si>
-    <t>TBC</t>
+    <t>Behaviour-driven epidemic phenomena in heterogeneous populations and networks</t>
+  </si>
+  <si>
+    <t>While realistic approaches have become increasingly important in epidemic modelling, behavioural factors and individual differences have historically been overlooked due to the lack of high-resolution data and appropriate mathematical methods. This gap became particularly evident during the recent pandemic, highlighting the need for large-scale data collection on individual-level epidemic-related behaviours across representative populations. These advancements have revealed several new and interesting spreading phenomena that challenge our previous understandings. In this talk, we will focus on a few examples of such new insights, derived from data-driven and behaviour-informed epidemic models. We will explore the effects of seeding strategies and input-output inequalities in spreading dynamics, and the paradoxical effects of awareness-driven adaptive behaviour on epidemic outcomes. These findings highlight the importance of data-driven models incorporating behavioural factors, offering a more accurate understanding and modelling of real-world epidemic scenarios.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=Pl9cdEYAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>3pm</t>
@@ -879,6 +885,9 @@
   </si>
   <si>
     <t>Advances in Robust Mixed Effects Modelling</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
   <si>
     <t>Oct</t>
@@ -2177,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7958562-D4BB-4776-9668-682A6F2E2AD0}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5012,8 +5021,8 @@
   </sheetPr>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5215,9 +5224,11 @@
         <v>250</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" s="77"/>
+        <v>251</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>252</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
@@ -5237,7 +5248,7 @@
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5252,19 +5263,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K5" s="106"/>
       <c r="L5" s="5"/>
@@ -5303,19 +5314,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J6" s="104" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K6" s="106"/>
       <c r="L6" s="5"/>
@@ -5342,16 +5353,16 @@
         <v>177</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>179</v>
@@ -5360,10 +5371,10 @@
         <v>29</v>
       </c>
       <c r="I7" s="101" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J7" s="104" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K7" s="106"/>
       <c r="L7" s="5"/>
@@ -5402,19 +5413,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="101" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="5"/>
@@ -5453,19 +5464,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>188</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K9" s="106"/>
       <c r="L9" s="5"/>
@@ -5501,19 +5512,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="101" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K10" s="106"/>
       <c r="L10" s="5"/>
@@ -5552,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>179</v>
@@ -5561,10 +5572,10 @@
         <v>91</v>
       </c>
       <c r="I11" s="101" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J11" s="104" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="5"/>
@@ -5603,19 +5614,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="101" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J12" s="136" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K12" s="106"/>
       <c r="L12" s="5"/>
@@ -5666,6 +5677,7 @@
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{7DFE3762-8F5E-4F84-9CA0-19AC05FFD4B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5810,19 +5822,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
@@ -5864,19 +5876,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K4" s="106"/>
       <c r="L4" s="5"/>
@@ -5916,19 +5928,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I5" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K5" s="106"/>
       <c r="L5" s="5"/>
@@ -5968,19 +5980,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K6" s="106"/>
       <c r="L6" s="5"/>
@@ -6020,19 +6032,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I7" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K7" s="106"/>
       <c r="L7" s="5"/>
@@ -6072,19 +6084,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="5"/>
@@ -6122,19 +6134,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I9" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K9" s="106"/>
       <c r="L9" s="5"/>
@@ -6204,23 +6216,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="57" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="140" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="142" t="s">
@@ -6229,7 +6241,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="52" t="s">
@@ -6238,19 +6250,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="54" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="52" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="54" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>78</v>
@@ -6258,10 +6270,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="54" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>78</v>
@@ -6269,10 +6281,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="54" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>91</v>
@@ -6280,105 +6292,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="54" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="54" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>299</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="54" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="54" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="141" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B16" s="141" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="54" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="54" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>78</v>
@@ -6386,26 +6398,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>218</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -6413,13 +6425,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6451,10 +6463,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C1" s="134" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -6465,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F2" s="79">
         <v>45911</v>
@@ -6495,13 +6507,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F3" s="79">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6526,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F4" s="79">
         <v>45939</v>
@@ -6557,7 +6569,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F5" s="79">
         <v>45946</v>
@@ -6566,10 +6578,10 @@
         <v>177</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -6585,7 +6597,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F6" s="79">
         <v>45953</v>
@@ -6616,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F7" s="79">
         <v>45967</v>
@@ -6647,7 +6659,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F8" s="79">
         <v>45974</v>
@@ -6677,7 +6689,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F9" s="79">
         <v>45981</v>
@@ -6708,7 +6720,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F10" s="79">
         <v>45995</v>
@@ -6739,7 +6751,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6752,7 +6764,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6765,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6778,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6831,12 +6843,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="95" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="83" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -6862,7 +6874,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I5" s="85" t="s">
         <v>11</v>
@@ -6879,7 +6891,7 @@
         <v>178</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E6" s="97">
         <v>2</v>
@@ -6892,7 +6904,7 @@
       </c>
       <c r="H6" s="89"/>
       <c r="I6" s="88" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
@@ -6906,7 +6918,7 @@
         <v>178</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E7" s="98">
         <v>4</v>
@@ -6935,7 +6947,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E8" s="98">
         <v>6</v>
@@ -6962,7 +6974,7 @@
         <v>186</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E9" s="98">
         <v>8</v>
@@ -6977,7 +6989,7 @@
         <v>194</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
@@ -7018,20 +7030,20 @@
         <v>197</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E11" s="98">
         <v>10</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G11" s="91" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="90" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
@@ -7060,7 +7072,7 @@
         <v>29</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75">
@@ -7074,13 +7086,13 @@
         <v>197</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E13" s="98">
         <v>12</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
@@ -7097,13 +7109,13 @@
         <v>197</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E14" s="99">
         <v>13</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G14" s="94" t="s">
         <v>143</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2389" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93A4A704-73F9-40D0-AD98-57F2C22CB133}"/>
+  <xr:revisionPtr revIDLastSave="2390" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AF98768-9B73-4B9F-B1BF-7AA6DB6DC869}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="328">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1085,6 +1085,9 @@
   <si>
     <t>Leornard Henckel</t>
   </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-024-48332-y ; https://doi.org/10.1126/sciadv.adk4606 ; https://doi.org/10.1103/PhysRevResearch.7.L012061</t>
+  </si>
 </sst>
 </file>
 
@@ -1093,7 +1096,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1888,9 +1891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1928,7 +1931,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2034,7 +2037,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2176,7 +2179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2190,7 +2193,7 @@
       <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2215,7 +2218,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2364,7 +2367,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2424,7 +2427,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2482,7 +2485,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2546,7 +2549,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2726,7 +2729,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2792,7 +2795,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2850,7 +2853,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3034,7 +3037,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3100,7 +3103,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3160,7 +3163,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3228,7 +3231,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3276,7 +3279,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3370,7 +3373,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3395,7 +3398,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="149" t="s">
         <v>3</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3544,7 +3547,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3592,7 +3595,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3640,7 +3643,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3688,7 +3691,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3736,7 +3739,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3784,7 +3787,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3832,7 +3835,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3880,7 +3883,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1">
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -3928,7 +3931,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -3984,20 +3987,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -4009,59 +4012,59 @@
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
@@ -4094,7 +4097,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4122,7 +4125,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4256,7 +4259,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4313,7 +4316,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4368,7 +4371,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4423,7 +4426,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4476,7 +4479,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4595,7 +4598,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4648,7 +4651,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4707,7 +4710,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4767,7 +4770,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4819,7 +4822,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -4899,101 +4902,101 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
     </row>
   </sheetData>
@@ -5022,10 +5025,10 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5052,7 +5055,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79">
         <v>45911</v>
       </c>
@@ -5193,7 +5196,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79">
         <v>45917</v>
       </c>
@@ -5229,7 +5232,9 @@
       <c r="K4" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
       <c r="O4" s="5"/>
@@ -5243,7 +5248,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
         <v>45926</v>
       </c>
@@ -5294,7 +5299,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
         <v>45939</v>
       </c>
@@ -5345,7 +5350,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
         <v>45946</v>
       </c>
@@ -5393,7 +5398,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
         <v>45953</v>
       </c>
@@ -5444,7 +5449,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>45967</v>
       </c>
@@ -5493,7 +5498,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1">
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>45974</v>
       </c>
@@ -5543,7 +5548,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1">
+    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <v>45981</v>
       </c>
@@ -5594,7 +5599,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1">
+    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
         <v>45995</v>
       </c>
@@ -5645,24 +5650,24 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1">
+    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5691,7 +5696,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5718,7 +5723,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5803,7 +5808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79">
         <v>46051</v>
       </c>
@@ -5855,7 +5860,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79">
         <f>A3+14</f>
         <v>46065</v>
@@ -5907,7 +5912,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -5959,7 +5964,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
         <f t="shared" si="2"/>
         <v>46093</v>
@@ -6011,7 +6016,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6063,7 +6068,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6113,7 +6118,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6165,24 +6170,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6207,19 +6212,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>280</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>283</v>
       </c>
@@ -6239,7 +6244,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>284</v>
       </c>
@@ -6248,7 +6253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>285</v>
       </c>
@@ -6257,7 +6262,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>287</v>
       </c>
@@ -6268,7 +6273,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>289</v>
       </c>
@@ -6279,7 +6284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>291</v>
       </c>
@@ -6290,14 +6295,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>293</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="52"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>294</v>
       </c>
@@ -6308,7 +6313,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>297</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>300</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>302</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>304</v>
       </c>
@@ -6352,7 +6357,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>306</v>
       </c>
@@ -6363,7 +6368,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="141" t="s">
         <v>274</v>
       </c>
@@ -6374,7 +6379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>310</v>
       </c>
@@ -6385,7 +6390,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>312</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>313</v>
       </c>
@@ -6407,12 +6412,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -6423,7 +6428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -6452,13 +6457,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="139" t="s">
         <v>3</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="137">
         <v>45911</v>
       </c>
@@ -6497,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="137">
         <f>A2+7</f>
         <v>45918</v>
@@ -6528,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="137">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6559,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="137">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6587,7 +6592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="137">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6618,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="137">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6649,7 +6654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="137">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6679,7 +6684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="137">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6710,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="137">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6741,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="137">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6754,7 +6759,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="137">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6767,7 +6772,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="137">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6780,7 +6785,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="137">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -6793,12 +6798,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="137"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -6829,7 +6834,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -6841,17 +6846,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
@@ -6880,7 +6885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="96">
         <v>45694</v>
       </c>
@@ -6907,7 +6912,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="87">
         <v>45708</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
         <v>45722</v>
       </c>
@@ -6963,7 +6968,7 @@
       </c>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
         <v>45735</v>
       </c>
@@ -6992,7 +6997,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="87">
         <v>45744</v>
       </c>
@@ -7019,7 +7024,7 @@
       </c>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>45750</v>
       </c>
@@ -7046,7 +7051,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
         <v>45758</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
         <v>45764</v>
       </c>
@@ -7098,7 +7103,7 @@
       <c r="H13" s="91"/>
       <c r="I13" s="90"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="92">
         <v>45771</v>
       </c>
@@ -7127,7 +7132,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="83"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2390" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AF98768-9B73-4B9F-B1BF-7AA6DB6DC869}"/>
+  <xr:revisionPtr revIDLastSave="2392" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BDB391-EE8A-4841-9FD8-31891226EB75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -853,6 +853,9 @@
     <t>https://scholar.google.com/citations?user=Pl9cdEYAAAAJ&amp;hl=en</t>
   </si>
   <si>
+    <t>https://doi.org/10.1038/s41467-024-48332-y ; https://doi.org/10.1126/sciadv.adk4606 ; https://doi.org/10.1103/PhysRevResearch.7.L012061</t>
+  </si>
+  <si>
     <t>3pm</t>
   </si>
   <si>
@@ -1085,9 +1088,6 @@
   <si>
     <t>Leornard Henckel</t>
   </si>
-  <si>
-    <t>https://doi.org/10.1038/s41467-024-48332-y ; https://doi.org/10.1126/sciadv.adk4606 ; https://doi.org/10.1103/PhysRevResearch.7.L012061</t>
-  </si>
 </sst>
 </file>
 
@@ -1096,7 +1096,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1891,9 +1891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1931,7 +1931,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2037,7 +2037,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2179,7 +2179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2193,7 +2193,7 @@
       <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2218,7 +2218,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3373,7 +3373,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3398,7 +3398,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="149" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="13.5" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -3987,20 +3987,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -4012,59 +4012,59 @@
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
@@ -4097,7 +4097,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4125,7 +4125,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -4902,101 +4902,101 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="79"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="79"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="79"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="63"/>
     </row>
   </sheetData>
@@ -5025,10 +5025,10 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5055,7 +5055,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30.75">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="79">
         <v>45911</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="79">
         <v>45917</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>252</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
@@ -5248,12 +5248,12 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="79">
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5268,19 +5268,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K5" s="106"/>
       <c r="L5" s="5"/>
@@ -5299,7 +5299,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="79">
         <v>45939</v>
       </c>
@@ -5319,19 +5319,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J6" s="104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K6" s="106"/>
       <c r="L6" s="5"/>
@@ -5350,7 +5350,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="79">
         <v>45946</v>
       </c>
@@ -5358,16 +5358,16 @@
         <v>177</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>179</v>
@@ -5376,10 +5376,10 @@
         <v>29</v>
       </c>
       <c r="I7" s="101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J7" s="104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" s="106"/>
       <c r="L7" s="5"/>
@@ -5398,7 +5398,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="79">
         <v>45953</v>
       </c>
@@ -5418,19 +5418,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="5"/>
@@ -5449,7 +5449,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="79">
         <v>45967</v>
       </c>
@@ -5469,19 +5469,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>188</v>
       </c>
       <c r="I9" s="101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K9" s="106"/>
       <c r="L9" s="5"/>
@@ -5498,7 +5498,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18.75" customHeight="1">
       <c r="A10" s="79">
         <v>45974</v>
       </c>
@@ -5517,19 +5517,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K10" s="106"/>
       <c r="L10" s="5"/>
@@ -5548,7 +5548,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="19.5" customHeight="1">
       <c r="A11" s="79">
         <v>45981</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>179</v>
@@ -5577,10 +5577,10 @@
         <v>91</v>
       </c>
       <c r="I11" s="101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J11" s="104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="5"/>
@@ -5599,7 +5599,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="19.5" customHeight="1">
       <c r="A12" s="79">
         <v>45995</v>
       </c>
@@ -5619,19 +5619,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J12" s="136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K12" s="106"/>
       <c r="L12" s="5"/>
@@ -5650,24 +5650,24 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="12.75" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5696,7 +5696,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5723,7 +5723,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="79">
         <v>46051</v>
       </c>
@@ -5827,19 +5827,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
@@ -5860,7 +5860,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="79">
         <f>A3+14</f>
         <v>46065</v>
@@ -5881,19 +5881,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K4" s="106"/>
       <c r="L4" s="5"/>
@@ -5912,7 +5912,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="79">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -5933,19 +5933,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I5" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K5" s="106"/>
       <c r="L5" s="5"/>
@@ -5964,7 +5964,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="79">
         <f t="shared" si="2"/>
         <v>46093</v>
@@ -5985,19 +5985,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K6" s="106"/>
       <c r="L6" s="5"/>
@@ -6016,7 +6016,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="79">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6037,19 +6037,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I7" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" s="106"/>
       <c r="L7" s="5"/>
@@ -6068,7 +6068,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="79">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6089,19 +6089,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J8" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="5"/>
@@ -6118,7 +6118,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1">
       <c r="A9" s="79">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6139,19 +6139,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I9" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J9" s="102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K9" s="106"/>
       <c r="L9" s="5"/>
@@ -6170,24 +6170,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6212,231 +6212,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="140" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="142" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="52" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="52"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="141" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B16" s="141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>218</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6457,24 +6457,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="135" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C1" s="134" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="137">
         <v>45911</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F2" s="79">
         <v>45911</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="137">
         <f>A2+7</f>
         <v>45918</v>
@@ -6512,13 +6512,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F3" s="79">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6533,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="137">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6543,7 +6543,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F4" s="79">
         <v>45939</v>
@@ -6564,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="137">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6574,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F5" s="79">
         <v>45946</v>
@@ -6583,16 +6583,16 @@
         <v>177</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="137">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6602,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F6" s="79">
         <v>45953</v>
@@ -6623,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="137">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6633,7 +6633,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F7" s="79">
         <v>45967</v>
@@ -6654,7 +6654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="137">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6664,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F8" s="79">
         <v>45974</v>
@@ -6684,7 +6684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="137">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6694,7 +6694,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F9" s="79">
         <v>45981</v>
@@ -6715,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="137">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6725,7 +6725,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F10" s="79">
         <v>45995</v>
@@ -6746,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="137">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6756,10 +6756,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="137">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6769,10 +6769,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="137">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6782,10 +6782,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="137">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -6795,15 +6795,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="137"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -6834,7 +6834,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -6846,17 +6846,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="95" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="83" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
@@ -6879,13 +6879,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="96">
         <v>45694</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>178</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E6" s="97">
         <v>2</v>
@@ -6909,10 +6909,10 @@
       </c>
       <c r="H6" s="89"/>
       <c r="I6" s="88" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="87">
         <v>45708</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>178</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E7" s="98">
         <v>4</v>
@@ -6941,7 +6941,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="87">
         <v>45722</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="98">
         <v>6</v>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="87">
         <v>45735</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>186</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" s="98">
         <v>8</v>
@@ -6994,10 +6994,10 @@
         <v>194</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="87">
         <v>45744</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="87">
         <v>45750</v>
       </c>
@@ -7035,23 +7035,23 @@
         <v>197</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E11" s="98">
         <v>10</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G11" s="91" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="90" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="87">
         <v>45758</v>
       </c>
@@ -7077,10 +7077,10 @@
         <v>29</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="87">
         <v>45764</v>
       </c>
@@ -7091,19 +7091,19 @@
         <v>197</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E13" s="98">
         <v>12</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
       <c r="I13" s="90"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="92">
         <v>45771</v>
       </c>
@@ -7114,13 +7114,13 @@
         <v>197</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E14" s="99">
         <v>13</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G14" s="94" t="s">
         <v>143</v>
@@ -7132,7 +7132,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="83"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2392" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BDB391-EE8A-4841-9FD8-31891226EB75}"/>
+  <xr:revisionPtr revIDLastSave="2412" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59E04407-FAAB-4631-B150-69445DBC0BD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="338">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1088,6 +1088,36 @@
   <si>
     <t>Leornard Henckel</t>
   </si>
+  <si>
+    <t>Universidade Federal de Minas Gerais</t>
+  </si>
+  <si>
+    <t>Heriot-Watt University</t>
+  </si>
+  <si>
+    <t>University of Bristol</t>
+  </si>
+  <si>
+    <t>University of Leeds</t>
+  </si>
+  <si>
+    <t>University College Cork</t>
+  </si>
+  <si>
+    <t>UCL Centre for Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>University of Huddersfield</t>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
+    <t>Murdoch University, Perth, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> York University</t>
+  </si>
 </sst>
 </file>
 
@@ -1096,7 +1126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1891,9 +1921,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1931,7 +1961,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2037,7 +2067,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2179,7 +2209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2190,10 +2220,10 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2218,7 +2248,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2324,7 +2354,9 @@
       <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>328</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
@@ -2367,7 +2399,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2388,7 +2420,9 @@
       <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2427,7 +2461,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2448,7 +2482,9 @@
       <c r="F5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2485,7 +2521,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2506,7 +2542,9 @@
       <c r="F6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2549,7 +2587,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2570,7 +2608,9 @@
       <c r="F7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>331</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>54</v>
       </c>
@@ -2615,7 +2655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2636,7 +2676,9 @@
       <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
@@ -2679,7 +2721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2700,7 +2742,9 @@
       <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
@@ -2729,7 +2773,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2750,7 +2794,9 @@
       <c r="F10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>69</v>
       </c>
@@ -2795,7 +2841,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2816,7 +2862,9 @@
       <c r="F11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>78</v>
       </c>
@@ -2853,7 +2901,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -2874,7 +2922,9 @@
       <c r="F12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>333</v>
+      </c>
       <c r="H12" s="5" t="s">
         <v>85</v>
       </c>
@@ -2913,7 +2963,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -2934,7 +2984,9 @@
       <c r="F13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="H13" s="5" t="s">
         <v>91</v>
       </c>
@@ -2979,7 +3031,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3000,7 +3052,9 @@
       <c r="F14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
@@ -3037,7 +3091,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3058,7 +3112,9 @@
       <c r="F15" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="H15" s="5" t="s">
         <v>101</v>
       </c>
@@ -3103,7 +3159,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3124,7 +3180,9 @@
       <c r="F16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="H16" s="17" t="s">
         <v>91</v>
       </c>
@@ -3163,7 +3221,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3184,7 +3242,9 @@
       <c r="F17" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="H17" s="17" t="s">
         <v>113</v>
       </c>
@@ -3231,7 +3291,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3252,7 +3312,9 @@
       <c r="F18" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="H18" s="17" t="s">
         <v>85</v>
       </c>
@@ -3279,7 +3341,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3300,7 +3362,9 @@
       <c r="F19" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="H19" s="17" t="s">
         <v>78</v>
       </c>
@@ -3327,7 +3391,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3373,7 +3437,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3398,7 +3462,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="149" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3547,7 +3611,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3595,7 +3659,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3643,7 +3707,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3691,7 +3755,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3739,7 +3803,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3787,7 +3851,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3835,7 +3899,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3883,7 +3947,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1">
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -3931,7 +3995,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -3987,20 +4051,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -4012,59 +4076,59 @@
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
@@ -4097,7 +4161,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4125,7 +4189,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -4210,7 +4274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4259,7 +4323,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4316,7 +4380,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4371,7 +4435,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4426,7 +4490,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4479,7 +4543,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4537,7 +4601,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4598,7 +4662,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4651,7 +4715,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4710,7 +4774,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4770,7 +4834,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4822,7 +4886,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -4868,7 +4932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -4902,101 +4966,101 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="63"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
     </row>
   </sheetData>
@@ -5024,11 +5088,11 @@
   </sheetPr>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5055,7 +5119,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5066,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5140,7 +5204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79">
         <v>45911</v>
       </c>
@@ -5196,7 +5260,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79">
         <v>45917</v>
       </c>
@@ -5248,7 +5312,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
         <v>45926</v>
       </c>
@@ -5299,7 +5363,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
         <v>45939</v>
       </c>
@@ -5350,7 +5414,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
         <v>45946</v>
       </c>
@@ -5398,7 +5462,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
         <v>45953</v>
       </c>
@@ -5449,7 +5513,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>45967</v>
       </c>
@@ -5498,7 +5562,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1">
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>45974</v>
       </c>
@@ -5548,7 +5612,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1">
+    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <v>45981</v>
       </c>
@@ -5599,7 +5663,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1">
+    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79">
         <v>45995</v>
       </c>
@@ -5650,24 +5714,24 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1">
+    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5696,7 +5760,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5723,7 +5787,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
@@ -5808,7 +5872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79">
         <v>46051</v>
       </c>
@@ -5860,7 +5924,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79">
         <f>A3+14</f>
         <v>46065</v>
@@ -5912,7 +5976,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="79">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -5964,7 +6028,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79">
         <f t="shared" si="2"/>
         <v>46093</v>
@@ -6016,7 +6080,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6068,7 +6132,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6118,7 +6182,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6170,24 +6234,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6208,23 +6272,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC079F-155A-491D-9189-1418FC903287}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>281</v>
       </c>
@@ -6235,7 +6299,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>284</v>
       </c>
@@ -6244,7 +6308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>285</v>
       </c>
@@ -6253,7 +6317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>286</v>
       </c>
@@ -6262,7 +6326,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>288</v>
       </c>
@@ -6273,7 +6337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>290</v>
       </c>
@@ -6284,7 +6348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>292</v>
       </c>
@@ -6295,14 +6359,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>294</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="52"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>295</v>
       </c>
@@ -6313,7 +6377,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>298</v>
       </c>
@@ -6324,7 +6388,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>301</v>
       </c>
@@ -6335,7 +6399,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>303</v>
       </c>
@@ -6346,7 +6410,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>305</v>
       </c>
@@ -6357,7 +6421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>307</v>
       </c>
@@ -6368,7 +6432,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="141" t="s">
         <v>275</v>
       </c>
@@ -6379,7 +6443,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>311</v>
       </c>
@@ -6390,7 +6454,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>313</v>
       </c>
@@ -6401,7 +6465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>314</v>
       </c>
@@ -6412,12 +6476,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -6428,7 +6492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>314</v>
       </c>
@@ -6457,13 +6521,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="139" t="s">
         <v>3</v>
       </c>
@@ -6474,7 +6538,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="137">
         <v>45911</v>
       </c>
@@ -6502,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="137">
         <f>A2+7</f>
         <v>45918</v>
@@ -6533,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="137">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6564,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="137">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6592,7 +6656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="137">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6623,7 +6687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="137">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6654,7 +6718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="137">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6684,7 +6748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="137">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6715,7 +6779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="137">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6746,7 +6810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="137">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6759,7 +6823,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="137">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6772,7 +6836,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="137">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6785,7 +6849,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="137">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -6798,12 +6862,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="137"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -6834,7 +6898,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -6846,17 +6910,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
@@ -6885,7 +6949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="96">
         <v>45694</v>
       </c>
@@ -6912,7 +6976,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="87">
         <v>45708</v>
       </c>
@@ -6941,7 +7005,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
         <v>45722</v>
       </c>
@@ -6968,7 +7032,7 @@
       </c>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
         <v>45735</v>
       </c>
@@ -6997,7 +7061,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="87">
         <v>45744</v>
       </c>
@@ -7024,7 +7088,7 @@
       </c>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>45750</v>
       </c>
@@ -7051,7 +7115,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
         <v>45758</v>
       </c>
@@ -7080,7 +7144,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
         <v>45764</v>
       </c>
@@ -7103,7 +7167,7 @@
       <c r="H13" s="91"/>
       <c r="I13" s="90"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="92">
         <v>45771</v>
       </c>
@@ -7132,7 +7196,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="83"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2412" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59E04407-FAAB-4631-B150-69445DBC0BD7}"/>
+  <xr:revisionPtr revIDLastSave="2429" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E1881E-28F8-4E8E-8FD4-A08EC9909AE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="339">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cranfield University </t>
-  </si>
-  <si>
-    <t>TBA</t>
   </si>
   <si>
     <t>December 5</t>
@@ -1117,6 +1114,12 @@
   </si>
   <si>
     <t xml:space="preserve"> York University</t>
+  </si>
+  <si>
+    <t>Multistatic Synthetic Aperture Radar Imaging and Coherence</t>
+  </si>
+  <si>
+    <t>Synthetic Aperture Radar (SAR) imaging has proven an invaluable all-weather day and night remote sensing information source, increasingly provided by monostatic SAR satellite constellations. Future developments will include multistatic SAR constellations (with a mix of separated transmitter and receiver platforms) for more timely or simultaneous multiple collections for interferometric modes, for example for 3D imaging or more basic terrain height determination, as well as for sensitive change detection amongst others. This presentation will provide an overview of multistatic SAR processing and show highlight results from the Ground-Based SAR laboratory based at Cranfield University, which has allowed the exploration and validation of multistatic SAR sensing concepts amongst others.</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1691,12 +1694,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1713,10 +1710,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1881,6 +1876,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2220,7 +2239,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2282,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2281,7 +2300,7 @@
       <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="142" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -2355,7 +2374,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
@@ -2421,7 +2440,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>37</v>
@@ -2483,7 +2502,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>43</v>
@@ -2543,7 +2562,7 @@
         <v>47</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>43</v>
@@ -2609,7 +2628,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>54</v>
@@ -2677,7 +2696,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>29</v>
@@ -2721,7 +2740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2743,7 +2762,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
@@ -2751,7 +2770,7 @@
       <c r="I9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="25" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="5"/>
@@ -2923,7 +2942,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>85</v>
@@ -2985,7 +3004,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>91</v>
@@ -3053,7 +3072,7 @@
         <v>96</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>43</v>
@@ -3113,7 +3132,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>101</v>
@@ -3313,7 +3332,7 @@
         <v>118</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>85</v>
@@ -3363,7 +3382,7 @@
         <v>121</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>78</v>
@@ -3371,7 +3390,7 @@
       <c r="I19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="56" t="s">
         <v>123</v>
       </c>
       <c r="K19" s="23"/>
@@ -3433,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,31 +3493,31 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="143" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="41" t="s">
@@ -3547,7 +3566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3574,10 +3593,10 @@
       <c r="H3" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="59" t="s">
         <v>130</v>
       </c>
       <c r="K3" s="42" t="s">
@@ -3611,7 +3630,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3638,7 +3657,7 @@
       <c r="H4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="101" t="s">
         <v>140</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -3659,7 +3678,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3686,7 +3705,7 @@
       <c r="H5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="101" t="s">
         <v>79</v>
       </c>
       <c r="J5" s="25" t="s">
@@ -3707,7 +3726,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3734,10 +3753,10 @@
       <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="25" t="s">
         <v>149</v>
       </c>
       <c r="K6" s="12"/>
@@ -3782,7 +3801,7 @@
       <c r="H7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="101" t="s">
         <v>153</v>
       </c>
       <c r="J7" s="25" t="s">
@@ -3803,7 +3822,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3830,7 +3849,7 @@
       <c r="H8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="101" t="s">
         <v>157</v>
       </c>
       <c r="J8" s="25" t="s">
@@ -3851,7 +3870,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3878,10 +3897,10 @@
       <c r="H9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="150" t="s">
         <v>162</v>
       </c>
       <c r="K9" s="24"/>
@@ -3899,7 +3918,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3926,10 +3945,10 @@
       <c r="H10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="151" t="s">
         <v>166</v>
       </c>
       <c r="K10" s="5"/>
@@ -3947,7 +3966,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -3965,19 +3984,19 @@
       <c r="E11" s="36">
         <v>12</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="58" t="s">
         <v>168</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="152" t="s">
         <v>170</v>
       </c>
       <c r="K11" s="12"/>
@@ -3995,7 +4014,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4022,16 +4041,16 @@
       <c r="H12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="I12" s="155" t="s">
+        <v>337</v>
+      </c>
+      <c r="J12" s="153" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="51"/>
+      <c r="N12" s="49"/>
       <c r="O12" s="17" t="s">
         <v>41</v>
       </c>
@@ -4039,12 +4058,12 @@
         <v>134</v>
       </c>
       <c r="Q12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="R12" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="S12" s="51"/>
+      <c r="S12" s="49"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -4065,72 +4084,72 @@
       <c r="D14" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0"/>
@@ -4158,7 +4177,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4201,76 +4220,76 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="144" t="s">
+      <c r="E2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="70" t="s">
+      <c r="V2" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="W2" s="74" t="s">
+      <c r="W2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="74" t="s">
+      <c r="X2" s="70" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4278,33 +4297,35 @@
       <c r="A3" s="2">
         <v>45694</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="126" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="108" t="str">
+      <c r="D3" s="104" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="104">
         <v>2</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="62" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="117" t="s">
+      <c r="J3" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="K3" s="75"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35"/>
@@ -4327,35 +4348,35 @@
       <c r="A4" s="2">
         <v>45708</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="107" t="str">
+      <c r="D4" s="103" t="str">
         <f t="shared" ref="D4:D7" si="0">TEXT(A4, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="103">
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="118" t="s">
+      <c r="J4" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
         <v>41</v>
@@ -4384,36 +4405,36 @@
       <c r="A5" s="2">
         <v>45722</v>
       </c>
-      <c r="B5" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="125" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="107" t="str">
+      <c r="B5" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="103">
         <v>6</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="113" t="s">
+      <c r="I5" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="J5" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="K5" s="72" t="s">
         <v>190</v>
-      </c>
-      <c r="K5" s="76" t="s">
-        <v>191</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="16" t="s">
@@ -4439,35 +4460,35 @@
       <c r="A6" s="2">
         <v>45735</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="125" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="107" t="str">
+      <c r="C6" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="103">
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="I6" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="J6" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="76"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16" t="s">
         <v>41</v>
@@ -4494,35 +4515,35 @@
       <c r="A7" s="2">
         <v>45750</v>
       </c>
-      <c r="B7" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="107" t="str">
+      <c r="B7" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="103">
         <v>10</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="113" t="s">
+      <c r="I7" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="J7" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16" t="s">
         <v>33</v>
@@ -4547,32 +4568,32 @@
       <c r="A8" s="2">
         <v>45751</v>
       </c>
-      <c r="B8" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="107" t="s">
+      <c r="B8" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="103">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="107">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="I8" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="J8" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
@@ -4587,10 +4608,10 @@
         <v>134</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="R8" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
@@ -4605,35 +4626,35 @@
       <c r="A9" s="2">
         <v>45757</v>
       </c>
-      <c r="B9" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="107" t="str">
+      <c r="B9" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="103" t="str">
         <f>TEXT(A10, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="103">
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="113" t="s">
+      <c r="I9" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="J9" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="77"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16" t="s">
         <v>41</v>
@@ -4646,10 +4667,10 @@
         <v>134</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>216</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>41</v>
@@ -4666,47 +4687,47 @@
       <c r="A10" s="2">
         <v>45758</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="107" t="str">
+      <c r="C10" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="103" t="str">
         <f t="shared" ref="D10:D15" si="1">TEXT(A10, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="103">
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="119" t="s">
+      <c r="J10" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="J10" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="50"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="51"/>
+      <c r="N10" s="49"/>
       <c r="O10" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="51"/>
+      <c r="S10" s="49"/>
       <c r="T10" s="17" t="s">
         <v>35</v>
       </c>
@@ -4719,36 +4740,36 @@
       <c r="A11" s="4">
         <v>45764</v>
       </c>
-      <c r="B11" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="109" t="str">
+      <c r="B11" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="105" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="105">
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="I11" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="J11" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="14" t="s">
         <v>41</v>
       </c>
@@ -4778,37 +4799,37 @@
       <c r="A12" s="4">
         <v>45771</v>
       </c>
-      <c r="B12" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="128" t="str">
+      <c r="B12" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="124" t="str">
         <f>TEXT(A12,"mmm")</f>
         <v>Apr</v>
       </c>
-      <c r="D12" s="109" t="str">
+      <c r="D12" s="105" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="105">
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="14" t="s">
         <v>41</v>
       </c>
@@ -4838,37 +4859,37 @@
       <c r="A13" s="2">
         <v>45785</v>
       </c>
-      <c r="B13" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="128" t="str">
+      <c r="B13" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="124" t="str">
         <f>TEXT(A13,"mmm")</f>
         <v>May</v>
       </c>
-      <c r="D13" s="109" t="str">
+      <c r="D13" s="105" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E13" s="109">
+      <c r="E13" s="105">
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="H13" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="118" t="s">
+      <c r="I13" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="14"/>
       <c r="N13" s="35"/>
       <c r="O13" s="14" t="s">
@@ -4890,34 +4911,34 @@
       <c r="A14" s="4">
         <v>45799</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="129" t="str">
+      <c r="C14" s="125" t="str">
         <f>TEXT(A14,"mmm")</f>
         <v>May</v>
       </c>
-      <c r="D14" s="110" t="str">
+      <c r="D14" s="106" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="106">
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="122" t="s">
+      <c r="J14" s="112" t="s">
         <v>234</v>
-      </c>
-      <c r="J14" s="116" t="s">
-        <v>235</v>
       </c>
       <c r="M14" t="s">
         <v>41</v>
@@ -4936,14 +4957,14 @@
       <c r="A15" s="4">
         <v>45805</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="129" t="str">
+      <c r="C15" s="125" t="str">
         <f>TEXT(A15,"mmm")</f>
         <v>May</v>
       </c>
-      <c r="D15" s="110" t="str">
+      <c r="D15" s="106" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
@@ -4951,7 +4972,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
         <v>139</v>
@@ -4960,14 +4981,14 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="133" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="75"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
@@ -4979,13 +5000,13 @@
       <c r="A19" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="75"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+      <c r="A22" s="75"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
@@ -5006,62 +5027,62 @@
       <c r="A28" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
+      <c r="B31" s="60"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="60"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0"/>
@@ -5086,10 +5107,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,117 +5152,117 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>45911</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="144" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="148" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79">
-        <v>45911</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>177</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="55" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="J3" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="K3" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="L3" s="59" t="s">
         <v>244</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>245</v>
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="35" t="s">
@@ -5261,43 +5282,43 @@
       <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79">
+      <c r="A4" s="75">
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>TEXT(A4, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D4" s="57" t="str">
+      <c r="D4" s="55" t="str">
         <f>TEXT(A4, "dddd")</f>
         <v>Wednesday</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="K4" s="156" t="s">
         <v>251</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="L4" s="25" t="s">
         <v>252</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
@@ -5312,12 +5333,12 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5331,23 +5352,23 @@
         <f>E3+2</f>
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="J5" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
@@ -5363,12 +5384,12 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
         <v>45939</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
@@ -5382,23 +5403,23 @@
         <f>E5+2</f>
         <v>5</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="100" t="s">
+      <c r="J6" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
       <c r="O6" s="5" t="s">
@@ -5414,39 +5435,39 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>45946</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>263</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>264</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="101" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="157"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
@@ -5462,12 +5483,12 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>45953</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="26" t="str">
         <f>TEXT(A8, "mmm")</f>
@@ -5481,23 +5502,23 @@
         <f>E6+2</f>
         <v>7</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="5"/>
+      <c r="I8" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="157"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
@@ -5513,12 +5534,12 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
         <v>45967</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="26" t="str">
         <f>TEXT(A9, "mmm")</f>
@@ -5532,23 +5553,23 @@
         <f>E8+2</f>
         <v>9</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="5"/>
+      <c r="F9" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="157"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="5"/>
@@ -5562,12 +5583,12 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>45974</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>TEXT(A10, "mmm")</f>
@@ -5580,23 +5601,23 @@
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="101" t="s">
+      <c r="J10" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="J10" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="16"/>
       <c r="N10" s="35"/>
       <c r="O10" s="5" t="s">
@@ -5612,12 +5633,12 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
         <v>45981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="26" t="str">
         <f>TEXT(A11, "mmm")</f>
@@ -5631,23 +5652,23 @@
         <f>E9+2</f>
         <v>11</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5"/>
+      <c r="I11" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="107"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="16"/>
       <c r="N11" s="35"/>
       <c r="O11" s="5" t="s">
@@ -5663,12 +5684,12 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
         <v>45995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="26" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -5682,23 +5703,23 @@
         <f t="shared" ref="E12" si="2">E11+2</f>
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="101" t="s">
+      <c r="J12" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="J12" s="136" t="s">
-        <v>278</v>
-      </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="16"/>
       <c r="N12" s="35"/>
       <c r="O12" s="5" t="s">
@@ -5714,28 +5735,35 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
@@ -5756,8 +5784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,7 +5799,7 @@
     <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="43.140625" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -5799,91 +5827,91 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>46051</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="145" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="144" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="148" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79">
-        <v>46051</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>177</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="55" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -5891,21 +5919,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" s="77"/>
+        <v>261</v>
+      </c>
+      <c r="I3" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="73"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35" t="s">
@@ -5925,12 +5953,12 @@
       <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79">
+      <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
@@ -5945,21 +5973,21 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="102"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
@@ -5977,12 +6005,12 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="79">
+      <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -5997,21 +6025,21 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J5" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K5" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
@@ -6029,12 +6057,12 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79">
+      <c r="A6" s="75">
         <f t="shared" si="2"/>
         <v>46093</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6049,21 +6077,21 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="102"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
@@ -6081,12 +6109,12 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6101,21 +6129,21 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="102"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
@@ -6133,12 +6161,12 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
+      <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6153,21 +6181,21 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="102"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16"/>
       <c r="N8" s="35"/>
@@ -6183,12 +6211,12 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6203,21 +6231,21 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="I9" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="102"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
@@ -6272,7 +6300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC079F-155A-491D-9189-1418FC903287}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -6285,208 +6313,208 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="56" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142" t="s">
-        <v>212</v>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="52" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="B6" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="C6" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="B7" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="54" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="B8" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="139" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="52"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="141" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="143" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="B19" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="51" t="s">
         <v>314</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -6494,13 +6522,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" t="s">
         <v>314</v>
-      </c>
-      <c r="B25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6528,37 +6556,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="130" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="134" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133">
+        <v>45911</v>
+      </c>
+      <c r="B2" s="134">
+        <v>1</v>
+      </c>
+      <c r="C2" s="134" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137">
+      <c r="F2" s="75">
         <v>45911</v>
       </c>
-      <c r="B2" s="138">
-        <v>1</v>
-      </c>
-      <c r="C2" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="79">
-        <v>45911</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>177</v>
+      <c r="G2" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>TEXT(F2, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="I2" s="57" t="str">
+      <c r="I2" s="55" t="str">
         <f>TEXT(F2, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -6567,22 +6595,22 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="137">
+      <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
       </c>
-      <c r="B3" s="138">
+      <c r="B3" s="134">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="79">
+      <c r="C3" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="75">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6598,22 +6626,22 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="137">
+      <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
       </c>
-      <c r="B4" s="138">
+      <c r="B4" s="134">
         <f t="shared" ref="B4:B11" si="1">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="C4" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="75">
         <v>45939</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="26" t="str">
         <f t="shared" ref="H4" si="2">TEXT(F4, "mmm")</f>
@@ -6629,50 +6657,50 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="137">
+      <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
-      <c r="B5" s="138">
+      <c r="B5" s="134">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C5" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="79">
+      <c r="C5" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="75">
         <v>45946</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>263</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>264</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="137">
+      <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="134">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C6" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="79">
+      <c r="C6" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="75">
         <v>45953</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="26" t="str">
         <f>TEXT(F6, "mmm")</f>
@@ -6688,22 +6716,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="137">
+      <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="134">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C7" s="138" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="79">
+      <c r="C7" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="75">
         <v>45967</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="26" t="str">
         <f>TEXT(F7, "mmm")</f>
@@ -6719,22 +6747,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="137">
+      <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
       </c>
-      <c r="B8" s="138">
+      <c r="B8" s="134">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="138" t="s">
-        <v>320</v>
-      </c>
-      <c r="F8" s="79">
+      <c r="C8" s="134" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="75">
         <v>45974</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="26" t="str">
         <f>TEXT(F8, "mmm")</f>
@@ -6749,22 +6777,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="137">
+      <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="B9" s="138">
+      <c r="B9" s="134">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C9" s="138" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="79">
+      <c r="C9" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="75">
         <v>45981</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="26" t="str">
         <f>TEXT(F9, "mmm")</f>
@@ -6780,22 +6808,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="137">
+      <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
       </c>
-      <c r="B10" s="138">
+      <c r="B10" s="134">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C10" s="138" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="C10" s="134" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="75">
         <v>45995</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="26" t="str">
         <f>TEXT(F10, "mmm")</f>
@@ -6811,61 +6839,61 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="137">
+      <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
       </c>
-      <c r="B11" s="138">
+      <c r="B11" s="134">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C11" s="138" t="s">
-        <v>319</v>
+      <c r="C11" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="137">
+      <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
       </c>
-      <c r="B12" s="138">
+      <c r="B12" s="134">
         <f t="shared" ref="B12:B14" si="5">B11+1</f>
         <v>11</v>
       </c>
-      <c r="C12" s="138" t="s">
-        <v>319</v>
+      <c r="C12" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="137">
+      <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
       </c>
-      <c r="B13" s="138">
+      <c r="B13" s="134">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="C13" s="138" t="s">
-        <v>279</v>
+      <c r="C13" s="134" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="137">
+      <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
       </c>
-      <c r="B14" s="138">
+      <c r="B14" s="134">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C14" s="138" t="s">
-        <v>319</v>
+      <c r="C14" s="134" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
@@ -6911,293 +6939,293 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="82" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="84" t="s">
+      <c r="I5" s="81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="92">
+        <v>45694</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="93">
+        <v>2</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="83">
+        <v>45708</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="94">
         <v>4</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="84" t="s">
+      <c r="F7" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="83">
+        <v>45722</v>
+      </c>
+      <c r="B8" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="C8" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="94">
+        <v>6</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="86"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="83">
+        <v>45735</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="94">
         <v>8</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="F9" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="83">
+        <v>45744</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="94">
         <v>9</v>
       </c>
-      <c r="H5" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="I5" s="85" t="s">
+      <c r="F10" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="86"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="83">
+        <v>45750</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="94">
+        <v>10</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="83">
+        <v>45758</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="94">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="96">
-        <v>45694</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="97">
-        <v>2</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="87">
-        <v>45708</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="98">
-        <v>4</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="87">
-        <v>45722</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="98">
-        <v>6</v>
-      </c>
-      <c r="F8" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="87">
-        <v>45735</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="98">
-        <v>8</v>
-      </c>
-      <c r="F9" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="87">
-        <v>45744</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="98">
-        <v>9</v>
-      </c>
-      <c r="F10" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="87">
-        <v>45750</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="98">
-        <v>10</v>
-      </c>
-      <c r="F11" s="91" t="s">
+      <c r="F12" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="83">
+        <v>45764</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="94">
+        <v>12</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="87">
-        <v>45758</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="98">
-        <v>11</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="87">
-        <v>45764</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="98">
-        <v>12</v>
-      </c>
-      <c r="F13" s="91" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="88">
+        <v>45771</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="95">
+        <v>13</v>
+      </c>
+      <c r="F14" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="92">
-        <v>45771</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="99">
-        <v>13</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="94" t="s">
+      <c r="G14" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="93" t="s">
-        <v>227</v>
+      <c r="I14" s="89" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H20" s="83"/>
+      <c r="H20" s="79"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2429" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E1881E-28F8-4E8E-8FD4-A08EC9909AE9}"/>
+  <xr:revisionPtr revIDLastSave="2481" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF711EC-13E3-4E99-8D47-6AA442AE42CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="342">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1120,6 +1120,15 @@
   </si>
   <si>
     <t>Synthetic Aperture Radar (SAR) imaging has proven an invaluable all-weather day and night remote sensing information source, increasingly provided by monostatic SAR satellite constellations. Future developments will include multistatic SAR constellations (with a mix of separated transmitter and receiver platforms) for more timely or simultaneous multiple collections for interferometric modes, for example for 3D imaging or more basic terrain height determination, as well as for sensitive change detection amongst others. This presentation will provide an overview of multistatic SAR processing and show highlight results from the Ground-Based SAR laboratory based at Cranfield University, which has allowed the exploration and validation of multistatic SAR sensing concepts amongst others.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -5109,8 +5118,11 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,18 +5276,24 @@
       <c r="L3" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="N3" s="35" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="38"/>
       <c r="S3" s="35"/>
-      <c r="T3" s="40"/>
+      <c r="T3" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
       <c r="W3" s="46"/>
@@ -5320,14 +5338,30 @@
       <c r="L4" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="5"/>
+      <c r="M4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="15"/>
@@ -5369,16 +5403,22 @@
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="25"/>
-      <c r="M5" s="16"/>
+      <c r="M5" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="16"/>
       <c r="S5" s="35"/>
-      <c r="T5" s="5"/>
+      <c r="T5" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="15"/>
@@ -5420,16 +5460,26 @@
       </c>
       <c r="K6" s="157"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="35"/>
+      <c r="M6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="O6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="5"/>
+      <c r="S6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="15"/>
@@ -5468,16 +5518,22 @@
       </c>
       <c r="K7" s="157"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="16"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="5"/>
+      <c r="T7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="15"/>
@@ -5519,7 +5575,9 @@
       </c>
       <c r="K8" s="157"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
         <v>41</v>
@@ -5528,7 +5586,9 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="16"/>
       <c r="S8" s="35"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="15"/>
@@ -5618,16 +5678,24 @@
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="N10" s="35"/>
       <c r="O10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="5"/>
+      <c r="S10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="15"/>
@@ -5669,16 +5737,22 @@
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="N11" s="35"/>
       <c r="O11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="16"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="5"/>
+      <c r="T11" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="15"/>
@@ -5720,16 +5794,24 @@
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="N12" s="35"/>
       <c r="O12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="5"/>
+      <c r="S12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="15"/>
@@ -5784,7 +5866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2481" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF711EC-13E3-4E99-8D47-6AA442AE42CD}"/>
+  <xr:revisionPtr revIDLastSave="2491" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456F8772-F5F4-4216-92AD-7F479810E203}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="350">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -132,6 +132,9 @@
     <t>Marcos Prates</t>
   </si>
   <si>
+    <t>Universidade Federal de Minas Gerais</t>
+  </si>
+  <si>
     <t>James Sweeney</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>Emmanuil H. Georgoulis</t>
+  </si>
+  <si>
+    <t>Heriot-Watt University</t>
   </si>
   <si>
     <t>Natalia Kopteva</t>
@@ -175,6 +181,9 @@
     <t>William Lee</t>
   </si>
   <si>
+    <t>University of Huddersfield</t>
+  </si>
+  <si>
     <t>Kevin Moroney</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>Cameron Hall</t>
+  </si>
+  <si>
+    <t>University of Bristol</t>
   </si>
   <si>
     <t>Opportunities and challenges in optimising power grid stability</t>
@@ -209,6 +221,9 @@
     <t>Srikanth Toppaladoddi</t>
   </si>
   <si>
+    <t>University of Leeds</t>
+  </si>
+  <si>
     <t>Anthony Bonfils</t>
   </si>
   <si>
@@ -231,6 +246,9 @@
   </si>
   <si>
     <t>Maeve Upton</t>
+  </si>
+  <si>
+    <t>University of Limerick</t>
   </si>
   <si>
     <t xml:space="preserve"> Bayesian generalised additive models for quantifying sea-level change.</t>
@@ -246,6 +264,9 @@
     <t xml:space="preserve">Ben Taylor </t>
   </si>
   <si>
+    <t>University College Cork</t>
+  </si>
+  <si>
     <t>Modelling and inference for Spatial Processes Under Aggregation and Change of Support</t>
   </si>
   <si>
@@ -253,6 +274,9 @@
   </si>
   <si>
     <t>Michael Fop</t>
+  </si>
+  <si>
+    <t>University College Dublin</t>
   </si>
   <si>
     <t>Shirin Moghaddam</t>
@@ -302,6 +326,9 @@
   </si>
   <si>
     <t>Dan Giles</t>
+  </si>
+  <si>
+    <t>UCL Centre for Artificial Intelligence</t>
   </si>
   <si>
     <t>James Gleeson</t>
@@ -357,6 +384,9 @@
     <t>Allan Greenleaf</t>
   </si>
   <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
     <t>Cliff Nolan</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>Graeme Hocking</t>
   </si>
   <si>
+    <t>Murdoch University, Perth, Australia</t>
+  </si>
+  <si>
     <t>Splashes, waves and bores - unsteady, free-surface flows</t>
   </si>
   <si>
@@ -418,6 +451,9 @@
   </si>
   <si>
     <t>Laura Keane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> York University</t>
   </si>
   <si>
     <t>Simulation and analysis of double charge layers in electrolyte models for Lithium-ion batteries</t>
@@ -490,9 +526,6 @@
     <t>Graham Benham</t>
   </si>
   <si>
-    <t>University College Dublin</t>
-  </si>
-  <si>
     <t>Wave-driven propulsion occurs when a floating body, driven into oscillations at the fluid interface, is propelled by the waves generated by its own motion. Wave-driven propulsion has been observed in the case of the waves generated by a honeybee trapped on the surface of water, in the case of “SurferBot”, a centimeter-scale interfacial robot that was inspired by the stricken honeybee, and at much larger scales, in the case of the waves generated by jumping up and down on a canoe, also known as “gunwale bobbing”.
 In this seminar I will present a new theory for wave-driven propulsion based on coupling the equations of motion of a floating raft to a quasi-potential flow model of the fluid. Using this model, expressions are derived for the drift speed and propulsive thrust of the raft which in turn are shown to be consistent with global momentum conservation. The validity of the model is explored by describing the motion of SurferBot, demonstrating close agreement with the experimentally determined drift speed and oscillatory dynamics. The efficiency of wave-driven propulsion is then computed as a function of driving oscillation frequency and the forcing location, revealing optimal values for both of these parameters which await confirmation in experiments.</t>
   </si>
@@ -585,6 +618,12 @@
     <t xml:space="preserve">Cranfield University </t>
   </si>
   <si>
+    <t>Multistatic Synthetic Aperture Radar Imaging and Coherence</t>
+  </si>
+  <si>
+    <t>Synthetic Aperture Radar (SAR) imaging has proven an invaluable all-weather day and night remote sensing information source, increasingly provided by monostatic SAR satellite constellations. Future developments will include multistatic SAR constellations (with a mix of separated transmitter and receiver platforms) for more timely or simultaneous multiple collections for interferometric modes, for example for 3D imaging or more basic terrain height determination, as well as for sensitive change detection amongst others. This presentation will provide an overview of multistatic SAR processing and show highlight results from the Ground-Based SAR laboratory based at Cranfield University, which has allowed the exploration and validation of multistatic SAR sensing concepts amongst others.</t>
+  </si>
+  <si>
     <t>December 5</t>
   </si>
   <si>
@@ -598,9 +637,6 @@
   </si>
   <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>University of Limerick</t>
   </si>
   <si>
     <t xml:space="preserve">Fractional differential equations: gentle introduction and gentle numerical analysis
@@ -829,6 +865,9 @@
     <t xml:space="preserve"> https://arxiv.org/abs/2508.09647</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>4pm</t>
   </si>
   <si>
@@ -851,6 +890,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/s41467-024-48332-y ; https://doi.org/10.1126/sciadv.adk4606 ; https://doi.org/10.1103/PhysRevResearch.7.L012061</t>
+  </si>
+  <si>
+    <t>16th</t>
   </si>
   <si>
     <t>3pm</t>
@@ -890,6 +932,9 @@
     <t>TBC</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -902,6 +947,9 @@
     <t>A wavelet lifting approach for spatial/network data</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
     <t>Theresa Smith</t>
   </si>
   <si>
@@ -911,6 +959,19 @@
     <t>Yanghong Huang</t>
   </si>
   <si>
+    <t xml:space="preserve">Finite Difference Methods for fractional Laplacian of radial functions 
+</t>
+  </si>
+  <si>
+    <t>Numerical evaluation of nonlocal operators like the fractional Laplacian is more computationally intensive because of the dependence on the underlying function over the whole space. On the other hand, many solutions to the fractional counterparts of classical semi-linear PDEs, especially ground states obtained via variational methods, are radial. In this talk, fractional Laplacian of radial functions in general dimensions will be considered with a kernel represented by a Gauss hypergeometric function of the radial variables.  The singular part of the kernel is isolated and then treated with effective methods well studied in the one-dimensional context, while the regular part can be evaluated with by classical quadrature. The method can be extended to general non-radial functions that can be expanded using spherical harmonics, making it effective in the numerical study of fractional equations and complementing existing theoretical investigations.</t>
+  </si>
+  <si>
+    <t>4th Nov</t>
+  </si>
+  <si>
+    <t>6th Nov</t>
+  </si>
+  <si>
     <t>Lea Kaufmann</t>
   </si>
   <si>
@@ -921,6 +982,9 @@
   </si>
   <si>
     <t>In the last decades, high-dimensional problems in a regression-type context including a large number of explanatory variables arise in a huge variety of application fields. Specifically considering categorical explanatory variables, i.e., factors, the dummy-coding scheme introduces one (dummy) variable for each factor level, thus the dimension of the parameter space grows rapidly, even for a moderate number of factors. To simultaneously obtain the estimates of the regression coefficients and reducing the dimension of the parameter space, penalized regression is known to be a suitable tool. In this talk, I will discuss the characteristics that a penalization technique needs to fulfil to be suitable for the application to factors, as it is not only important to select those having an influence on the response variable (factor selection), but also to fuse those levels of a factor having a similar influence (levels fusion). A new penalization technique, called L0-Fused Group Lasso (L0-FGL), is introduced, tailored for the needs of factors. The quality of this new method is underlined by its theoretical properties, e.g.,  root-n-consistency and asymptotic normality, as well as by its performance in simulation studies.</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Alison O'Connor</t>
@@ -1086,49 +1150,18 @@
     <t>Leornard Henckel</t>
   </si>
   <si>
-    <t>Universidade Federal de Minas Gerais</t>
-  </si>
-  <si>
-    <t>Heriot-Watt University</t>
-  </si>
-  <si>
-    <t>University of Bristol</t>
-  </si>
-  <si>
-    <t>University of Leeds</t>
-  </si>
-  <si>
-    <t>University College Cork</t>
-  </si>
-  <si>
-    <t>UCL Centre for Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>University of Huddersfield</t>
-  </si>
-  <si>
-    <t>University of Rochester</t>
-  </si>
-  <si>
-    <t>Murdoch University, Perth, Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> York University</t>
-  </si>
-  <si>
-    <t>Multistatic Synthetic Aperture Radar Imaging and Coherence</t>
-  </si>
-  <si>
-    <t>Synthetic Aperture Radar (SAR) imaging has proven an invaluable all-weather day and night remote sensing information source, increasingly provided by monostatic SAR satellite constellations. Future developments will include multistatic SAR constellations (with a mix of separated transmitter and receiver platforms) for more timely or simultaneous multiple collections for interferometric modes, for example for 3D imaging or more basic terrain height determination, as well as for sensitive change detection amongst others. This presentation will provide an overview of multistatic SAR processing and show highlight results from the Ground-Based SAR laboratory based at Cranfield University, which has allowed the exploration and validation of multistatic SAR sensing concepts amongst others.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>16th</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Hip Fractures Trends in Older Adults in Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
+In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
+References
+1.	Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
+2.	EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
+3.	CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
+4.	Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
+5.	Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf
+</t>
   </si>
 </sst>
 </file>
@@ -2383,45 +2416,45 @@
         <v>28</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>327</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="13"/>
@@ -2446,44 +2479,44 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="5"/>
       <c r="S4" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="13"/>
@@ -2508,41 +2541,41 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="5"/>
       <c r="S5" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="14"/>
@@ -2568,48 +2601,48 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="13"/>
@@ -2634,53 +2667,53 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="14"/>
       <c r="W7" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,51 +2735,51 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="P8" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="14"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,24 +2801,24 @@
         <v>6</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
@@ -2794,7 +2827,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="15"/>
       <c r="T9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="14"/>
@@ -2820,51 +2853,51 @@
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -2888,41 +2921,41 @@
         <v>9</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="14"/>
@@ -2948,43 +2981,43 @@
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="14"/>
@@ -3010,50 +3043,50 @@
         <v>10</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="V13" s="14"/>
       <c r="W13" s="13"/>
@@ -3078,42 +3111,42 @@
         <v>11</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="5"/>
       <c r="S14" s="15"/>
       <c r="T14" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="13"/>
@@ -3138,51 +3171,51 @@
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="V15" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -3206,45 +3239,45 @@
         <v>12</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S16" s="20"/>
       <c r="T16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U16" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="V16" s="19" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
@@ -3268,53 +3301,53 @@
         <v>15</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="P17" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S17" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
@@ -3338,19 +3371,19 @@
         <v>16</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="17"/>
@@ -3362,7 +3395,7 @@
       <c r="R18" s="17"/>
       <c r="S18" s="20"/>
       <c r="T18" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U18" s="21"/>
       <c r="V18" s="19"/>
@@ -3388,19 +3421,19 @@
         <v>19</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="17"/>
@@ -3412,7 +3445,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="20"/>
       <c r="T19" s="17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="19"/>
@@ -3512,7 +3545,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E2" s="149" t="s">
         <v>7</v>
@@ -3566,7 +3599,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="W2" s="45" t="s">
         <v>25</v>
@@ -3580,7 +3613,7 @@
         <v>45548</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C3" s="26" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(A3, "mmm")</f>
@@ -3594,47 +3627,47 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I3" s="154" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="40" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="S3" s="35"/>
       <c r="T3" s="40" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
@@ -3644,7 +3677,7 @@
         <v>45555</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3658,19 +3691,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
@@ -3692,7 +3725,7 @@
         <v>45562</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3706,19 +3739,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I5" s="101" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="5"/>
@@ -3740,7 +3773,7 @@
         <v>45576</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3754,19 +3787,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I6" s="129" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="5"/>
@@ -3788,7 +3821,7 @@
         <v>45583</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3802,19 +3835,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I7" s="101" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -3836,7 +3869,7 @@
         <v>45596</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3850,19 +3883,19 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I8" s="101" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -3884,7 +3917,7 @@
         <v>45604</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3898,19 +3931,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I9" s="150" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J9" s="150" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="5"/>
@@ -3932,7 +3965,7 @@
         <v>45611</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3946,19 +3979,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I10" s="151" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J10" s="151" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -3980,7 +4013,7 @@
         <v>45625</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" ref="C11" si="2">TEXT(A11, "mmm")</f>
@@ -3994,19 +4027,19 @@
         <v>12</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I11" s="152" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J11" s="152" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -4028,7 +4061,7 @@
         <v>45632</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C12" s="47" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -4042,35 +4075,35 @@
         <v>13</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I12" s="155" t="s">
-        <v>337</v>
+        <v>184</v>
       </c>
       <c r="J12" s="153" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
       <c r="M12" s="21"/>
       <c r="N12" s="49"/>
       <c r="O12" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="17"/>
@@ -4239,10 +4272,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>8</v>
@@ -4293,7 +4326,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="66" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="W2" s="70" t="s">
         <v>25</v>
@@ -4307,10 +4340,10 @@
         <v>45694</v>
       </c>
       <c r="B3" s="126" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D3" s="104" t="str">
         <f>TEXT(A3, "dddd")</f>
@@ -4320,33 +4353,33 @@
         <v>2</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H3" s="108" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I3" s="113" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J3" s="99" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K3" s="71"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35"/>
       <c r="O3" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
       <c r="R3" s="38"/>
       <c r="S3" s="35"/>
       <c r="T3" s="40" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
@@ -4358,10 +4391,10 @@
         <v>45708</v>
       </c>
       <c r="B4" s="127" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D4" s="103" t="str">
         <f t="shared" ref="D4:D7" si="0">TEXT(A4, "dddd")</f>
@@ -4371,39 +4404,39 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H4" s="109" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I4" s="114" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K4" s="72"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="16"/>
       <c r="S4" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -4415,10 +4448,10 @@
         <v>45722</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D5" s="103" t="str">
         <f t="shared" si="0"/>
@@ -4428,37 +4461,37 @@
         <v>6</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I5" s="115" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="J5" s="100" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="16"/>
       <c r="S5" s="35"/>
       <c r="T5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -4470,10 +4503,10 @@
         <v>45735</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D6" s="103" t="str">
         <f t="shared" si="0"/>
@@ -4483,37 +4516,37 @@
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I6" s="115" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="16"/>
       <c r="S6" s="35"/>
       <c r="T6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -4525,10 +4558,10 @@
         <v>45750</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D7" s="103" t="str">
         <f t="shared" si="0"/>
@@ -4538,35 +4571,35 @@
         <v>10</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I7" s="115" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="16"/>
       <c r="S7" s="35"/>
       <c r="T7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -4578,53 +4611,53 @@
         <v>45751</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E8" s="103">
         <v>10</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H8" s="109" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I8" s="116" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
       <c r="M8" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -4636,10 +4669,10 @@
         <v>45757</v>
       </c>
       <c r="B9" s="127" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D9" s="103" t="str">
         <f>TEXT(A10, "dddd")</f>
@@ -4649,43 +4682,43 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="I9" s="115" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -4700,7 +4733,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D10" s="103" t="str">
         <f t="shared" ref="D10:D15" si="1">TEXT(A10, "dddd")</f>
@@ -4710,35 +4743,35 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H10" s="109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="115" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J10" s="98" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="48"/>
       <c r="M10" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N10" s="49"/>
       <c r="O10" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="21"/>
       <c r="S10" s="49"/>
       <c r="T10" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
@@ -4750,10 +4783,10 @@
         <v>45764</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D11" s="105" t="str">
         <f t="shared" si="1"/>
@@ -4763,41 +4796,41 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I11" s="117" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
       <c r="M11" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
@@ -4809,7 +4842,7 @@
         <v>45771</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C12" s="124" t="str">
         <f>TEXT(A12,"mmm")</f>
@@ -4823,41 +4856,41 @@
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
@@ -4869,7 +4902,7 @@
         <v>45785</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C13" s="124" t="str">
         <f>TEXT(A13,"mmm")</f>
@@ -4883,33 +4916,33 @@
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H13" s="109" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I13" s="114" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="J13" s="98" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="14"/>
       <c r="N13" s="35"/>
       <c r="O13" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="35"/>
       <c r="T13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -4921,7 +4954,7 @@
         <v>45799</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C14" s="125" t="str">
         <f>TEXT(A14,"mmm")</f>
@@ -4935,31 +4968,31 @@
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H14" s="111" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,19 +5014,19 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J15" s="129" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,7 +5155,7 @@
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,10 +5207,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>8</v>
@@ -5228,7 +5261,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="66" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="W2" s="70" t="s">
         <v>25</v>
@@ -5242,7 +5275,7 @@
         <v>45911</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
@@ -5256,43 +5289,43 @@
         <v>1</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="K3" s="156" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="38"/>
       <c r="S3" s="35"/>
       <c r="T3" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
@@ -5304,7 +5337,7 @@
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>TEXT(A4, "mmm")</f>
@@ -5318,49 +5351,49 @@
         <v>2</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K4" s="156" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -5372,7 +5405,7 @@
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5387,37 +5420,37 @@
         <v>3</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="25"/>
       <c r="M5" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="16"/>
       <c r="S5" s="35"/>
       <c r="T5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -5429,7 +5462,7 @@
         <v>45939</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
@@ -5444,41 +5477,43 @@
         <v>5</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I6" s="96" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" s="157"/>
+        <v>275</v>
+      </c>
+      <c r="K6" s="157" t="s">
+        <v>276</v>
+      </c>
       <c r="L6" s="25"/>
       <c r="M6" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="16"/>
       <c r="S6" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -5490,49 +5525,51 @@
         <v>45946</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="157"/>
+        <v>275</v>
+      </c>
+      <c r="K7" s="157" t="s">
+        <v>281</v>
+      </c>
       <c r="L7" s="25"/>
       <c r="M7" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="16"/>
       <c r="S7" s="35"/>
       <c r="T7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -5544,7 +5581,7 @@
         <v>45953</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C8" s="26" t="str">
         <f>TEXT(A8, "mmm")</f>
@@ -5559,35 +5596,35 @@
         <v>7</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K8" s="157"/>
       <c r="L8" s="25"/>
       <c r="M8" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="16"/>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -5599,7 +5636,7 @@
         <v>45967</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C9" s="26" t="str">
         <f>TEXT(A9, "mmm")</f>
@@ -5614,28 +5651,36 @@
         <v>9</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="K9" s="157"/>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="16"/>
+      <c r="O9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>288</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -5648,7 +5693,7 @@
         <v>45974</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>TEXT(A10, "mmm")</f>
@@ -5662,39 +5707,39 @@
         <v>10</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
       <c r="M10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
       <c r="S10" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -5706,7 +5751,7 @@
         <v>45981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C11" s="26" t="str">
         <f>TEXT(A11, "mmm")</f>
@@ -5721,37 +5766,37 @@
         <v>11</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
       <c r="M11" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="35"/>
       <c r="O11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="16"/>
       <c r="S11" s="35"/>
       <c r="T11" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -5763,7 +5808,7 @@
         <v>45995</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C12" s="26" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -5778,39 +5823,39 @@
         <v>13</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
       <c r="M12" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="16"/>
       <c r="S12" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -5857,6 +5902,8 @@
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{7DFE3762-8F5E-4F84-9CA0-19AC05FFD4B0}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{B9C6041F-ED68-4E30-9696-976A7A7C59D6}"/>
+    <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5919,10 +5966,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>8</v>
@@ -5973,7 +6020,7 @@
         <v>23</v>
       </c>
       <c r="V2" s="66" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="W2" s="70" t="s">
         <v>25</v>
@@ -5987,7 +6034,7 @@
         <v>46051</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
@@ -6001,28 +6048,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
       <c r="N3" s="35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
@@ -6040,7 +6087,7 @@
         <v>46065</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
@@ -6055,26 +6102,26 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16"/>
       <c r="N4" s="35"/>
       <c r="O4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -6092,7 +6139,7 @@
         <v>46079</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6107,26 +6154,26 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="16"/>
       <c r="N5" s="35"/>
       <c r="O5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -6144,7 +6191,7 @@
         <v>46093</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6159,26 +6206,26 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
       <c r="M6" s="16"/>
       <c r="N6" s="35"/>
       <c r="O6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -6196,7 +6243,7 @@
         <v>46107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6211,26 +6258,26 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
       <c r="M7" s="16"/>
       <c r="N7" s="35"/>
       <c r="O7" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -6248,7 +6295,7 @@
         <v>46121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6263,19 +6310,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6298,7 +6345,7 @@
         <v>46135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6313,26 +6360,26 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
       <c r="O9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -6395,222 +6442,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6642,10 +6689,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6656,13 +6703,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>TEXT(F2, "mmm")</f>
@@ -6686,13 +6733,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6717,13 +6764,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H4" s="26" t="str">
         <f t="shared" ref="H4" si="2">TEXT(F4, "mmm")</f>
@@ -6748,19 +6795,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -6776,13 +6823,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H6" s="26" t="str">
         <f>TEXT(F6, "mmm")</f>
@@ -6807,13 +6854,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H7" s="26" t="str">
         <f>TEXT(F7, "mmm")</f>
@@ -6838,13 +6885,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H8" s="26" t="str">
         <f>TEXT(F8, "mmm")</f>
@@ -6868,13 +6915,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H9" s="26" t="str">
         <f>TEXT(F9, "mmm")</f>
@@ -6899,13 +6946,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H10" s="26" t="str">
         <f>TEXT(F10, "mmm")</f>
@@ -6930,7 +6977,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6943,7 +6990,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6956,7 +7003,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6969,7 +7016,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7022,12 +7069,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -7041,10 +7088,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>8</v>
@@ -7053,7 +7100,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7064,26 +7111,26 @@
         <v>45694</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E6" s="93">
         <v>2</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7091,28 +7138,28 @@
         <v>45708</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E7" s="94">
         <v>4</v>
       </c>
       <c r="F7" s="87" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G7" s="87" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H7" s="87" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7120,25 +7167,25 @@
         <v>45722</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E8" s="94">
         <v>6</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I8" s="86"/>
     </row>
@@ -7147,28 +7194,28 @@
         <v>45735</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H9" s="87" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7176,25 +7223,25 @@
         <v>45744</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E10" s="94">
         <v>9</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="I10" s="86"/>
     </row>
@@ -7203,26 +7250,26 @@
         <v>45750</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E11" s="94">
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="G11" s="87" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7233,25 +7280,25 @@
         <v>27</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E12" s="94">
         <v>11</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7259,19 +7306,19 @@
         <v>45764</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E13" s="94">
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7282,28 +7329,28 @@
         <v>45771</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E14" s="95">
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I14" s="89" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2491" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456F8772-F5F4-4216-92AD-7F479810E203}"/>
+  <xr:revisionPtr revIDLastSave="2495" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6A7292-0199-4105-A415-9AF6D3B45CEC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="351">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1153,15 +1153,17 @@
     <t>Hip Fractures Trends in Older Adults in Ireland</t>
   </si>
   <si>
-    <t xml:space="preserve">European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
+    <t>https://scholar.google.com/citations?user=cbz4D-gAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
 In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
 References
-1.	Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
-2.	EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
-3.	CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
-4.	Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
-5.	Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf
-</t>
+1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
+2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
+3. CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
+4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
+5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
 </sst>
 </file>
@@ -1981,6 +1983,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5155,7 +5161,7 @@
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5665,7 +5671,9 @@
       <c r="J9" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="157"/>
+      <c r="K9" s="157" t="s">
+        <v>349</v>
+      </c>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
       <c r="N9" s="35"/>
@@ -5682,7 +5690,9 @@
         <v>288</v>
       </c>
       <c r="S9" s="35"/>
-      <c r="T9" s="5"/>
+      <c r="T9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="15"/>
@@ -5778,7 +5788,7 @@
         <v>348</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
@@ -5904,6 +5914,7 @@
     <hyperlink ref="K4" r:id="rId2" xr:uid="{7DFE3762-8F5E-4F84-9CA0-19AC05FFD4B0}"/>
     <hyperlink ref="K6" r:id="rId3" xr:uid="{B9C6041F-ED68-4E30-9696-976A7A7C59D6}"/>
     <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2495" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6A7292-0199-4105-A415-9AF6D3B45CEC}"/>
+  <xr:revisionPtr revIDLastSave="2497" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994866AB-1CAF-4008-B678-59E24FA32A5B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -728,22 +728,6 @@
     <t>One, Two, Many (or a dozen reasons why mathematics isn’t as easy as 1,2,3)</t>
   </si>
   <si>
-    <t>Are there really primitive tribes whose system of counting goes: "One, Two, Many", indicating that
-from three on it’s more or less a blur? Maybe we modern humans are such a tribe. Despite the
-sophistication we see in ourselves compared with our less advanced ancestors from times long past,
-it’s surprising how little progress we’ve made in addressing some basic problems in 3D or beyond, or
-when solving seemingly simple equations in 3 or more variables. For despite our astonishing mastery
-of some ABCs, such as Air (flight, weather prediction), Biology (medical breakthroughs, DNA) and
-Communications (phone, video, email), we often struggle to get past 1, 2, 3 in other domains. Or
-sometimes even to get to 3. We'll survey a dozen fun topics in shapes and numbers and patterns
-whose basics and generalization can be explored with little mathematical background, and which
-speedily lead to "what if" questions ranging from easy to tricky to "we just don't know." Coins, cakes,
-fruit, bagels, cubes, squares and primes will all make an appearance. The late Martin Gardner, whose writings  turned  so many  on to maths, knew all too well that such playful queries
-can both excite students about mathematics and lead to real research at the frontiers of the subject.
-There will be satisfying Aha! moments, there will be room for innovative ideas, and million dollar
-prizes will be discussed.</t>
-  </si>
-  <si>
     <t>9th of April</t>
   </si>
   <si>
@@ -905,6 +889,252 @@
   </si>
   <si>
     <t>Coupling rheology and segregation in granular flows</t>
+  </si>
+  <si>
+    <t>Lisa McFetridge</t>
+  </si>
+  <si>
+    <t>Queen's University Belfast</t>
+  </si>
+  <si>
+    <t>Advances in Robust Mixed Effects Modelling</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Dingjia Cao</t>
+  </si>
+  <si>
+    <t>A wavelet lifting approach for spatial/network data</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Theresa Smith</t>
+  </si>
+  <si>
+    <t>University of Bath</t>
+  </si>
+  <si>
+    <t>Yanghong Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite Difference Methods for fractional Laplacian of radial functions 
+</t>
+  </si>
+  <si>
+    <t>Numerical evaluation of nonlocal operators like the fractional Laplacian is more computationally intensive because of the dependence on the underlying function over the whole space. On the other hand, many solutions to the fractional counterparts of classical semi-linear PDEs, especially ground states obtained via variational methods, are radial. In this talk, fractional Laplacian of radial functions in general dimensions will be considered with a kernel represented by a Gauss hypergeometric function of the radial variables.  The singular part of the kernel is isolated and then treated with effective methods well studied in the one-dimensional context, while the regular part can be evaluated with by classical quadrature. The method can be extended to general non-radial functions that can be expanded using spherical harmonics, making it effective in the numerical study of fractional equations and complementing existing theoretical investigations.</t>
+  </si>
+  <si>
+    <t>4th Nov</t>
+  </si>
+  <si>
+    <t>6th Nov</t>
+  </si>
+  <si>
+    <t>Lea Kaufmann</t>
+  </si>
+  <si>
+    <t>RWTH Aachen University</t>
+  </si>
+  <si>
+    <t>Factor Selection and Levels Fusion in High-Dimensional Logistic Regression</t>
+  </si>
+  <si>
+    <t>In the last decades, high-dimensional problems in a regression-type context including a large number of explanatory variables arise in a huge variety of application fields. Specifically considering categorical explanatory variables, i.e., factors, the dummy-coding scheme introduces one (dummy) variable for each factor level, thus the dimension of the parameter space grows rapidly, even for a moderate number of factors. To simultaneously obtain the estimates of the regression coefficients and reducing the dimension of the parameter space, penalized regression is known to be a suitable tool. In this talk, I will discuss the characteristics that a penalization technique needs to fulfil to be suitable for the application to factors, as it is not only important to select those having an influence on the response variable (factor selection), but also to fuse those levels of a factor having a similar influence (levels fusion). A new penalization technique, called L0-Fused Group Lasso (L0-FGL), is introduced, tailored for the needs of factors. The quality of this new method is underlined by its theoretical properties, e.g.,  root-n-consistency and asymptotic normality, as well as by its performance in simulation studies.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Alison O'Connor</t>
+  </si>
+  <si>
+    <t>Silvia D'Angelo</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>Clustering high-dimensional discrete data: a compressed approach</t>
+  </si>
+  <si>
+    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
+We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
+  </si>
+  <si>
+    <t>Hip Fractures Trends in Older Adults in Ireland</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=cbz4D-gAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
+In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
+References
+1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
+2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
+3. CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
+4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
+5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
   <si>
     <t>During the last fifteen years there has been a paradigm shift in the continuum modelling of granular materials; most notably with the development of rheological models, such as the  μ(I)-rheology (where μ is the friction and I is the inertial number), but also with significant advances in theories for particle segregation. This paper details theoretical and numerical frameworks (based on OpenFOAM) which unify these currently disconnected endeavours. Coupling the segregation with the flow, and vice versa, is not only vital for a complete theory of granular materials, but is also beneficial for developing numerical methods to handle evolving free surfaces. This general approach is based on the partially regularized incompressible-rheology, which is coupled to the gravity-driven segregation theory of Gray &amp; Ancey (J. Fluid Mech., vol. 678, 2011, pp. 353-588). These advection-diffusion-segregation equations describe the evolving concentrations of the constituents, which then couple back to the variable viscosity in the incompressible Navier-Stokes equations. A novel feature of this approach is that any number of differently sized phases may be included, which may have disparate frictional properties. Further inclusion of an excess air phase, which segregates away from the granular material, then allows the complex evolution of the free surface to be captured simultaneously. Three primary coupling mechanisms are identified: (i) advection of the particle concentrations by the bulk velocity, (ii) feedback of the particle-size and/or frictional properties on the bulk flow field and (iii) influence of the shear rate, pressure, gravity, particle size and particle-size ratio on the locally evolving segregation and diffusion rates. The numerical method is extensively tested in one-way coupled computations, before the fully coupled model is compared with the discrete element method simulations of Tripathi &amp; Khakhar (Phys. Fluids, vol. 23, 2011, 113302) and used to compute the petal-like segregation pattern that spontaneously develops in a square and triangular rotating drums.
@@ -920,250 +1150,7 @@
 T. Barker &amp; J. M. N. T. Gray (2017) J. Fluid Mech. 828, 5--32.   (movies)</t>
   </si>
   <si>
-    <t>Lisa McFetridge</t>
-  </si>
-  <si>
-    <t>Queen's University Belfast</t>
-  </si>
-  <si>
-    <t>Advances in Robust Mixed Effects Modelling</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Dingjia Cao</t>
-  </si>
-  <si>
-    <t>A wavelet lifting approach for spatial/network data</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Theresa Smith</t>
-  </si>
-  <si>
-    <t>University of Bath</t>
-  </si>
-  <si>
-    <t>Yanghong Huang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finite Difference Methods for fractional Laplacian of radial functions 
-</t>
-  </si>
-  <si>
-    <t>Numerical evaluation of nonlocal operators like the fractional Laplacian is more computationally intensive because of the dependence on the underlying function over the whole space. On the other hand, many solutions to the fractional counterparts of classical semi-linear PDEs, especially ground states obtained via variational methods, are radial. In this talk, fractional Laplacian of radial functions in general dimensions will be considered with a kernel represented by a Gauss hypergeometric function of the radial variables.  The singular part of the kernel is isolated and then treated with effective methods well studied in the one-dimensional context, while the regular part can be evaluated with by classical quadrature. The method can be extended to general non-radial functions that can be expanded using spherical harmonics, making it effective in the numerical study of fractional equations and complementing existing theoretical investigations.</t>
-  </si>
-  <si>
-    <t>4th Nov</t>
-  </si>
-  <si>
-    <t>6th Nov</t>
-  </si>
-  <si>
-    <t>Lea Kaufmann</t>
-  </si>
-  <si>
-    <t>RWTH Aachen University</t>
-  </si>
-  <si>
-    <t>Factor Selection and Levels Fusion in High-Dimensional Logistic Regression</t>
-  </si>
-  <si>
-    <t>In the last decades, high-dimensional problems in a regression-type context including a large number of explanatory variables arise in a huge variety of application fields. Specifically considering categorical explanatory variables, i.e., factors, the dummy-coding scheme introduces one (dummy) variable for each factor level, thus the dimension of the parameter space grows rapidly, even for a moderate number of factors. To simultaneously obtain the estimates of the regression coefficients and reducing the dimension of the parameter space, penalized regression is known to be a suitable tool. In this talk, I will discuss the characteristics that a penalization technique needs to fulfil to be suitable for the application to factors, as it is not only important to select those having an influence on the response variable (factor selection), but also to fuse those levels of a factor having a similar influence (levels fusion). A new penalization technique, called L0-Fused Group Lasso (L0-FGL), is introduced, tailored for the needs of factors. The quality of this new method is underlined by its theoretical properties, e.g.,  root-n-consistency and asymptotic normality, as well as by its performance in simulation studies.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Alison O'Connor</t>
-  </si>
-  <si>
-    <t>Silvia D'Angelo</t>
-  </si>
-  <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
-    <t>Clustering high-dimensional discrete data: a compressed approach</t>
-  </si>
-  <si>
-    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
-We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
-  </si>
-  <si>
-    <t>Hip Fractures Trends in Older Adults in Ireland</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=cbz4D-gAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
-In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
-References
-1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
-2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
-3. CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
-4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
-5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
+    <t>Are there really primitive tribes whose system of counting goes: "One, Two, Many", indicating that from three on it’s more or less a blur? Maybe we modern humans are such a tribe. Despite the sophistication we see in ourselves compared with our less advanced ancestors from times long past, it’s surprising how little progress we’ve made in addressing some basic problems in 3D or beyond, or when solving seemingly simple equations in 3 or more variables. For despite our astonishing mastery of some ABCs, such as Air (flight, weather prediction), Biology (medical breakthroughs, DNA) and Communications (phone, video, email), we often struggle to get past 1, 2, 3 in other domains. Or sometimes even to get to 3. We'll survey a dozen fun topics in shapes and numbers and patterns whose basics and generalization can be explored with little mathematical background, and which speedily lead to "what if" questions ranging from easy to tricky to "we just don't know." Coins, cakes, fruit, bagels, cubes, squares and primes will all make an appearance. The late Martin Gardner, whose writings  turned  so many  on to maths, knew all too well that such playful queries can both excite students about mathematics and lead to real research at the frontiers of the subject. There will be satisfying Aha! moments, there will be room for innovative ideas, and million dollar prizes will be discussed.</t>
   </si>
 </sst>
 </file>
@@ -1983,10 +1970,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4224,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12299A9A-6C0C-4F92-957E-FBFCB6211744}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,7 +4624,7 @@
         <v>217</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
@@ -4656,10 +4639,10 @@
         <v>146</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R8" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
@@ -4688,19 +4671,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="I9" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="J9" s="98" t="s">
         <v>224</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>225</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="5"/>
@@ -4715,10 +4698,10 @@
         <v>146</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>227</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>43</v>
@@ -4749,19 +4732,19 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="H10" s="109" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" s="98" t="s">
         <v>230</v>
-      </c>
-      <c r="J10" s="98" t="s">
-        <v>231</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="48"/>
@@ -4802,19 +4785,19 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="110" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="I11" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="I11" s="117" t="s">
+      <c r="J11" s="112" t="s">
         <v>235</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>236</v>
       </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
@@ -4862,7 +4845,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>76</v>
@@ -4871,10 +4854,10 @@
         <v>123</v>
       </c>
       <c r="I12" s="114" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" s="98" t="s">
         <v>238</v>
-      </c>
-      <c r="J12" s="98" t="s">
-        <v>239</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
@@ -4922,7 +4905,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>76</v>
@@ -4931,10 +4914,10 @@
         <v>100</v>
       </c>
       <c r="I13" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="98" t="s">
         <v>241</v>
-      </c>
-      <c r="J13" s="98" t="s">
-        <v>242</v>
       </c>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
@@ -4974,19 +4957,19 @@
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="H14" s="111" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="J14" s="112" t="s">
         <v>245</v>
-      </c>
-      <c r="J14" s="112" t="s">
-        <v>246</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
@@ -5020,7 +5003,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
         <v>151</v>
@@ -5029,10 +5012,10 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15" s="129" t="s">
         <v>248</v>
-      </c>
-      <c r="J15" s="129" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,11 +5140,11 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5295,25 +5278,25 @@
         <v>1</v>
       </c>
       <c r="F3" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="H3" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="J3" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="K3" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="156" t="s">
+      <c r="L3" s="59" t="s">
         <v>255</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>256</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>34</v>
@@ -5325,7 +5308,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="38"/>
@@ -5343,7 +5326,7 @@
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>TEXT(A4, "mmm")</f>
@@ -5357,25 +5340,25 @@
         <v>2</v>
       </c>
       <c r="F4" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="H4" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="J4" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="K4" s="156" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="156" t="s">
+      <c r="L4" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>265</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>43</v>
@@ -5390,7 +5373,7 @@
         <v>63</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>65</v>
@@ -5411,7 +5394,7 @@
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5426,19 +5409,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="107" t="s">
         <v>268</v>
-      </c>
-      <c r="G5" s="107" t="s">
-        <v>269</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>205</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="25"/>
@@ -5450,7 +5433,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="16"/>
@@ -5483,22 +5466,22 @@
         <v>5</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>77</v>
       </c>
       <c r="I6" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="157" t="s">
         <v>274</v>
-      </c>
-      <c r="J6" s="98" t="s">
-        <v>275</v>
-      </c>
-      <c r="K6" s="157" t="s">
-        <v>276</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="16" t="s">
@@ -5534,16 +5517,16 @@
         <v>189</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G7" s="107" t="s">
         <v>67</v>
@@ -5552,13 +5535,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K7" s="157" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="16" t="s">
@@ -5569,7 +5552,7 @@
         <v>34</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="16"/>
@@ -5602,19 +5585,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8" s="157"/>
       <c r="L8" s="25"/>
@@ -5657,22 +5640,22 @@
         <v>9</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>199</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K9" s="157" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
@@ -5684,10 +5667,10 @@
         <v>63</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="5" t="s">
@@ -5717,19 +5700,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
@@ -5741,7 +5724,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
@@ -5776,7 +5759,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>67</v>
@@ -5785,10 +5768,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="98" t="s">
         <v>348</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>350</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
@@ -5800,7 +5783,7 @@
         <v>34</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="16"/>
@@ -5833,19 +5816,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
@@ -6059,19 +6042,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6113,19 +6096,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6165,19 +6148,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6217,19 +6200,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6269,19 +6252,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6321,19 +6304,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6371,19 +6354,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6453,32 +6436,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>301</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6487,19 +6470,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
@@ -6507,10 +6490,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
@@ -6518,10 +6501,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
@@ -6529,105 +6512,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>315</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>318</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
@@ -6635,26 +6618,26 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -6662,13 +6645,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6700,10 +6683,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6714,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6744,13 +6727,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6775,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6806,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6815,10 +6798,10 @@
         <v>189</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -6834,7 +6817,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6865,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -6896,7 +6879,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6926,7 +6909,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6957,7 +6940,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -6988,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7001,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7014,7 +6997,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7027,7 +7010,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7080,12 +7063,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -7111,7 +7094,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7128,7 +7111,7 @@
         <v>190</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" s="93">
         <v>2</v>
@@ -7141,7 +7124,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7155,7 +7138,7 @@
         <v>190</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E7" s="94">
         <v>4</v>
@@ -7184,7 +7167,7 @@
         <v>197</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E8" s="94">
         <v>6</v>
@@ -7211,7 +7194,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7226,7 +7209,7 @@
         <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7246,13 +7229,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="H10" s="87" t="s">
         <v>222</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>223</v>
       </c>
       <c r="I10" s="86"/>
     </row>
@@ -7267,20 +7250,20 @@
         <v>208</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E11" s="94">
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7300,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" s="87" t="s">
         <v>171</v>
@@ -7309,7 +7292,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7323,13 +7306,13 @@
         <v>208</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E13" s="94">
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7346,13 +7329,13 @@
         <v>208</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E14" s="95">
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>
@@ -7361,7 +7344,7 @@
         <v>123</v>
       </c>
       <c r="I14" s="89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2497" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994866AB-1CAF-4008-B678-59E24FA32A5B}"/>
+  <xr:revisionPtr revIDLastSave="2498" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABC1665-85A3-4193-87B1-B425E6344C18}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="350">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -850,9 +850,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>4pm</t>
   </si>
   <si>
     <t>Márton Karsai</t>
@@ -4207,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12299A9A-6C0C-4F92-957E-FBFCB6211744}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4624,7 +4621,7 @@
         <v>217</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
@@ -5140,11 +5137,11 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5326,7 +5323,7 @@
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>TEXT(A4, "mmm")</f>
@@ -5340,25 +5337,25 @@
         <v>2</v>
       </c>
       <c r="F4" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="H4" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="J4" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="K4" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="K4" s="156" t="s">
+      <c r="L4" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>43</v>
@@ -5373,7 +5370,7 @@
         <v>63</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>65</v>
@@ -5394,7 +5391,7 @@
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5409,19 +5406,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="107" t="s">
         <v>267</v>
-      </c>
-      <c r="G5" s="107" t="s">
-        <v>268</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>205</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="25"/>
@@ -5466,22 +5463,22 @@
         <v>5</v>
       </c>
       <c r="F6" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="107" t="s">
         <v>270</v>
-      </c>
-      <c r="G6" s="107" t="s">
-        <v>271</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>77</v>
       </c>
       <c r="I6" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="K6" s="157" t="s">
         <v>273</v>
-      </c>
-      <c r="K6" s="157" t="s">
-        <v>274</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="16" t="s">
@@ -5517,16 +5514,16 @@
         <v>189</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>275</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G7" s="107" t="s">
         <v>67</v>
@@ -5535,13 +5532,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="157" t="s">
         <v>278</v>
-      </c>
-      <c r="J7" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="K7" s="157" t="s">
-        <v>279</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="16" t="s">
@@ -5585,19 +5582,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="107" t="s">
         <v>280</v>
-      </c>
-      <c r="G8" s="107" t="s">
-        <v>281</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="157"/>
       <c r="L8" s="25"/>
@@ -5640,22 +5637,22 @@
         <v>9</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>199</v>
       </c>
       <c r="I9" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="J9" s="97" t="s">
-        <v>284</v>
-      </c>
       <c r="K9" s="157" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
@@ -5667,10 +5664,10 @@
         <v>63</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>286</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="5" t="s">
@@ -5700,19 +5697,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="107" t="s">
         <v>287</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>288</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="97" t="s">
         <v>289</v>
-      </c>
-      <c r="J10" s="97" t="s">
-        <v>290</v>
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
@@ -5724,7 +5721,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
@@ -5759,7 +5756,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>67</v>
@@ -5768,10 +5765,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
@@ -5816,19 +5813,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="107" t="s">
         <v>293</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="132" t="s">
         <v>295</v>
-      </c>
-      <c r="J12" s="132" t="s">
-        <v>296</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
@@ -6042,19 +6039,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6096,19 +6093,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6148,19 +6145,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6200,19 +6197,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6252,19 +6249,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6304,19 +6301,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6354,19 +6351,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6436,23 +6433,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>300</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6461,7 +6458,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6470,19 +6467,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>306</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>307</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
@@ -6490,10 +6487,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>308</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>309</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
@@ -6501,10 +6498,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>310</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>311</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
@@ -6512,105 +6509,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>314</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="C11" s="50" t="s">
         <v>317</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>320</v>
-      </c>
       <c r="C12" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>322</v>
-      </c>
       <c r="C13" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>324</v>
-      </c>
       <c r="C14" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>326</v>
-      </c>
       <c r="C15" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="139" t="s">
         <v>327</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>330</v>
-      </c>
       <c r="C17" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
@@ -6618,26 +6615,26 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>228</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -6645,13 +6642,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B25" t="s">
         <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6683,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="130" t="s">
         <v>335</v>
-      </c>
-      <c r="C1" s="130" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6697,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6727,13 +6724,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6758,7 +6755,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6789,7 +6786,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6798,10 +6795,10 @@
         <v>189</v>
       </c>
       <c r="H5" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>275</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -6817,7 +6814,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6848,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -6879,7 +6876,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6909,7 +6906,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6940,7 +6937,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -6971,7 +6968,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6984,7 +6981,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6997,7 +6994,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7010,7 +7007,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7063,12 +7060,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -7094,7 +7091,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7111,7 +7108,7 @@
         <v>190</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="93">
         <v>2</v>
@@ -7124,7 +7121,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7138,7 +7135,7 @@
         <v>190</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="94">
         <v>4</v>
@@ -7167,7 +7164,7 @@
         <v>197</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="94">
         <v>6</v>
@@ -7194,7 +7191,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7209,7 +7206,7 @@
         <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7250,20 +7247,20 @@
         <v>208</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="94">
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7292,7 +7289,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7306,13 +7303,13 @@
         <v>208</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="94">
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7329,13 +7326,13 @@
         <v>208</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" s="95">
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2498" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABC1665-85A3-4193-87B1-B425E6344C18}"/>
+  <xr:revisionPtr revIDLastSave="2499" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B4DC84-C187-43A6-830E-50F3AEA5B7DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="351">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -728,6 +728,9 @@
     <t>One, Two, Many (or a dozen reasons why mathematics isn’t as easy as 1,2,3)</t>
   </si>
   <si>
+    <t>Are there really primitive tribes whose system of counting goes: "One, Two, Many", indicating that from three on it’s more or less a blur? Maybe we modern humans are such a tribe. Despite the sophistication we see in ourselves compared with our less advanced ancestors from times long past, it’s surprising how little progress we’ve made in addressing some basic problems in 3D or beyond, or when solving seemingly simple equations in 3 or more variables. For despite our astonishing mastery of some ABCs, such as Air (flight, weather prediction), Biology (medical breakthroughs, DNA) and Communications (phone, video, email), we often struggle to get past 1, 2, 3 in other domains. Or sometimes even to get to 3. We'll survey a dozen fun topics in shapes and numbers and patterns whose basics and generalization can be explored with little mathematical background, and which speedily lead to "what if" questions ranging from easy to tricky to "we just don't know." Coins, cakes, fruit, bagels, cubes, squares and primes will all make an appearance. The late Martin Gardner, whose writings  turned  so many  on to maths, knew all too well that such playful queries can both excite students about mathematics and lead to real research at the frontiers of the subject. There will be satisfying Aha! moments, there will be room for innovative ideas, and million dollar prizes will be discussed.</t>
+  </si>
+  <si>
     <t>9th of April</t>
   </si>
   <si>
@@ -852,6 +855,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>3pm</t>
+  </si>
+  <si>
     <t>Márton Karsai</t>
   </si>
   <si>
@@ -876,9 +882,6 @@
     <t>16th</t>
   </si>
   <si>
-    <t>3pm</t>
-  </si>
-  <si>
     <t>Nico Gray</t>
   </si>
   <si>
@@ -886,252 +889,6 @@
   </si>
   <si>
     <t>Coupling rheology and segregation in granular flows</t>
-  </si>
-  <si>
-    <t>Lisa McFetridge</t>
-  </si>
-  <si>
-    <t>Queen's University Belfast</t>
-  </si>
-  <si>
-    <t>Advances in Robust Mixed Effects Modelling</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Dingjia Cao</t>
-  </si>
-  <si>
-    <t>A wavelet lifting approach for spatial/network data</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Theresa Smith</t>
-  </si>
-  <si>
-    <t>University of Bath</t>
-  </si>
-  <si>
-    <t>Yanghong Huang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finite Difference Methods for fractional Laplacian of radial functions 
-</t>
-  </si>
-  <si>
-    <t>Numerical evaluation of nonlocal operators like the fractional Laplacian is more computationally intensive because of the dependence on the underlying function over the whole space. On the other hand, many solutions to the fractional counterparts of classical semi-linear PDEs, especially ground states obtained via variational methods, are radial. In this talk, fractional Laplacian of radial functions in general dimensions will be considered with a kernel represented by a Gauss hypergeometric function of the radial variables.  The singular part of the kernel is isolated and then treated with effective methods well studied in the one-dimensional context, while the regular part can be evaluated with by classical quadrature. The method can be extended to general non-radial functions that can be expanded using spherical harmonics, making it effective in the numerical study of fractional equations and complementing existing theoretical investigations.</t>
-  </si>
-  <si>
-    <t>4th Nov</t>
-  </si>
-  <si>
-    <t>6th Nov</t>
-  </si>
-  <si>
-    <t>Lea Kaufmann</t>
-  </si>
-  <si>
-    <t>RWTH Aachen University</t>
-  </si>
-  <si>
-    <t>Factor Selection and Levels Fusion in High-Dimensional Logistic Regression</t>
-  </si>
-  <si>
-    <t>In the last decades, high-dimensional problems in a regression-type context including a large number of explanatory variables arise in a huge variety of application fields. Specifically considering categorical explanatory variables, i.e., factors, the dummy-coding scheme introduces one (dummy) variable for each factor level, thus the dimension of the parameter space grows rapidly, even for a moderate number of factors. To simultaneously obtain the estimates of the regression coefficients and reducing the dimension of the parameter space, penalized regression is known to be a suitable tool. In this talk, I will discuss the characteristics that a penalization technique needs to fulfil to be suitable for the application to factors, as it is not only important to select those having an influence on the response variable (factor selection), but also to fuse those levels of a factor having a similar influence (levels fusion). A new penalization technique, called L0-Fused Group Lasso (L0-FGL), is introduced, tailored for the needs of factors. The quality of this new method is underlined by its theoretical properties, e.g.,  root-n-consistency and asymptotic normality, as well as by its performance in simulation studies.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Alison O'Connor</t>
-  </si>
-  <si>
-    <t>Silvia D'Angelo</t>
-  </si>
-  <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
-    <t>Clustering high-dimensional discrete data: a compressed approach</t>
-  </si>
-  <si>
-    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
-We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
-  </si>
-  <si>
-    <t>Hip Fractures Trends in Older Adults in Ireland</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=cbz4D-gAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
-In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
-References
-1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
-2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
-3. CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
-4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
-5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
   <si>
     <t>During the last fifteen years there has been a paradigm shift in the continuum modelling of granular materials; most notably with the development of rheological models, such as the  μ(I)-rheology (where μ is the friction and I is the inertial number), but also with significant advances in theories for particle segregation. This paper details theoretical and numerical frameworks (based on OpenFOAM) which unify these currently disconnected endeavours. Coupling the segregation with the flow, and vice versa, is not only vital for a complete theory of granular materials, but is also beneficial for developing numerical methods to handle evolving free surfaces. This general approach is based on the partially regularized incompressible-rheology, which is coupled to the gravity-driven segregation theory of Gray &amp; Ancey (J. Fluid Mech., vol. 678, 2011, pp. 353-588). These advection-diffusion-segregation equations describe the evolving concentrations of the constituents, which then couple back to the variable viscosity in the incompressible Navier-Stokes equations. A novel feature of this approach is that any number of differently sized phases may be included, which may have disparate frictional properties. Further inclusion of an excess air phase, which segregates away from the granular material, then allows the complex evolution of the free surface to be captured simultaneously. Three primary coupling mechanisms are identified: (i) advection of the particle concentrations by the bulk velocity, (ii) feedback of the particle-size and/or frictional properties on the bulk flow field and (iii) influence of the shear rate, pressure, gravity, particle size and particle-size ratio on the locally evolving segregation and diffusion rates. The numerical method is extensively tested in one-way coupled computations, before the fully coupled model is compared with the discrete element method simulations of Tripathi &amp; Khakhar (Phys. Fluids, vol. 23, 2011, 113302) and used to compute the petal-like segregation pattern that spontaneously develops in a square and triangular rotating drums.
@@ -1147,7 +904,253 @@
 T. Barker &amp; J. M. N. T. Gray (2017) J. Fluid Mech. 828, 5--32.   (movies)</t>
   </si>
   <si>
-    <t>Are there really primitive tribes whose system of counting goes: "One, Two, Many", indicating that from three on it’s more or less a blur? Maybe we modern humans are such a tribe. Despite the sophistication we see in ourselves compared with our less advanced ancestors from times long past, it’s surprising how little progress we’ve made in addressing some basic problems in 3D or beyond, or when solving seemingly simple equations in 3 or more variables. For despite our astonishing mastery of some ABCs, such as Air (flight, weather prediction), Biology (medical breakthroughs, DNA) and Communications (phone, video, email), we often struggle to get past 1, 2, 3 in other domains. Or sometimes even to get to 3. We'll survey a dozen fun topics in shapes and numbers and patterns whose basics and generalization can be explored with little mathematical background, and which speedily lead to "what if" questions ranging from easy to tricky to "we just don't know." Coins, cakes, fruit, bagels, cubes, squares and primes will all make an appearance. The late Martin Gardner, whose writings  turned  so many  on to maths, knew all too well that such playful queries can both excite students about mathematics and lead to real research at the frontiers of the subject. There will be satisfying Aha! moments, there will be room for innovative ideas, and million dollar prizes will be discussed.</t>
+    <t>Lisa McFetridge</t>
+  </si>
+  <si>
+    <t>Queen's University Belfast</t>
+  </si>
+  <si>
+    <t>Advances in Robust Mixed Effects Modelling</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Dingjia Cao</t>
+  </si>
+  <si>
+    <t>A wavelet lifting approach for spatial/network data</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Theresa Smith</t>
+  </si>
+  <si>
+    <t>University of Bath</t>
+  </si>
+  <si>
+    <t>Multi-output gaussian process models for pollution in river networks</t>
+  </si>
+  <si>
+    <t>Yanghong Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite Difference Methods for fractional Laplacian of radial functions 
+</t>
+  </si>
+  <si>
+    <t>Numerical evaluation of nonlocal operators like the fractional Laplacian is more computationally intensive because of the dependence on the underlying function over the whole space. On the other hand, many solutions to the fractional counterparts of classical semi-linear PDEs, especially ground states obtained via variational methods, are radial. In this talk, fractional Laplacian of radial functions in general dimensions will be considered with a kernel represented by a Gauss hypergeometric function of the radial variables.  The singular part of the kernel is isolated and then treated with effective methods well studied in the one-dimensional context, while the regular part can be evaluated with by classical quadrature. The method can be extended to general non-radial functions that can be expanded using spherical harmonics, making it effective in the numerical study of fractional equations and complementing existing theoretical investigations.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=cbz4D-gAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>4th Nov</t>
+  </si>
+  <si>
+    <t>6th Nov</t>
+  </si>
+  <si>
+    <t>Lea Kaufmann</t>
+  </si>
+  <si>
+    <t>RWTH Aachen University</t>
+  </si>
+  <si>
+    <t>Factor Selection and Levels Fusion in High-Dimensional Logistic Regression</t>
+  </si>
+  <si>
+    <t>In the last decades, high-dimensional problems in a regression-type context including a large number of explanatory variables arise in a huge variety of application fields. Specifically considering categorical explanatory variables, i.e., factors, the dummy-coding scheme introduces one (dummy) variable for each factor level, thus the dimension of the parameter space grows rapidly, even for a moderate number of factors. To simultaneously obtain the estimates of the regression coefficients and reducing the dimension of the parameter space, penalized regression is known to be a suitable tool. In this talk, I will discuss the characteristics that a penalization technique needs to fulfil to be suitable for the application to factors, as it is not only important to select those having an influence on the response variable (factor selection), but also to fuse those levels of a factor having a similar influence (levels fusion). A new penalization technique, called L0-Fused Group Lasso (L0-FGL), is introduced, tailored for the needs of factors. The quality of this new method is underlined by its theoretical properties, e.g.,  root-n-consistency and asymptotic normality, as well as by its performance in simulation studies.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Alison O'Connor</t>
+  </si>
+  <si>
+    <t>Hip Fractures Trends in Older Adults in Ireland</t>
+  </si>
+  <si>
+    <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
+In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
+References
+1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
+2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
+3. CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
+4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
+5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
+  </si>
+  <si>
+    <t>Silvia D'Angelo</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>Clustering high-dimensional discrete data: a compressed approach</t>
+  </si>
+  <si>
+    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
+We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,9 +1971,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2008,7 +2011,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2114,7 +2117,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2256,7 +2259,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2270,7 +2273,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2295,7 +2298,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2446,7 +2449,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2508,7 +2511,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2568,7 +2571,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2820,7 +2823,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2888,7 +2891,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3010,7 +3013,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3078,7 +3081,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3138,7 +3141,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3268,7 +3271,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3338,7 +3341,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3388,7 +3391,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3438,7 +3441,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3484,7 +3487,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3509,7 +3512,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3658,7 +3661,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3706,7 +3709,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3754,7 +3757,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3802,7 +3805,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3850,7 +3853,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3898,7 +3901,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3994,7 +3997,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4042,7 +4045,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4098,20 +4101,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4123,59 +4126,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4208,7 +4211,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4236,7 +4239,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4372,7 +4375,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4484,7 +4487,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4539,7 +4542,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4592,7 +4595,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>217</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
@@ -4636,10 +4639,10 @@
         <v>146</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="5" t="s">
@@ -4650,7 +4653,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4668,19 +4671,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I9" s="115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="5"/>
@@ -4695,10 +4698,10 @@
         <v>146</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>43</v>
@@ -4711,7 +4714,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4729,19 +4732,19 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H10" s="109" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J10" s="98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="48"/>
@@ -4764,7 +4767,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4782,19 +4785,19 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I11" s="117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
@@ -4823,7 +4826,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>76</v>
@@ -4851,10 +4854,10 @@
         <v>123</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
@@ -4883,7 +4886,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>76</v>
@@ -4911,10 +4914,10 @@
         <v>100</v>
       </c>
       <c r="I13" s="114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J13" s="98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
@@ -4935,7 +4938,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -4954,19 +4957,19 @@
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H14" s="111" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
@@ -4981,7 +4984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
         <v>151</v>
@@ -5009,107 +5012,107 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J15" s="129" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5139,12 +5142,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5171,7 +5174,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>45911</v>
       </c>
@@ -5275,25 +5278,25 @@
         <v>1</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K3" s="156" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>34</v>
@@ -5305,7 +5308,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="38"/>
@@ -5318,12 +5321,12 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="75">
         <v>45917</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>TEXT(A4, "mmm")</f>
@@ -5337,25 +5340,25 @@
         <v>2</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K4" s="156" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>43</v>
@@ -5370,7 +5373,7 @@
         <v>63</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>65</v>
@@ -5386,12 +5389,12 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1">
       <c r="A5" s="75">
         <v>45926</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5406,19 +5409,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>205</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="25"/>
@@ -5430,7 +5433,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="16"/>
@@ -5443,7 +5446,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1">
       <c r="A6" s="75">
         <v>45939</v>
       </c>
@@ -5463,22 +5466,22 @@
         <v>5</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>77</v>
       </c>
       <c r="I6" s="96" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K6" s="157" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="16" t="s">
@@ -5506,7 +5509,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="75">
         <v>45946</v>
       </c>
@@ -5514,16 +5517,16 @@
         <v>189</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G7" s="107" t="s">
         <v>67</v>
@@ -5532,13 +5535,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K7" s="157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="16" t="s">
@@ -5549,7 +5552,7 @@
         <v>34</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="16"/>
@@ -5562,7 +5565,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="75">
         <v>45953</v>
       </c>
@@ -5582,19 +5585,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K8" s="157"/>
       <c r="L8" s="25"/>
@@ -5617,7 +5620,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1">
       <c r="A9" s="75">
         <v>45967</v>
       </c>
@@ -5637,22 +5640,22 @@
         <v>9</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>199</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K9" s="157" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
@@ -5664,10 +5667,10 @@
         <v>63</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="5" t="s">
@@ -5678,7 +5681,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="A10" s="75">
         <v>45974</v>
       </c>
@@ -5697,19 +5700,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
@@ -5721,7 +5724,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
@@ -5736,7 +5739,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="75">
         <v>45981</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>67</v>
@@ -5765,10 +5768,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
@@ -5780,7 +5783,7 @@
         <v>34</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="16"/>
@@ -5793,7 +5796,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1">
       <c r="A12" s="75">
         <v>45995</v>
       </c>
@@ -5813,19 +5816,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
@@ -5852,35 +5855,35 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
@@ -5908,7 +5911,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5935,7 +5938,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6039,19 +6042,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6072,7 +6075,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6093,19 +6096,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6124,7 +6127,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -6145,19 +6148,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6176,7 +6179,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="2"/>
         <v>46093</v>
@@ -6197,19 +6200,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6228,7 +6231,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6249,19 +6252,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6280,7 +6283,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6301,19 +6304,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6330,7 +6333,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6351,19 +6354,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6382,24 +6385,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6424,231 +6427,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="139" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>312</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>306</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6669,24 +6672,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6714,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -6724,13 +6727,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6745,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6755,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6776,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6786,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6795,16 +6798,16 @@
         <v>189</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6814,7 +6817,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6835,7 +6838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6845,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -6866,7 +6869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6876,7 +6879,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6896,7 +6899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6906,7 +6909,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6927,7 +6930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6937,7 +6940,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -6958,7 +6961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6968,10 +6971,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6981,10 +6984,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -6994,10 +6997,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7007,15 +7010,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7046,7 +7049,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7058,17 +7061,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7091,13 +7094,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>190</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E6" s="93">
         <v>2</v>
@@ -7121,10 +7124,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>190</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E7" s="94">
         <v>4</v>
@@ -7153,7 +7156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>197</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E8" s="94">
         <v>6</v>
@@ -7180,7 +7183,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7206,10 +7209,10 @@
         <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7226,17 +7229,17 @@
         <v>9</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7247,23 +7250,23 @@
         <v>208</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E11" s="94">
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G12" s="87" t="s">
         <v>171</v>
@@ -7289,10 +7292,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7303,19 +7306,19 @@
         <v>208</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E13" s="94">
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7326,13 +7329,13 @@
         <v>208</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E14" s="95">
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>
@@ -7341,10 +7344,10 @@
         <v>123</v>
       </c>
       <c r="I14" s="89" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2499" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B4DC84-C187-43A6-830E-50F3AEA5B7DE}"/>
+  <xr:revisionPtr revIDLastSave="2502" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462168E1-F0EC-4305-A466-926D38CA642F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="352">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1152,6 +1152,9 @@
   <si>
     <t>Leornard Henckel</t>
   </si>
+  <si>
+    <t>Leah Keating</t>
+  </si>
 </sst>
 </file>
 
@@ -1160,7 +1163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1971,9 +1974,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2011,7 +2014,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2117,7 +2120,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2259,7 +2262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2273,7 +2276,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2298,7 +2301,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2449,7 +2452,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2511,7 +2514,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2571,7 +2574,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2637,7 +2640,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" customHeight="1">
+    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2823,7 +2826,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2891,7 +2894,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2951,7 +2954,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3013,7 +3016,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3081,7 +3084,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3141,7 +3144,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3209,7 +3212,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3271,7 +3274,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3391,7 +3394,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3441,7 +3444,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3487,7 +3490,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3512,7 +3515,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3661,7 +3664,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3709,7 +3712,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3757,7 +3760,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3805,7 +3808,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3853,7 +3856,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3901,7 +3904,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3949,7 +3952,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -3997,7 +4000,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4045,7 +4048,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4101,20 +4104,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4126,59 +4129,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4211,7 +4214,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4239,7 +4242,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4375,7 +4378,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4432,7 +4435,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4487,7 +4490,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4542,7 +4545,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4595,7 +4598,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4653,7 +4656,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4714,7 +4717,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4767,7 +4770,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4826,7 +4829,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4886,7 +4889,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4938,7 +4941,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5018,101 +5021,101 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5140,14 +5143,14 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5174,7 +5177,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>45911</v>
       </c>
@@ -5321,7 +5324,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <v>45917</v>
       </c>
@@ -5389,7 +5392,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <v>45926</v>
       </c>
@@ -5446,7 +5449,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <v>45939</v>
       </c>
@@ -5509,7 +5512,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>45946</v>
       </c>
@@ -5565,7 +5568,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>45953</v>
       </c>
@@ -5620,7 +5623,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45967</v>
       </c>
@@ -5681,7 +5684,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45974</v>
       </c>
@@ -5739,7 +5742,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <v>45981</v>
       </c>
@@ -5796,7 +5799,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75">
         <v>45995</v>
       </c>
@@ -5855,35 +5858,35 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1"/>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
@@ -5907,11 +5910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5938,7 +5941,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6075,7 +6078,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6127,7 +6130,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -6179,7 +6182,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <f t="shared" si="2"/>
         <v>46093</v>
@@ -6200,13 +6203,13 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>274</v>
+        <v>94</v>
       </c>
       <c r="I6" s="98" t="s">
         <v>274</v>
@@ -6231,7 +6234,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6283,7 +6286,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6333,7 +6336,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6385,24 +6388,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6427,19 +6430,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>304</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
         <v>307</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>308</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>309</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>311</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>313</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>315</v>
       </c>
@@ -6510,14 +6513,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>317</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>318</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>321</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>324</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>326</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>328</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>330</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
         <v>298</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>334</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>336</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>337</v>
       </c>
@@ -6627,12 +6630,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>336</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -6672,13 +6675,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -6748,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6779,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6807,7 +6810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6838,7 +6841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6869,7 +6872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6899,7 +6902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6930,7 +6933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6961,7 +6964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6974,7 +6977,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -6987,7 +6990,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7000,7 +7003,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7013,12 +7016,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7049,7 +7052,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7061,17 +7064,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7100,7 +7103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7183,7 +7186,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7239,7 +7242,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7318,7 +7321,7 @@
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2502" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462168E1-F0EC-4305-A466-926D38CA642F}"/>
+  <xr:revisionPtr revIDLastSave="2504" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47DB9D0A-C8E5-43F4-BC6D-4FC767E12EED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="353">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1009,6 +1009,9 @@
     <t>Open</t>
   </si>
   <si>
+    <t>Leah Keating</t>
+  </si>
+  <si>
     <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
   </si>
   <si>
@@ -1153,7 +1156,10 @@
     <t>Leornard Henckel</t>
   </si>
   <si>
-    <t>Leah Keating</t>
+    <t>Over the past few decades, rapid technological innovation has revolutionised data collection, in particular in medicine where wearable devices are now regularly used to continuously track individual health metrics. This explosion of longitudinal data presents both opportunities and challenges for statistical modelling.
+Mixed effects models have become a cornerstone for analysing repeated measurements over time. Yet, their widespread use rests on a critical assumption – that random effects and error terms follow a normal distribution. Previous research has shown that when longitudinal outliers are present, these assumptions can lead to biased estimates and imprecise variance components, undermining the reliability of clinical insights. 
+To address this, robust modelling techniques have emerged that replace normality assumptions with t-distributed random terms. These models adaptively estimate degrees of freedom from the data itself, automatically reverting to normality when appropriate, providing flexibility without loss of precision or increase in bias. The utility of such models has been demonstrated across diverse applications, from predicting ICU patient risk, to cardiac monitoring and anomaly detection in elite athletes. Crucially, individuals flagged as longitudinal outliers often exhibit significantly poorer survival or risk profiles, underscoring the clinical importance of identifying and modelling such cases accurately.
+In this talk, we’ll explore cutting-edge advancements in robust mixed effects modelling, showcasing their potential in health monitoring and precision medicine.</t>
   </si>
 </sst>
 </file>
@@ -5143,11 +5149,11 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5487,7 @@
         <v>273</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="K6" s="157" t="s">
         <v>275</v>
@@ -5910,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6184,7 +6190,7 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
-        <f t="shared" si="2"/>
+        <f>A5+14</f>
         <v>46093</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6203,7 +6209,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>151</v>
@@ -6439,23 +6445,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6464,7 +6470,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6473,19 +6479,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
@@ -6493,10 +6499,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
@@ -6504,10 +6510,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
@@ -6515,75 +6521,75 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>324</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6591,29 +6597,29 @@
         <v>298</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>334</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
@@ -6621,26 +6627,26 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -6648,13 +6654,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
         <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6686,10 +6692,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6700,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6730,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -6761,7 +6767,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6792,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6820,7 +6826,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6882,7 +6888,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6912,7 +6918,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6943,7 +6949,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -6974,7 +6980,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6987,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7013,7 +7019,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7066,12 +7072,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -7097,7 +7103,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7197,7 +7203,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7259,7 +7265,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
@@ -7315,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7338,7 +7344,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2504" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47DB9D0A-C8E5-43F4-BC6D-4FC767E12EED}"/>
+  <xr:revisionPtr revIDLastSave="2508" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE9EA38-2D4B-4B9F-815F-61388D0897A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="355">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -913,24 +913,30 @@
     <t>Advances in Robust Mixed Effects Modelling</t>
   </si>
   <si>
+    <t>Over the past few decades, rapid technological innovation has revolutionised data collection, in particular in medicine where wearable devices are now regularly used to continuously track individual health metrics. This explosion of longitudinal data presents both opportunities and challenges for statistical modelling.
+Mixed effects models have become a cornerstone for analysing repeated measurements over time. Yet, their widespread use rests on a critical assumption – that random effects and error terms follow a normal distribution. Previous research has shown that when longitudinal outliers are present, these assumptions can lead to biased estimates and imprecise variance components, undermining the reliability of clinical insights. 
+To address this, robust modelling techniques have emerged that replace normality assumptions with t-distributed random terms. These models adaptively estimate degrees of freedom from the data itself, automatically reverting to normality when appropriate, providing flexibility without loss of precision or increase in bias. The utility of such models has been demonstrated across diverse applications, from predicting ICU patient risk, to cardiac monitoring and anomaly detection in elite athletes. Crucially, individuals flagged as longitudinal outliers often exhibit significantly poorer survival or risk profiles, underscoring the clinical importance of identifying and modelling such cases accurately.
+In this talk, we’ll explore cutting-edge advancements in robust mixed effects modelling, showcasing their potential in health monitoring and precision medicine.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Dingjia Cao</t>
+  </si>
+  <si>
+    <t>A wavelet lifting approach for spatial/network data</t>
+  </si>
+  <si>
     <t>TBC</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?user=j2CypRIAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Dingjia Cao</t>
-  </si>
-  <si>
-    <t>A wavelet lifting approach for spatial/network data</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -941,6 +947,9 @@
   </si>
   <si>
     <t>Multi-output gaussian process models for pollution in river networks</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=pglQgmQAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>Yanghong Huang</t>
@@ -1156,10 +1165,9 @@
     <t>Leornard Henckel</t>
   </si>
   <si>
-    <t>Over the past few decades, rapid technological innovation has revolutionised data collection, in particular in medicine where wearable devices are now regularly used to continuously track individual health metrics. This explosion of longitudinal data presents both opportunities and challenges for statistical modelling.
-Mixed effects models have become a cornerstone for analysing repeated measurements over time. Yet, their widespread use rests on a critical assumption – that random effects and error terms follow a normal distribution. Previous research has shown that when longitudinal outliers are present, these assumptions can lead to biased estimates and imprecise variance components, undermining the reliability of clinical insights. 
-To address this, robust modelling techniques have emerged that replace normality assumptions with t-distributed random terms. These models adaptively estimate degrees of freedom from the data itself, automatically reverting to normality when appropriate, providing flexibility without loss of precision or increase in bias. The utility of such models has been demonstrated across diverse applications, from predicting ICU patient risk, to cardiac monitoring and anomaly detection in elite athletes. Crucially, individuals flagged as longitudinal outliers often exhibit significantly poorer survival or risk profiles, underscoring the clinical importance of identifying and modelling such cases accurately.
-In this talk, we’ll explore cutting-edge advancements in robust mixed effects modelling, showcasing their potential in health monitoring and precision medicine.</t>
+    <t>As an emerging research area, analysing functions that arise from network (graph) structures attracts researchers in both statistics and signal processing communities. Data collected over graphs can be modelled as noisy observations of an unknown function over the vertices of a graph structure, fully described by its vertices and their connections, the edges.
+While current literature is rich when data are collected from the graph vertex space, the data collected from graph edges call for new techniques, and in its turn reaches across many application fields, from traffic networks to neuroscience and hydrology. Wavelets can be powerful tools for understanding the behaviour of the underlying (edge) functions due to their computational efficiency and robust performance in the presence of discontinuities.
+In this talk, we will begin by tracing the ‘evolution’ of wavelet methods, from classical wavelets to second-generation wavelets (constructed via the lifting scheme), and then to a variant that allows us to handle a broader class of data (such as spatial data). We will then move on to construct some new wavelet bases that can represent and perform nonparametric regression for functions defined on both the vertex and edge sets of graphs.</t>
   </si>
 </sst>
 </file>
@@ -5150,7 +5158,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="16" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
@@ -5487,7 +5495,7 @@
         <v>273</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="K6" s="157" t="s">
         <v>275</v>
@@ -5547,10 +5555,10 @@
         <v>279</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="K7" s="157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="16" t="s">
@@ -5594,21 +5602,23 @@
         <v>7</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="K8" s="157"/>
+        <v>280</v>
+      </c>
+      <c r="K8" s="157" t="s">
+        <v>285</v>
+      </c>
       <c r="L8" s="25"/>
       <c r="M8" s="16" t="s">
         <v>43</v>
@@ -5649,7 +5659,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G9" s="107" t="s">
         <v>268</v>
@@ -5658,13 +5668,13 @@
         <v>199</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K9" s="157" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
@@ -5676,10 +5686,10 @@
         <v>63</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="5" t="s">
@@ -5709,19 +5719,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
@@ -5733,7 +5743,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
@@ -5768,7 +5778,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>67</v>
@@ -5777,10 +5787,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
@@ -5825,19 +5835,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
@@ -5907,6 +5917,7 @@
     <hyperlink ref="K6" r:id="rId3" xr:uid="{B9C6041F-ED68-4E30-9696-976A7A7C59D6}"/>
     <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
     <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{5670CBAB-0F26-4CE3-B15B-6D1F054D4FCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5917,7 +5928,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,19 +6062,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6105,19 +6116,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6157,19 +6168,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6209,7 +6220,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>151</v>
@@ -6218,10 +6229,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6261,19 +6272,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6313,19 +6324,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6363,19 +6374,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6445,23 +6456,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6470,7 +6481,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6479,19 +6490,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
@@ -6499,10 +6510,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
@@ -6510,10 +6521,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
@@ -6521,105 +6532,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B12" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>326</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B17" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>336</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
@@ -6627,26 +6638,26 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
@@ -6654,13 +6665,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
         <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6692,10 +6703,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6706,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6736,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -6767,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6798,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6826,7 +6837,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6857,7 +6868,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -6888,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6918,7 +6929,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6949,7 +6960,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -6980,7 +6991,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6993,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7006,7 +7017,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7019,7 +7030,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7072,12 +7083,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -7103,7 +7114,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7133,7 +7144,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7203,7 +7214,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7218,7 +7229,7 @@
         <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7265,14 +7276,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7301,7 +7312,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -7321,7 +7332,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7344,7 +7355,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2508" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE9EA38-2D4B-4B9F-815F-61388D0897A5}"/>
+  <xr:revisionPtr revIDLastSave="2509" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F863A8-13BB-4AFE-876B-C95D2F685A72}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -5161,7 +5161,7 @@
       <pane xSplit="7" ySplit="16" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5531,7 +5531,7 @@
         <v>45946</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>276</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2509" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F863A8-13BB-4AFE-876B-C95D2F685A72}"/>
+  <xr:revisionPtr revIDLastSave="2510" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AFFD790-BAC8-4A5A-BFEF-0823DB0A523E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="356">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -934,7 +934,9 @@
     <t>A wavelet lifting approach for spatial/network data</t>
   </si>
   <si>
-    <t>TBC</t>
+    <t>As an emerging research area, analysing functions that arise from network (graph) structures attracts researchers in both statistics and signal processing communities. Data collected over graphs can be modelled as noisy observations of an unknown function over the vertices of a graph structure, fully described by its vertices and their connections, the edges.
+While current literature is rich when data are collected from the graph vertex space, the data collected from graph edges call for new techniques, and in its turn reaches across many application fields, from traffic networks to neuroscience and hydrology. Wavelets can be powerful tools for understanding the behaviour of the underlying (edge) functions due to their computational efficiency and robust performance in the presence of discontinuities.
+In this talk, we will begin by tracing the ‘evolution’ of wavelet methods, from classical wavelets to second-generation wavelets (constructed via the lifting scheme), and then to a variant that allows us to handle a broader class of data (such as spatial data). We will then move on to construct some new wavelet bases that can represent and perform nonparametric regression for functions defined on both the vertex and edge sets of graphs.</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=paf72YcAAAAJ&amp;hl=en</t>
@@ -947,6 +949,9 @@
   </si>
   <si>
     <t>Multi-output gaussian process models for pollution in river networks</t>
+  </si>
+  <si>
+    <t>The impact of human activity on the quality of surface waters, particularly rivers, has recently received considerable attention. Statistical models aimed at characterizing the spatiotemporal distribution of biological and chemical indicators across river networks must address several unique challenges not typically encountered in standard spatial modelling. In this seminar, I will present a class of spatiotemporal models designed for multivariate data sampled on river networks. These models build upon the framework introduced by Ver Hoef et al. (2006), which replaces traditional Euclidean distances with stream distance metrics to better represent spatial relationships in river systems. We extend this approach to incorporate temporal dynamics and multivariate dependencies, while also addressing practical aspects of water quality monitoring such as censoring limits and intermittent sampling. Finally, I will introduce a variational inference framework for fitting these models efficiently and share results from simulation experiments comparing our proposed approach with more conventional Gaussian Process models.</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=pglQgmQAAAAJ&amp;hl=en</t>
@@ -1018,6 +1023,9 @@
     <t>Open</t>
   </si>
   <si>
+    <t>TBC</t>
+  </si>
+  <si>
     <t>Leah Keating</t>
   </si>
   <si>
@@ -1163,11 +1171,6 @@
   </si>
   <si>
     <t>Leornard Henckel</t>
-  </si>
-  <si>
-    <t>As an emerging research area, analysing functions that arise from network (graph) structures attracts researchers in both statistics and signal processing communities. Data collected over graphs can be modelled as noisy observations of an unknown function over the vertices of a graph structure, fully described by its vertices and their connections, the edges.
-While current literature is rich when data are collected from the graph vertex space, the data collected from graph edges call for new techniques, and in its turn reaches across many application fields, from traffic networks to neuroscience and hydrology. Wavelets can be powerful tools for understanding the behaviour of the underlying (edge) functions due to their computational efficiency and robust performance in the presence of discontinuities.
-In this talk, we will begin by tracing the ‘evolution’ of wavelet methods, from classical wavelets to second-generation wavelets (constructed via the lifting scheme), and then to a variant that allows us to handle a broader class of data (such as spatial data). We will then move on to construct some new wavelet bases that can represent and perform nonparametric regression for functions defined on both the vertex and edge sets of graphs.</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1988,9 +1991,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2028,7 +2031,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2134,7 +2137,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2276,7 +2279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,7 +2293,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2315,7 +2318,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2466,7 +2469,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2528,7 +2531,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2588,7 +2591,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2654,7 +2657,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2840,7 +2843,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2908,7 +2911,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2968,7 +2971,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3030,7 +3033,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3098,7 +3101,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3158,7 +3161,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3226,7 +3229,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3288,7 +3291,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3358,7 +3361,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3408,7 +3411,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3458,7 +3461,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3504,7 +3507,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3529,7 +3532,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3678,7 +3681,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3726,7 +3729,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3774,7 +3777,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3822,7 +3825,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3870,7 +3873,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3918,7 +3921,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3966,7 +3969,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4014,7 +4017,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4062,7 +4065,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4118,20 +4121,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4143,59 +4146,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4228,7 +4231,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4256,7 +4259,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4392,7 +4395,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4449,7 +4452,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4504,7 +4507,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4612,7 +4615,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4670,7 +4673,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4731,7 +4734,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4843,7 +4846,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4903,7 +4906,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4955,7 +4958,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5035,101 +5038,101 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5159,12 +5162,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="16" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5191,7 +5194,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>45911</v>
       </c>
@@ -5338,7 +5341,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="75">
         <v>45917</v>
       </c>
@@ -5406,7 +5409,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1">
       <c r="A5" s="75">
         <v>45926</v>
       </c>
@@ -5463,7 +5466,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1">
       <c r="A6" s="75">
         <v>45939</v>
       </c>
@@ -5526,7 +5529,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="75">
         <v>45946</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>279</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="K7" s="157" t="s">
         <v>281</v>
@@ -5582,7 +5585,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="75">
         <v>45953</v>
       </c>
@@ -5614,10 +5617,10 @@
         <v>284</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K8" s="157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="16" t="s">
@@ -5639,7 +5642,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1">
       <c r="A9" s="75">
         <v>45967</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G9" s="107" t="s">
         <v>268</v>
@@ -5668,13 +5671,13 @@
         <v>199</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K9" s="157" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
@@ -5686,10 +5689,10 @@
         <v>63</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="5" t="s">
@@ -5700,7 +5703,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="A10" s="75">
         <v>45974</v>
       </c>
@@ -5719,19 +5722,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K10" s="157"/>
       <c r="L10" s="25"/>
@@ -5743,7 +5746,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="16"/>
@@ -5758,7 +5761,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="75">
         <v>45981</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>67</v>
@@ -5787,10 +5790,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K11" s="107"/>
       <c r="L11" s="25"/>
@@ -5815,7 +5818,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1">
       <c r="A12" s="75">
         <v>45995</v>
       </c>
@@ -5835,19 +5838,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="25"/>
@@ -5874,35 +5877,35 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="W13" s="20"/>
       <c r="X13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
@@ -5931,7 +5934,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5958,7 +5961,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6062,19 +6065,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6095,7 +6098,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6116,19 +6119,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6147,7 +6150,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -6168,19 +6171,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6199,7 +6202,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6220,7 +6223,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>151</v>
@@ -6229,10 +6232,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6251,7 +6254,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6272,19 +6275,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6303,7 +6306,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6324,19 +6327,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6353,7 +6356,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6374,19 +6377,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6405,24 +6408,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6447,231 +6450,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B12" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B17" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>339</v>
-      </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
         <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6692,24 +6695,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6737,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -6747,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -6768,7 +6771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6778,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6799,7 +6802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6809,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6827,7 +6830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6837,7 +6840,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6858,7 +6861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6868,7 +6871,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -6889,7 +6892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6899,7 +6902,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6919,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6929,7 +6932,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6950,7 +6953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6960,7 +6963,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -6981,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -6991,10 +6994,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7004,10 +7007,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7017,10 +7020,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7030,15 +7033,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7069,7 +7072,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7081,17 +7084,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7114,13 +7117,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7144,10 +7147,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7203,7 +7206,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7229,10 +7232,10 @@
         <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7259,7 +7262,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7276,17 +7279,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7312,10 +7315,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7332,13 +7335,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7355,7 +7358,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>
@@ -7367,7 +7370,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2510" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AFFD790-BAC8-4A5A-BFEF-0823DB0A523E}"/>
+  <xr:revisionPtr revIDLastSave="2516" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B279B904-E8F0-4D7F-B47D-C3C88C402667}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="356">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -5158,11 +5158,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <pane xSplit="7" ySplit="17" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -5763,56 +5763,28 @@
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="75">
-        <v>45981</v>
+        <v>45978</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="26" t="str">
-        <f>TEXT(A11, "mmm")</f>
-        <v>Nov</v>
-      </c>
-      <c r="D11" s="27" t="str">
-        <f>TEXT(A11, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E11">
-        <f>E9+2</f>
-        <v>11</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="97" t="s">
-        <v>299</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="K11" s="107"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="157"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="M11" s="16"/>
       <c r="N11" s="35"/>
-      <c r="O11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="16"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="15"/>
@@ -5820,55 +5792,53 @@
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1">
       <c r="A12" s="75">
-        <v>45995</v>
+        <v>45981</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="26" t="str">
         <f>TEXT(A12, "mmm")</f>
-        <v>Dec</v>
+        <v>Nov</v>
       </c>
       <c r="D12" s="27" t="str">
         <f>TEXT(A12, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="2">E11+2</f>
-        <v>13</v>
+        <f>E9+2</f>
+        <v>11</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>303</v>
-      </c>
-      <c r="J12" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="K12" s="157"/>
+        <v>299</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="107"/>
       <c r="L12" s="25"/>
       <c r="M12" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="S12" s="35"/>
       <c r="T12" s="5" t="s">
         <v>70</v>
       </c>
@@ -5878,16 +5848,70 @@
       <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="18"/>
+      <c r="A13" s="75">
+        <v>45995</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>TEXT(A13, "mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="D13" s="27" t="str">
+        <f>TEXT(A13, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="2">E12+2</f>
+        <v>13</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="J13" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="157"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1">
       <c r="A15" s="26"/>
@@ -5899,20 +5923,25 @@
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1"/>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1"/>
+    <row r="19" spans="1:3" ht="15" customHeight="1"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E16" name="Range3_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E17" name="Range3_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:X2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S12" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7_1"/>
-    <protectedRange sqref="W13:X13 F3:X12" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S13" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N13" name="Range7_1"/>
+    <protectedRange sqref="W14:X14 F3:X13" name="Range8_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David.OSullivan\OneDrive - University of Limerick\Academic_work\_Misc\MACSI_Seminars\macsi-seminars.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2516" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B279B904-E8F0-4D7F-B47D-C3C88C402667}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="361">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -991,6 +991,22 @@
     <t>5</t>
   </si>
   <si>
+    <t>Hugo Luiz Oliveira</t>
+  </si>
+  <si>
+    <t>University of Campinas (Unicamp), Brazil</t>
+  </si>
+  <si>
+    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
+</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
+  </si>
+  <si>
     <t>Alison O'Connor</t>
   </si>
   <si>
@@ -1180,7 +1196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1991,9 +2007,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2031,7 +2047,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2137,7 +2153,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2279,7 +2295,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2293,7 +2309,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2318,7 +2334,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2403,7 +2419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2469,7 +2485,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2531,7 +2547,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2591,7 +2607,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2657,7 +2673,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2725,7 +2741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2791,7 +2807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" customHeight="1">
+    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2843,7 +2859,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -2911,7 +2927,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -2971,7 +2987,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3033,7 +3049,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1">
+    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3101,7 +3117,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3161,7 +3177,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3229,7 +3245,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3291,7 +3307,7 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3361,7 +3377,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3411,7 +3427,7 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3461,7 +3477,7 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3507,7 +3523,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3532,7 +3548,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3617,7 +3633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3681,7 +3697,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3729,7 +3745,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3777,7 +3793,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3825,7 +3841,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3873,7 +3889,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -3921,7 +3937,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -3969,7 +3985,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4017,7 +4033,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4065,7 +4081,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4121,20 +4137,20 @@
       <c r="W12" s="20"/>
       <c r="X12" s="18"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4146,59 +4162,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4231,7 +4247,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4259,7 +4275,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4270,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4344,7 +4360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4395,7 +4411,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4452,7 +4468,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4507,7 +4523,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1">
+    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4562,7 +4578,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4615,7 +4631,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1">
+    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4673,7 +4689,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4734,7 +4750,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4787,7 +4803,7 @@
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4846,7 +4862,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -4906,7 +4922,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -4958,7 +4974,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5004,7 +5020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5038,101 +5054,101 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5161,13 +5177,13 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="17" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <pane xSplit="7" ySplit="17" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5194,7 +5210,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5205,7 +5221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -5279,7 +5295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>45911</v>
       </c>
@@ -5341,7 +5357,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <v>45917</v>
       </c>
@@ -5409,7 +5425,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <v>45926</v>
       </c>
@@ -5466,7 +5482,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <v>45939</v>
       </c>
@@ -5529,7 +5545,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>45946</v>
       </c>
@@ -5585,7 +5601,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>45953</v>
       </c>
@@ -5593,11 +5609,11 @@
         <v>189</v>
       </c>
       <c r="C8" s="26" t="str">
-        <f>TEXT(A8, "mmm")</f>
+        <f t="shared" ref="C8:C13" si="2">TEXT(A8, "mmm")</f>
         <v>Oct</v>
       </c>
       <c r="D8" s="27" t="str">
-        <f>TEXT(A8, "dddd")</f>
+        <f t="shared" ref="D8:D13" si="3">TEXT(A8, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E8">
@@ -5642,7 +5658,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45967</v>
       </c>
@@ -5650,11 +5666,11 @@
         <v>189</v>
       </c>
       <c r="C9" s="26" t="str">
-        <f>TEXT(A9, "mmm")</f>
+        <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
       <c r="D9" s="27" t="str">
-        <f>TEXT(A9, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E9">
@@ -5703,7 +5719,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45974</v>
       </c>
@@ -5711,11 +5727,11 @@
         <v>189</v>
       </c>
       <c r="C10" s="26" t="str">
-        <f>TEXT(A10, "mmm")</f>
+        <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
       <c r="D10" s="27" t="str">
-        <f>TEXT(A10, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E10">
@@ -5761,25 +5777,50 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <v>45978</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="157"/>
+        <v>258</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov</v>
+      </c>
+      <c r="D11" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>Monday</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="J11" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="K11" s="157" t="s">
+        <v>302</v>
+      </c>
       <c r="L11" s="25"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="N11" s="35"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="16"/>
@@ -5790,7 +5831,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75">
         <v>45981</v>
       </c>
@@ -5798,11 +5839,11 @@
         <v>189</v>
       </c>
       <c r="C12" s="26" t="str">
-        <f>TEXT(A12, "mmm")</f>
+        <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
       <c r="D12" s="27" t="str">
-        <f>TEXT(A12, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E12">
@@ -5810,7 +5851,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G12" s="107" t="s">
         <v>67</v>
@@ -5819,10 +5860,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K12" s="107"/>
       <c r="L12" s="25"/>
@@ -5847,7 +5888,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>45995</v>
       </c>
@@ -5855,31 +5896,31 @@
         <v>189</v>
       </c>
       <c r="C13" s="26" t="str">
-        <f>TEXT(A13, "mmm")</f>
+        <f t="shared" si="2"/>
         <v>Dec</v>
       </c>
       <c r="D13" s="27" t="str">
-        <f>TEXT(A13, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="2">E12+2</f>
+        <f t="shared" ref="E13" si="4">E12+2</f>
         <v>13</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>100</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K13" s="157"/>
       <c r="L13" s="25"/>
@@ -5906,35 +5947,35 @@
       <c r="W13" s="15"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="W14" s="20"/>
       <c r="X14" s="18"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1"/>
-    <row r="19" spans="1:3" ht="15" customHeight="1"/>
-    <row r="20" spans="1:3" ht="15" customHeight="1"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1"/>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E17" name="Range3_1"/>
@@ -5950,6 +5991,7 @@
     <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
     <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
     <hyperlink ref="K8" r:id="rId6" xr:uid="{5670CBAB-0F26-4CE3-B15B-6D1F054D4FCF}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5963,7 +6005,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -5990,7 +6032,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6075,7 +6117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6094,19 +6136,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6127,7 +6169,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6148,19 +6190,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6179,7 +6221,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -6200,19 +6242,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6231,7 +6273,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6252,7 +6294,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>151</v>
@@ -6261,10 +6303,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6283,7 +6325,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6304,19 +6346,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6335,7 +6377,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6356,19 +6398,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6385,7 +6427,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1">
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6406,19 +6448,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6437,24 +6479,24 @@
       <c r="W9" s="15"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="W10" s="20"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6479,231 +6521,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
         <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6724,24 +6766,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -6749,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6769,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -6779,7 +6821,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -6800,7 +6842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6810,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6831,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6841,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -6859,7 +6901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6869,7 +6911,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -6890,7 +6932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6900,7 +6942,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -6921,7 +6963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6931,7 +6973,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -6951,7 +6993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -6961,7 +7003,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -6982,7 +7024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -6992,7 +7034,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7013,7 +7055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7023,10 +7065,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7036,10 +7078,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7049,10 +7091,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7062,15 +7104,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7101,7 +7143,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7113,17 +7155,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7146,13 +7188,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7176,10 +7218,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7208,7 +7250,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7235,7 +7277,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7246,7 +7288,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7261,10 +7303,10 @@
         <v>205</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7291,7 +7333,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7308,17 +7350,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7344,10 +7386,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7364,13 +7406,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7387,7 +7429,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>76</v>
@@ -7399,7 +7441,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David.OSullivan\OneDrive - University of Limerick\Academic_work\_Misc\MACSI_Seminars\macsi-seminars.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37B01819-E062-4609-8984-C3DF6EC98D88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1306,7 +1306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1695,12 +1695,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1967,6 +1980,15 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2004,6 +2026,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5177,15 +5203,15 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="17" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="17" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -5210,7 +5236,7 @@
     <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5221,8 +5247,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="76" t="s">
@@ -5234,7 +5260,7 @@
       <c r="D2" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="78" t="s">
         <v>188</v>
       </c>
       <c r="F2" s="140" t="s">
@@ -5295,25 +5321,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75">
+    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="159">
         <v>45911</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="29" t="str">
+      <c r="C3" s="159" t="str">
         <f>TEXT(A3, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D3" s="55" t="str">
+      <c r="D3" s="104" t="str">
         <f>TEXT(A3, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="104">
         <v>1</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="164" t="s">
         <v>250</v>
       </c>
       <c r="G3" s="107" t="s">
@@ -5358,24 +5384,24 @@
       <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75">
+      <c r="A4" s="160">
         <v>45917</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="162" t="str">
         <f>TEXT(A4, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D4" s="55" t="str">
+      <c r="D4" s="163" t="str">
         <f>TEXT(A4, "dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="103">
         <v>2</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="164" t="s">
         <v>259</v>
       </c>
       <c r="G4" s="107" t="s">
@@ -5426,25 +5452,25 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75">
+      <c r="A5" s="160">
         <v>45926</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="160" t="str">
         <f>TEXT(A5, "mmm")</f>
         <v>Sep</v>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="103" t="str">
         <f>TEXT(A5, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="103">
         <f>E3+2</f>
         <v>3</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="164" t="s">
         <v>267</v>
       </c>
       <c r="G5" s="107" t="s">
@@ -5483,25 +5509,25 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75">
+      <c r="A6" s="160">
         <v>45939</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="160" t="str">
         <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
         <v>Oct</v>
       </c>
-      <c r="D6" s="27" t="str">
+      <c r="D6" s="103" t="str">
         <f t="shared" ref="D6" si="1">TEXT(A6, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="103">
         <f>E5+2</f>
         <v>5</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="164" t="s">
         <v>271</v>
       </c>
       <c r="G6" s="107" t="s">
@@ -5546,22 +5572,22 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
+      <c r="A7" s="160">
         <v>45946</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="103" t="s">
         <v>277</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="103">
         <v>6</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="164" t="s">
         <v>278</v>
       </c>
       <c r="G7" s="107" t="s">
@@ -5602,25 +5628,25 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75">
+      <c r="A8" s="160">
         <v>45953</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="160" t="str">
         <f t="shared" ref="C8:C13" si="2">TEXT(A8, "mmm")</f>
         <v>Oct</v>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="103" t="str">
         <f t="shared" ref="D8:D13" si="3">TEXT(A8, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="103">
         <f>E6+2</f>
         <v>7</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="164" t="s">
         <v>282</v>
       </c>
       <c r="G8" s="107" t="s">
@@ -5659,25 +5685,25 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
+      <c r="A9" s="160">
         <v>45967</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="160" t="str">
         <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="103" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="103">
         <f>E8+2</f>
         <v>9</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="164" t="s">
         <v>287</v>
       </c>
       <c r="G9" s="107" t="s">
@@ -5720,24 +5746,24 @@
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
+      <c r="A10" s="160">
         <v>45974</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="160" t="str">
         <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="103" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="103">
         <v>10</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="164" t="s">
         <v>293</v>
       </c>
       <c r="G10" s="107" t="s">
@@ -5777,137 +5803,130 @@
       <c r="W10" s="15"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
-        <v>45978</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="26" t="str">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="160">
+        <f>A10+7</f>
+        <v>45981</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="103" t="str">
         <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
-      <c r="D11" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>Monday</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="I11" s="97" t="s">
-        <v>300</v>
-      </c>
-      <c r="J11" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="K11" s="157" t="s">
-        <v>302</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
-        <v>45981</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Nov</v>
-      </c>
-      <c r="D12" s="27" t="str">
+      <c r="D11" s="103" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="E12">
+      <c r="E11" s="103">
         <f>E9+2</f>
         <v>11</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F11" s="158" t="s">
         <v>303</v>
       </c>
+      <c r="G11" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="158" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>257</v>
+      </c>
+      <c r="T11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="160">
+        <v>45988</v>
+      </c>
+      <c r="B12" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="160" t="str">
+        <f>TEXT(A12, "mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="D12" s="103" t="str">
+        <f>TEXT(A12, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E12" s="103">
+        <v>12</v>
+      </c>
+      <c r="F12" s="164" t="s">
+        <v>298</v>
+      </c>
       <c r="G12" s="107" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>304</v>
-      </c>
-      <c r="J12" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="K12" s="107"/>
+        <v>300</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="K12" s="157" t="s">
+        <v>302</v>
+      </c>
       <c r="L12" s="25"/>
       <c r="M12" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>257</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="16"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="15"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
+    <row r="13" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="161">
         <v>45995</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="161" t="str">
         <f t="shared" si="2"/>
         <v>Dec</v>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="106" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="4">E12+2</f>
+      <c r="E13" s="106">
+        <f t="shared" ref="E13" si="4">E11+2</f>
         <v>13</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="164" t="s">
         <v>306</v>
       </c>
       <c r="G13" s="107" t="s">
@@ -5947,7 +5966,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -5982,7 +6001,7 @@
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:X2" name="Range4_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S13" name="Range6_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N13" name="Range7_1"/>
-    <protectedRange sqref="W14:X14 F3:X13" name="Range8_1"/>
+    <protectedRange sqref="W14:X14 F3:X10 F11:X13" name="Range8_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
@@ -5991,7 +6010,7 @@
     <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
     <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
     <hyperlink ref="K8" r:id="rId6" xr:uid="{5670CBAB-0F26-4CE3-B15B-6D1F054D4FCF}"/>
-    <hyperlink ref="K11" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
+    <hyperlink ref="K12" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37B01819-E062-4609-8984-C3DF6EC98D88}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18D2917-4515-49C2-A2ED-F357C516C631}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="366">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Link to paper</t>
+  </si>
+  <si>
+    <t>Speakers webpages</t>
   </si>
   <si>
     <t>Office required? (Y/N, and if yes for what days?)</t>
@@ -988,23 +991,13 @@
     <t>In the last decades, high-dimensional problems in a regression-type context including a large number of explanatory variables arise in a huge variety of application fields. Specifically considering categorical explanatory variables, i.e., factors, the dummy-coding scheme introduces one (dummy) variable for each factor level, thus the dimension of the parameter space grows rapidly, even for a moderate number of factors. To simultaneously obtain the estimates of the regression coefficients and reducing the dimension of the parameter space, penalized regression is known to be a suitable tool. In this talk, I will discuss the characteristics that a penalization technique needs to fulfil to be suitable for the application to factors, as it is not only important to select those having an influence on the response variable (factor selection), but also to fuse those levels of a factor having a similar influence (levels fusion). A new penalization technique, called L0-Fused Group Lasso (L0-FGL), is introduced, tailored for the needs of factors. The quality of this new method is underlined by its theoretical properties, e.g.,  root-n-consistency and asymptotic normality, as well as by its performance in simulation studies.</t>
   </si>
   <si>
+    <t>https://projecteuclid.org/journals/electronic-journal-of-statistics/volume-18/issue-2/Simultaneous-factors-selection-and-fusion-of-their-levels-in-penalized/10.1214/24-EJS2296.full</t>
+  </si>
+  <si>
+    <t>https://www.mathematik.rwth-aachen.de/go/id/bkbg/gguid/0xB6609343D23C3E4C960D1261B2A0493E/ikz/11/allou/1/lidx/1/?mobile=1</t>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>Hugo Luiz Oliveira</t>
-  </si>
-  <si>
-    <t>University of Campinas (Unicamp), Brazil</t>
-  </si>
-  <si>
-    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
-</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
   </si>
   <si>
     <t>Alison O'Connor</t>
@@ -1023,6 +1016,22 @@
 5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
   <si>
+    <t>Hugo Luiz Oliveira</t>
+  </si>
+  <si>
+    <t>University of Campinas (Unicamp), Brazil</t>
+  </si>
+  <si>
+    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
+</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
+  </si>
+  <si>
     <t>Silvia D'Angelo</t>
   </si>
   <si>
@@ -1040,6 +1049,12 @@
   </si>
   <si>
     <t>TBC</t>
+  </si>
+  <si>
+    <t>Philip Pearce</t>
+  </si>
+  <si>
+    <t>University College London</t>
   </si>
   <si>
     <t>Leah Keating</t>
@@ -1196,7 +1211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2028,14 +2043,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2073,7 +2084,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2179,7 +2190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2321,7 +2332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2329,13 +2340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7958562-D4BB-4776-9668-682A6F2E2AD0}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2345,33 +2356,33 @@
     <col min="9" max="9" width="52.85546875" customWidth="1"/>
     <col min="10" max="10" width="61" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="41" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2408,49 +2419,52 @@
       <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="29" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(A3, "mmm")</f>
@@ -2464,59 +2478,60 @@
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="14" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="O3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="13"/>
+      <c r="S3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="14"/>
       <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2530,55 +2545,56 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="13"/>
+      <c r="W4" s="14"/>
       <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2592,53 +2608,54 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="13"/>
+      <c r="O5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2652,59 +2669,60 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="5" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="5" t="s">
+      <c r="S6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="13"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2718,61 +2736,62 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="S7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2786,59 +2805,60 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="16" t="s">
+      <c r="O8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2852,45 +2872,46 @@
         <v>6</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="13"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="14"/>
       <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2904,61 +2925,62 @@
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="O10" s="13"/>
+      <c r="P10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="S10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" ref="C11:C19" si="2">TEXT(A11, "mmm")</f>
@@ -2972,53 +2994,54 @@
         <v>9</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="5" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="13"/>
+      <c r="S11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3032,55 +3055,56 @@
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" s="5" t="s">
+      <c r="M12" s="12"/>
+      <c r="N12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="13"/>
+      <c r="S12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="13"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3094,61 +3118,62 @@
         <v>10</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="5" t="s">
+      <c r="Q13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="14"/>
-      <c r="W13" s="13"/>
+      <c r="R13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="14"/>
       <c r="X13" s="13"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3162,53 +3187,54 @@
         <v>11</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="14"/>
-      <c r="W14" s="13"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="14"/>
       <c r="X14" s="13"/>
-    </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3222,61 +3248,62 @@
         <v>12</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P15" s="16" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="5" t="s">
+      <c r="R15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="W15" s="13"/>
+      <c r="U15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="X15" s="13"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3290,55 +3317,56 @@
         <v>12</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="19" t="s">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="20"/>
-      <c r="T16" s="17" t="s">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="W16" s="18"/>
+      <c r="S16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="20"/>
+      <c r="U16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="X16" s="18"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="18"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3352,63 +3380,64 @@
         <v>15</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L17" s="17"/>
-      <c r="M17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="18" t="s">
+      <c r="M17" s="17"/>
+      <c r="N17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="21" t="s">
+      <c r="O17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="U17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="W17" s="18"/>
+      <c r="Q17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="X17" s="18"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3422,43 +3451,44 @@
         <v>16</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="21"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="18"/>
-    </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="18"/>
+    </row>
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3472,38 +3502,39 @@
         <v>19</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J19" s="56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="U19" s="21"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="18"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="V19" s="21"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="18"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="18"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3513,14 +3544,15 @@
   <sheetProtection insertHyperlinks="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="E17 A3:A16 C3:E16 C17:D20" name="Range3"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2 C2:G2 I2:X2" name="Range4"/>
-    <protectedRange algorithmName="SHA-512" hashValue="EPNTMIKhlljkzdPC58ikZn0AHDc2sOXaxbx9arJoGJIw+hZ7TrmlAxbCd+L50nXlH1YXK7mVF91v5ft9IdIOGA==" saltValue="9DYWtwN7+2hPB3ZDnDmIXQ==" spinCount="100000" sqref="W2:X17" name="Range5"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S17" name="Range6"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N17" name="Range7"/>
-    <protectedRange sqref="H25:X30 F3:X24" name="Range8"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2 C2:G2 I2:L2 N2:Y2" name="Range4"/>
+    <protectedRange algorithmName="SHA-512" hashValue="EPNTMIKhlljkzdPC58ikZn0AHDc2sOXaxbx9arJoGJIw+hZ7TrmlAxbCd+L50nXlH1YXK7mVF91v5ft9IdIOGA==" saltValue="9DYWtwN7+2hPB3ZDnDmIXQ==" spinCount="100000" sqref="X2:Y17" name="Range5"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T17" name="Range6"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O17" name="Range7"/>
+    <protectedRange sqref="H25:Y30 F3:Y24" name="Range8"/>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="B3:B19" name="Range3_2"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="B2" name="Range4_1_3_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="H2" name="Range4_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="M2" name="Range4_1_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" xr:uid="{7C9CFAE7-4F7A-4B92-8A3B-DA7706C9C778}"/>
@@ -3543,13 +3575,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3559,33 +3591,33 @@
     <col min="9" max="9" width="52.85546875" customWidth="1"/>
     <col min="10" max="10" width="61" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="41" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="149" t="s">
         <v>7</v>
@@ -3622,49 +3654,52 @@
       <c r="L2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="45" t="s">
-        <v>25</v>
+      <c r="V2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="X2" s="45" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="26" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(A3, "mmm")</f>
@@ -3678,57 +3713,58 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I3" s="154" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L3" s="40"/>
-      <c r="M3" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="40" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="O3" s="35"/>
       <c r="P3" s="40" t="s">
         <v>146</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40" t="s">
+      <c r="S3" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="W3" s="46"/>
-      <c r="X3" s="44"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="35"/>
+      <c r="U3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3742,41 +3778,42 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="35"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="5"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3790,41 +3827,42 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" s="101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="35"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3838,41 +3876,42 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I6" s="129" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="5"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3886,41 +3925,42 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I7" s="101" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="35"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3934,41 +3974,42 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3982,41 +4023,42 @@
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" s="150" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J9" s="150" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="35"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="5"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -4030,41 +4072,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="151" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J10" s="151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="5"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="26" t="str">
         <f t="shared" ref="C11" si="2">TEXT(A11, "mmm")</f>
@@ -4078,41 +4121,42 @@
         <v>12</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J11" s="152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="5"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" s="47" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -4126,57 +4170,58 @@
         <v>13</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I12" s="155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J12" s="153" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="17" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="R12" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="17"/>
+      <c r="S12" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T12" s="49"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="18"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W12" s="17"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="18"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4188,59 +4233,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4248,14 +4293,15 @@
   <sheetProtection insertHyperlinks="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="C13:D14 A3:E12" name="Range3"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2 J2:X2 E2 C2" name="Range4"/>
-    <protectedRange algorithmName="SHA-512" hashValue="EPNTMIKhlljkzdPC58ikZn0AHDc2sOXaxbx9arJoGJIw+hZ7TrmlAxbCd+L50nXlH1YXK7mVF91v5ft9IdIOGA==" saltValue="9DYWtwN7+2hPB3ZDnDmIXQ==" spinCount="100000" sqref="W2:X12" name="Range5"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S12" name="Range6"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7"/>
-    <protectedRange sqref="I3:I5 I7:I24 J3:X24 F3:H24" name="Range8"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2 J2:L2 E2 C2 N2:Y2" name="Range4"/>
+    <protectedRange algorithmName="SHA-512" hashValue="EPNTMIKhlljkzdPC58ikZn0AHDc2sOXaxbx9arJoGJIw+hZ7TrmlAxbCd+L50nXlH1YXK7mVF91v5ft9IdIOGA==" saltValue="9DYWtwN7+2hPB3ZDnDmIXQ==" spinCount="100000" sqref="X2:Y12" name="Range5"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T12" name="Range6"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O12" name="Range7"/>
+    <protectedRange sqref="I3:I5 I7:I24 J3:Y24 F3:H24" name="Range8"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="F2:I2" name="Range4_1_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="D2" name="Range4_1_2"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="B2" name="Range4_1_3"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="M2" name="Range4_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CD40244B-175B-47E0-9489-5AC1E6696983}"/>
@@ -4267,13 +4313,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12299A9A-6C0C-4F92-957E-FBFCB6211744}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4286,33 +4332,33 @@
     <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4323,10 +4369,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>8</v>
@@ -4349,52 +4395,55 @@
       <c r="L2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="70" t="s">
-        <v>25</v>
+      <c r="V2" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>138</v>
       </c>
       <c r="X2" s="70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
       <c r="B3" s="126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D3" s="104" t="str">
         <f>TEXT(A3, "dddd")</f>
@@ -4404,48 +4453,49 @@
         <v>2</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="113" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J3" s="99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K3" s="71"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="Q3" s="40"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="V3" s="40"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="44"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="40"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
       <c r="B4" s="127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D4" s="103" t="str">
         <f t="shared" ref="D4:D7" si="0">TEXT(A4, "dddd")</f>
@@ -4455,54 +4505,55 @@
         <v>4</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H4" s="109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="72"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="35"/>
       <c r="P4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V4" s="5"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="5"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D5" s="103" t="str">
         <f t="shared" si="0"/>
@@ -4512,52 +4563,53 @@
         <v>6</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I5" s="115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J5" s="100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="Q5" s="5"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V5" s="5"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D6" s="103" t="str">
         <f t="shared" si="0"/>
@@ -4567,52 +4619,53 @@
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I6" s="115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="Q6" s="5"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V6" s="5"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="5"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
       <c r="B7" s="127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D7" s="103" t="str">
         <f t="shared" si="0"/>
@@ -4622,108 +4675,110 @@
         <v>10</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I7" s="115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V7" s="5"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E8" s="103">
         <v>10</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H8" s="109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I8" s="116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="35"/>
       <c r="P8" s="5" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="5"/>
+      <c r="S8" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V8" s="5"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
       <c r="B9" s="127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D9" s="103" t="str">
         <f>TEXT(A10, "dddd")</f>
@@ -4733,58 +4788,59 @@
         <v>11</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H9" s="109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I9" s="115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="35"/>
       <c r="P9" s="5" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S9" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U9" s="5"/>
+      <c r="S9" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="5"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
       <c r="B10" s="128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D10" s="103" t="str">
         <f t="shared" ref="D10:D15" si="1">TEXT(A10, "dddd")</f>
@@ -4794,50 +4850,51 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H10" s="109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J10" s="98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="48"/>
-      <c r="M10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="17"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="Q10" s="17"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="V10" s="17"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="18"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="17"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D11" s="105" t="str">
         <f t="shared" si="1"/>
@@ -4847,53 +4904,54 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I11" s="117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
-      <c r="M11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>43</v>
+      <c r="M11" s="72"/>
+      <c r="N11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="R11" s="14"/>
-      <c r="S11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="V11" s="14"/>
-      <c r="W11" s="35"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="35"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="35"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="124" t="str">
         <f>TEXT(A12,"mmm")</f>
@@ -4907,53 +4965,54 @@
         <v>13</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
-      <c r="M12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>43</v>
+      <c r="M12" s="72"/>
+      <c r="N12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="R12" s="14"/>
-      <c r="S12" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="V12" s="14"/>
-      <c r="W12" s="35"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="35"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="35"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="124" t="str">
         <f>TEXT(A13,"mmm")</f>
@@ -4967,45 +5026,46 @@
         <v>15</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J13" s="98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="14"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="V13" s="14"/>
-      <c r="W13" s="35"/>
+      <c r="W13" s="14"/>
       <c r="X13" s="35"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="35"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="125" t="str">
         <f>TEXT(A14,"mmm")</f>
@@ -5019,39 +5079,39 @@
         <v>17</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H14" s="111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="M14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14">
+        <v>247</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="T14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="125" t="str">
         <f>TEXT(A15,"mmm")</f>
@@ -5065,127 +5125,128 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J15" s="129" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A16 A22 A20 C9:E14 A3:A12 B3:B13 C3:E7 C15:D15" name="Range3"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="K2:X2" name="Range4"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S12" name="Range6"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N12" name="Range7"/>
-    <protectedRange sqref="G21:I25 J14:J25 F14:F25 G14:I19 K3:X25 F3:J7 F9:J13" name="Range8"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="K2:L2 N2:Y2" name="Range4"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T12" name="Range6"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O12" name="Range7"/>
+    <protectedRange sqref="G21:I25 J14:J25 F14:F25 G14:I19 K3:Y25 F3:J7 F9:J13" name="Range8"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:J2" name="Range4_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="M2" name="Range4_1_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" xr:uid="{A25AAE96-B446-4537-A7A0-A851A065E52D}"/>
@@ -5200,16 +5261,16 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="17" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="17" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5221,33 +5282,33 @@
     <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75">
       <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
@@ -5258,10 +5319,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>8</v>
@@ -5284,49 +5345,52 @@
       <c r="L2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="70" t="s">
-        <v>25</v>
+      <c r="V2" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>138</v>
       </c>
       <c r="X2" s="70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="159">
         <v>45911</v>
       </c>
       <c r="B3" s="159" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="159" t="str">
         <f>TEXT(A3, "mmm")</f>
@@ -5340,55 +5404,56 @@
         <v>1</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K3" s="156" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>34</v>
+        <v>257</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="40"/>
+        <v>35</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="40" t="s">
+        <v>37</v>
+      </c>
       <c r="V3" s="40"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="44"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="40"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="160">
         <v>45917</v>
       </c>
       <c r="B4" s="160" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="162" t="str">
         <f>TEXT(A4, "mmm")</f>
@@ -5402,61 +5467,62 @@
         <v>2</v>
       </c>
       <c r="F4" s="164" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K4" s="156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>43</v>
+        <v>266</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V4" s="5"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="5"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="160">
         <v>45926</v>
       </c>
       <c r="B5" s="160" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="160" t="str">
         <f>TEXT(A5, "mmm")</f>
@@ -5471,49 +5537,50 @@
         <v>3</v>
       </c>
       <c r="F5" s="164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K5" s="157"/>
       <c r="L5" s="25"/>
-      <c r="M5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="35"/>
       <c r="P5" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V5" s="5"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="160">
         <v>45939</v>
       </c>
       <c r="B6" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="160" t="str">
         <f t="shared" ref="C6" si="0">TEXT(A6, "mmm")</f>
@@ -5528,111 +5595,113 @@
         <v>5</v>
       </c>
       <c r="F6" s="164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" s="96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K6" s="157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L6" s="25"/>
-      <c r="M6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>43</v>
+      <c r="M6" s="25"/>
+      <c r="N6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V6" s="5"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="5"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="160">
         <v>45946</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" s="103">
         <v>6</v>
       </c>
       <c r="F7" s="164" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K7" s="157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L7" s="25"/>
-      <c r="M7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="35"/>
       <c r="P7" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V7" s="5"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="160">
         <v>45953</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="160" t="str">
         <f t="shared" ref="C8:C13" si="2">TEXT(A8, "mmm")</f>
@@ -5647,49 +5716,50 @@
         <v>7</v>
       </c>
       <c r="F8" s="164" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K8" s="157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L8" s="25"/>
-      <c r="M8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="5"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q8" s="5"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V8" s="5"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="160">
         <v>45967</v>
       </c>
       <c r="B9" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="160" t="str">
         <f t="shared" si="2"/>
@@ -5704,53 +5774,54 @@
         <v>9</v>
       </c>
       <c r="F9" s="164" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I9" s="97" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K9" s="157" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L9" s="25"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="R9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="5"/>
+      <c r="S9" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="T9" s="35"/>
+      <c r="U9" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="5"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="160">
         <v>45974</v>
       </c>
       <c r="B10" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="160" t="str">
         <f t="shared" si="2"/>
@@ -5764,52 +5835,57 @@
         <v>10</v>
       </c>
       <c r="F10" s="164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K10" s="157"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="L10" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="35"/>
       <c r="P10" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V10" s="5"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W10" s="5"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="160">
         <f>A10+7</f>
         <v>45981</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="103" t="str">
         <f t="shared" si="2"/>
@@ -5824,41 +5900,42 @@
         <v>11</v>
       </c>
       <c r="F11" s="158" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="158" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>302</v>
+      </c>
+      <c r="J11" s="158" t="s">
         <v>303</v>
-      </c>
-      <c r="G11" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="158" t="s">
-        <v>304</v>
-      </c>
-      <c r="J11" s="158" t="s">
-        <v>305</v>
       </c>
       <c r="K11" s="158"/>
       <c r="L11" s="158"/>
-      <c r="M11" s="158" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158" t="s">
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
-      </c>
-      <c r="T11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>258</v>
+      </c>
+      <c r="U11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1">
       <c r="A12" s="160">
         <v>45988</v>
       </c>
       <c r="B12" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="160" t="str">
         <f>TEXT(A12, "mmm")</f>
@@ -5872,47 +5949,48 @@
         <v>12</v>
       </c>
       <c r="F12" s="164" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J12" s="97" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K12" s="157" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L12" s="25"/>
-      <c r="M12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="5"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q12" s="5"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="13"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W12" s="5"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="161">
         <v>45995</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="161" t="str">
         <f t="shared" si="2"/>
@@ -5927,81 +6005,82 @@
         <v>13</v>
       </c>
       <c r="F13" s="164" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K13" s="157"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="35"/>
       <c r="P13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U13" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V13" s="5"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="13"/>
-    </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="5"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="18"/>
-    </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="20"/>
+      <c r="Y14" s="18"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" ht="15" customHeight="1"/>
+    <row r="19" spans="1:3" ht="15" customHeight="1"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E17" name="Range3_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:X2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S13" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N13" name="Range7_1"/>
-    <protectedRange sqref="W14:X14 F3:X10 F11:X13" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:Y2" name="Range4_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T13" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O13" name="Range7_1"/>
+    <protectedRange sqref="X14:Y14 F3:Y13" name="Range8_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
@@ -6011,6 +6090,8 @@
     <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
     <hyperlink ref="K8" r:id="rId6" xr:uid="{5670CBAB-0F26-4CE3-B15B-6D1F054D4FCF}"/>
     <hyperlink ref="K12" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{868EB6F0-D226-4BCB-8A71-EF764997CE08}"/>
+    <hyperlink ref="M10" r:id="rId9" xr:uid="{294C464E-EF91-4638-871F-055BFBC562A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6018,13 +6099,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -6036,33 +6117,33 @@
     <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6073,10 +6154,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>8</v>
@@ -6099,49 +6180,52 @@
       <c r="L2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="70" t="s">
-        <v>25</v>
+      <c r="V2" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>138</v>
       </c>
       <c r="X2" s="70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="29" t="str">
         <f>TEXT(A3, "mmm")</f>
@@ -6155,46 +6239,43 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>34</v>
-      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="44"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="40"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="26" t="str">
         <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
@@ -6209,44 +6290,43 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="35"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="13"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W4" s="5"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6261,44 +6341,43 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="35"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="13"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6313,44 +6392,43 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="5"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6365,44 +6443,43 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="35"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="13"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6417,42 +6494,43 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="13"/>
-    </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.75" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -6467,55 +6545,54 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="35"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="13"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W9" s="5"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="18"/>
-    </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="20"/>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="1:25" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6523,10 +6600,11 @@
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E13" name="Range3_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:X2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="S3:S9" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="N2:N9" name="Range7_1"/>
-    <protectedRange sqref="W10:X10 F3:X9" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:L2 N2:Y2" name="Range4_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T9" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O9" name="Range7_1"/>
+    <protectedRange sqref="X10:Y10 F3:Y9" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="M2" name="Range4_1_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6540,231 +6618,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="137" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6785,24 +6863,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -6810,13 +6888,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>TEXT(F2, "mmm")</f>
@@ -6830,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -6840,13 +6918,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H3" s="26" t="str">
         <f>TEXT(F3, "mmm")</f>
@@ -6861,7 +6939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -6871,13 +6949,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" s="26" t="str">
         <f t="shared" ref="H4" si="2">TEXT(F4, "mmm")</f>
@@ -6892,7 +6970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -6902,25 +6980,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -6930,13 +7008,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" s="26" t="str">
         <f>TEXT(F6, "mmm")</f>
@@ -6951,7 +7029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -6961,13 +7039,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" s="26" t="str">
         <f>TEXT(F7, "mmm")</f>
@@ -6982,7 +7060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -6992,13 +7070,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="26" t="str">
         <f>TEXT(F8, "mmm")</f>
@@ -7012,7 +7090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -7022,13 +7100,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="26" t="str">
         <f>TEXT(F9, "mmm")</f>
@@ -7043,7 +7121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -7053,13 +7131,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="26" t="str">
         <f>TEXT(F10, "mmm")</f>
@@ -7074,7 +7152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7084,10 +7162,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7097,10 +7175,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7110,10 +7188,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7123,15 +7201,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7162,7 +7240,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7174,17 +7252,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7195,10 +7273,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>8</v>
@@ -7207,260 +7285,260 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E6" s="93">
         <v>2</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" s="94">
         <v>4</v>
       </c>
       <c r="F7" s="87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G7" s="87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H7" s="87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E8" s="94">
         <v>6</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H9" s="87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E10" s="94">
         <v>9</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E11" s="94">
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G11" s="87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E12" s="94">
         <v>11</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E13" s="94">
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E14" s="95">
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" s="89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18D2917-4515-49C2-A2ED-F357C516C631}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615720A6-7D38-4785-923E-983F70035F9A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="369">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1016,6 +1016,9 @@
 5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=dIpyVmAAAAAJ&amp;hl=en&amp;oi=ao</t>
+  </si>
+  <si>
     <t>Hugo Luiz Oliveira</t>
   </si>
   <si>
@@ -1043,6 +1046,12 @@
   <si>
     <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
 We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
   </si>
   <si>
     <t>Open</t>
@@ -1728,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2004,6 +2013,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2342,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7958562-D4BB-4776-9668-682A6F2E2AD0}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5264,8 +5274,8 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="17" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <pane xSplit="7" ySplit="17" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -5914,7 +5924,9 @@
       <c r="J11" s="158" t="s">
         <v>303</v>
       </c>
-      <c r="K11" s="158"/>
+      <c r="K11" s="165" t="s">
+        <v>304</v>
+      </c>
       <c r="L11" s="158"/>
       <c r="M11" s="158"/>
       <c r="N11" s="158" t="s">
@@ -5949,22 +5961,22 @@
         <v>12</v>
       </c>
       <c r="F12" s="164" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>211</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J12" s="97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K12" s="157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -6005,23 +6017,27 @@
         <v>13</v>
       </c>
       <c r="F13" s="164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>312</v>
-      </c>
-      <c r="K13" s="157"/>
+        <v>313</v>
+      </c>
+      <c r="K13" s="157" t="s">
+        <v>314</v>
+      </c>
       <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="M13" s="31" t="s">
+        <v>315</v>
+      </c>
       <c r="N13" s="16" t="s">
         <v>44</v>
       </c>
@@ -6092,6 +6108,9 @@
     <hyperlink ref="K12" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
     <hyperlink ref="L10" r:id="rId8" xr:uid="{868EB6F0-D226-4BCB-8A71-EF764997CE08}"/>
     <hyperlink ref="M10" r:id="rId9" xr:uid="{294C464E-EF91-4638-871F-055BFBC562A3}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{D6157109-0314-4E19-ABD9-5C3848013F5D}"/>
+    <hyperlink ref="M13" r:id="rId11" xr:uid="{D19FB516-A72C-4F26-B04A-D73126013BC5}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{FAA02F49-DD76-40A9-9606-6A1BED9FFDD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6239,19 +6258,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6290,19 +6309,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6341,19 +6360,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
@@ -6392,7 +6411,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6401,10 +6420,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6443,19 +6462,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6494,19 +6513,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6545,19 +6564,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6627,23 +6646,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6652,7 +6671,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6661,19 +6680,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
@@ -6681,10 +6700,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
@@ -6692,10 +6711,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
@@ -6703,105 +6722,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>341</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="137" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
@@ -6809,26 +6828,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -6836,13 +6855,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6874,10 +6893,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -6888,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6918,7 +6937,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -6949,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6980,7 +6999,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7008,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7039,7 +7058,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7070,7 +7089,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7100,7 +7119,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7131,7 +7150,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7162,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7175,7 +7194,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7188,7 +7207,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7201,7 +7220,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7254,12 +7273,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -7285,7 +7304,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7315,7 +7334,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
@@ -7385,7 +7404,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7400,7 +7419,7 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
@@ -7447,14 +7466,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
@@ -7483,7 +7502,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75">
@@ -7503,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7526,7 +7545,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615720A6-7D38-4785-923E-983F70035F9A}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B6E111-3255-4725-96AA-55590E349AE4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="377">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1019,6 +1019,24 @@
     <t>https://scholar.google.com/citations?user=dIpyVmAAAAAJ&amp;hl=en&amp;oi=ao</t>
   </si>
   <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Christos Xenophontos</t>
+  </si>
+  <si>
+    <t>University of Cyprus</t>
+  </si>
+  <si>
+    <t>Neural Networks for singular perturbations</t>
+  </si>
+  <si>
+    <t>In this talk we will give an introduction to Neural Networks (NNs) and describe how they can be used for emulating the solution to singularly perturbed problems. In addition, we will present results on the expressivity rate bounds for solution sets of a model class of singularly perturbed, elliptic two-point boundary value problems, in Sobolev norms, on the bounded interval (-1,1). The expression rate bounds in Sobolev norms in terms of the NN size are robust, i.e. uniform with respect to the singular perturbation parameter for several classes of DNN architectures. In particular, ReLU NNs, tanh- and sigmoid-activated NNs. The latter activations can represent “exponential boundary layer solution features” explicitly, in the last hidden layer of the DNN, i.e. in a shallow subnetwork, and afford improved robust expression rate bounds in terms of the NN size.</t>
+  </si>
+  <si>
     <t>Hugo Luiz Oliveira</t>
   </si>
   <si>
@@ -1064,6 +1082,12 @@
   </si>
   <si>
     <t>University College London</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
   </si>
   <si>
     <t>Leah Keating</t>
@@ -1737,7 +1761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2014,6 +2038,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5271,11 +5296,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="17" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <pane xSplit="7" ySplit="18" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -5714,11 +5739,11 @@
         <v>190</v>
       </c>
       <c r="C8" s="160" t="str">
-        <f t="shared" ref="C8:C13" si="2">TEXT(A8, "mmm")</f>
+        <f t="shared" ref="C8:C11" si="2">TEXT(A8, "mmm")</f>
         <v>Oct</v>
       </c>
       <c r="D8" s="103" t="str">
-        <f t="shared" ref="D8:D13" si="3">TEXT(A8, "dddd")</f>
+        <f t="shared" ref="D8:D11" si="3">TEXT(A8, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E8" s="103">
@@ -5942,102 +5967,80 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1">
+    <row r="12" spans="1:25">
       <c r="A12" s="160">
-        <v>45988</v>
-      </c>
-      <c r="B12" s="160" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="160" t="str">
-        <f>TEXT(A12, "mmm")</f>
-        <v>Nov</v>
-      </c>
-      <c r="D12" s="103" t="str">
-        <f>TEXT(A12, "dddd")</f>
-        <v>Thursday</v>
+        <v>45986</v>
+      </c>
+      <c r="B12" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>306</v>
       </c>
       <c r="E12" s="103">
         <v>12</v>
       </c>
-      <c r="F12" s="164" t="s">
-        <v>305</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>306</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" s="158" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="158" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="158" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" s="165"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1">
+      <c r="A13" s="160">
+        <v>45988</v>
+      </c>
+      <c r="B13" s="160" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="160" t="str">
+        <f>TEXT(A13, "mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="D13" s="103" t="str">
+        <f>TEXT(A13, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E13" s="103">
+        <v>13</v>
+      </c>
+      <c r="F13" s="164" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="J12" s="97" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" s="157" t="s">
-        <v>309</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="13"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="161">
-        <v>45995</v>
-      </c>
-      <c r="B13" s="161" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="161" t="str">
-        <f t="shared" si="2"/>
-        <v>Dec</v>
-      </c>
-      <c r="D13" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>Thursday</v>
-      </c>
-      <c r="E13" s="106">
-        <f t="shared" ref="E13" si="4">E11+2</f>
-        <v>13</v>
-      </c>
-      <c r="F13" s="164" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>101</v>
-      </c>
       <c r="I13" s="97" t="s">
-        <v>312</v>
-      </c>
-      <c r="J13" s="132" t="s">
         <v>313</v>
       </c>
+      <c r="J13" s="97" t="s">
+        <v>314</v>
+      </c>
       <c r="K13" s="157" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L13" s="25"/>
-      <c r="M13" s="31" t="s">
-        <v>315</v>
-      </c>
+      <c r="M13" s="25"/>
       <c r="N13" s="16" t="s">
         <v>44</v>
       </c>
@@ -6045,33 +6048,86 @@
       <c r="P13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="T13" s="35"/>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="18"/>
-    </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1">
+      <c r="A14" s="161">
+        <v>45995</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="161" t="str">
+        <f>TEXT(A14, "mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="D14" s="106" t="str">
+        <f>TEXT(A14, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E14" s="106">
+        <f>E11+3</f>
+        <v>14</v>
+      </c>
+      <c r="F14" s="164" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="157" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
       <c r="A16" s="26"/>
@@ -6083,20 +6139,25 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1"/>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+    </row>
     <row r="19" spans="1:3" ht="15" customHeight="1"/>
     <row r="20" spans="1:3" ht="15" customHeight="1"/>
     <row r="21" spans="1:3" ht="15" customHeight="1"/>
     <row r="22" spans="1:3" ht="15" customHeight="1"/>
     <row r="23" spans="1:3" ht="15" customHeight="1"/>
     <row r="24" spans="1:3" ht="15" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E17" name="Range3_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E18" name="Range3_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:Y2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T13" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O13" name="Range7_1"/>
-    <protectedRange sqref="X14:Y14 F3:Y13" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T14" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O14" name="Range7_1"/>
+    <protectedRange sqref="X15:Y15 F3:Y14" name="Range8_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
@@ -6105,12 +6166,12 @@
     <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
     <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
     <hyperlink ref="K8" r:id="rId6" xr:uid="{5670CBAB-0F26-4CE3-B15B-6D1F054D4FCF}"/>
-    <hyperlink ref="K12" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
+    <hyperlink ref="K13" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
     <hyperlink ref="L10" r:id="rId8" xr:uid="{868EB6F0-D226-4BCB-8A71-EF764997CE08}"/>
     <hyperlink ref="M10" r:id="rId9" xr:uid="{294C464E-EF91-4638-871F-055BFBC562A3}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{D6157109-0314-4E19-ABD9-5C3848013F5D}"/>
-    <hyperlink ref="M13" r:id="rId11" xr:uid="{D19FB516-A72C-4F26-B04A-D73126013BC5}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{FAA02F49-DD76-40A9-9606-6A1BED9FFDD6}"/>
+    <hyperlink ref="M14" r:id="rId11" xr:uid="{D19FB516-A72C-4F26-B04A-D73126013BC5}"/>
+    <hyperlink ref="K14" r:id="rId12" xr:uid="{FAA02F49-DD76-40A9-9606-6A1BED9FFDD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6120,8 +6181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6258,19 +6319,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6309,19 +6370,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6360,26 +6421,30 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="16"/>
@@ -6411,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6420,10 +6485,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6462,19 +6527,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6513,19 +6578,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6564,19 +6629,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6646,23 +6711,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6671,7 +6736,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6680,19 +6745,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
@@ -6700,10 +6765,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
@@ -6711,10 +6776,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
@@ -6722,105 +6787,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B15" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>349</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="137" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
@@ -6828,26 +6893,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -6855,13 +6920,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6893,10 +6958,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -6907,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6937,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -6968,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -6999,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7027,7 +7092,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7058,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7089,7 +7154,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7119,7 +7184,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7150,7 +7215,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7181,7 +7246,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7194,7 +7259,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7207,7 +7272,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7220,7 +7285,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7273,12 +7338,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -7304,7 +7369,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7334,7 +7399,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
@@ -7404,7 +7469,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7419,7 +7484,7 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
@@ -7466,14 +7531,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
@@ -7502,7 +7567,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75">
@@ -7522,7 +7587,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7545,7 +7610,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B6E111-3255-4725-96AA-55590E349AE4}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CE96E5-5729-4F1A-8515-221E4968858F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="379">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1072,10 +1072,16 @@
     <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
   </si>
   <si>
+    <t>Eoin O’Brien</t>
+  </si>
+  <si>
+    <t>Maynooth University</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>TBC</t>
   </si>
   <si>
     <t>Philip Pearce</t>
@@ -5298,7 +5304,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="18" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
@@ -6181,8 +6187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6325,13 +6331,13 @@
         <v>323</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6370,19 +6376,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6421,29 +6427,29 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="16"/>
       <c r="O5" s="35" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -6476,7 +6482,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6485,10 +6491,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6527,19 +6533,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6578,19 +6584,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6629,19 +6635,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6711,23 +6717,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6736,7 +6742,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6745,19 +6751,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
@@ -6765,10 +6771,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
@@ -6776,10 +6782,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
@@ -6787,75 +6793,75 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B12" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>351</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6863,29 +6869,29 @@
         <v>316</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B17" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>361</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
@@ -6893,26 +6899,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B24" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -6920,13 +6926,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6958,10 +6964,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -6972,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7002,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7033,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7064,7 +7070,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7092,7 +7098,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7123,7 +7129,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7154,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7184,7 +7190,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7215,7 +7221,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7246,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7259,7 +7265,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7272,7 +7278,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7285,7 +7291,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7338,12 +7344,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -7369,7 +7375,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7399,7 +7405,7 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
@@ -7469,7 +7475,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7484,7 +7490,7 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
@@ -7531,14 +7537,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
@@ -7567,7 +7573,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75">
@@ -7587,7 +7593,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7610,7 +7616,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CE96E5-5729-4F1A-8515-221E4968858F}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383F70AF-182B-4084-86F3-806EB002AE46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="383">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1006,241 +1006,255 @@
     <t>Hip Fractures Trends in Older Adults in Ireland</t>
   </si>
   <si>
+    <t>https://scholar.google.com/citations?user=dIpyVmAAAAAJ&amp;hl=en&amp;oi=ao</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Christos Xenophontos</t>
+  </si>
+  <si>
+    <t>University of Cyprus</t>
+  </si>
+  <si>
+    <t>Neural Networks for singular perturbations</t>
+  </si>
+  <si>
+    <t>In this talk we will give an introduction to Neural Networks (NNs) and describe how they can be used for emulating the solution to singularly perturbed problems. In addition, we will present results on the expressivity rate bounds for solution sets of a model class of singularly perturbed, elliptic two-point boundary value problems, in Sobolev norms, on the bounded interval (-1,1). The expression rate bounds in Sobolev norms in terms of the NN size are robust, i.e. uniform with respect to the singular perturbation parameter for several classes of DNN architectures. In particular, ReLU NNs, tanh- and sigmoid-activated NNs. The latter activations can represent “exponential boundary layer solution features” explicitly, in the last hidden layer of the DNN, i.e. in a shallow subnetwork, and afford improved robust expression rate bounds in terms of the NN size.</t>
+  </si>
+  <si>
+    <t>Hugo Luiz Oliveira</t>
+  </si>
+  <si>
+    <t>University of Campinas (Unicamp), Brazil</t>
+  </si>
+  <si>
+    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
+</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
+  </si>
+  <si>
+    <t>Silvia D'Angelo</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>Clustering high-dimensional discrete data: a compressed approach</t>
+  </si>
+  <si>
+    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
+We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
+  </si>
+  <si>
+    <t>Eoin O’Brien</t>
+  </si>
+  <si>
+    <t>Maynooth University</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Philip Pearce</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
+  </si>
+  <si>
+    <t>Leah Keating</t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
+  </si>
+  <si>
+    <t>12:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shresh Jain </t>
+  </si>
+  <si>
+    <t>Investigating Material Nonlinearities in Coke Cans and Plastic Holey Columns</t>
+  </si>
+  <si>
+    <t>Most real-world buckling problems, from Coke cans to metamaterials, involve metals or other hard materials that deform plastically. Yet, many studies focus primarily on geometric nonlinearities, often neglecting the material nonlinearities that play a crucial role in determining post-buckling behaviour. In this talk, we examine two systems in which we incorporate these effects through semi-empirical modelling of material nonlinearities: hard holey columns and the sequential ring-buckling of fluid-filled Coke cans.
+By including material nonlinearities in our models, we show that intuitive, mechanics-based approaches can successfully capture the complex behaviour observed in the buckling of hard materials.</t>
+  </si>
+  <si>
     <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
 In this talk, we show how publicly available datasets can be used to uncover correlations and trends in hip fracture demand. When combined with national audit records we show how population health interacts with environmental pressures. Our findings suggest that extreme weather is a strong national indicator of surges in hip fractures with some regions experiencing more pressure than others. This creates opportunities not only for predictive modelling and smarter resource allocation, but also for preventative strategies where timely information can be used to warn and protect at-risk groups.
 References
-1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8. 
-2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393. 
+1. Looi MK. The European healthcare workforce crisis: how bad is it? BMJ. 2024 Jan 19;384:q8.
+2. EUROSTAT. Ageing Europe - statistics on population developments. Eurostat; 2020. Report No.: 80393.
 3. CSO. Central Statistics Office (CSO). Central Statistics Office; 2022 [cited 2024 Sep 23]. Society Measuring Ireland’s Progress 2022 - Central Statistics Office. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-mip/measuringirelandsprogress2022/society/
-4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36. 
-5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from: https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=dIpyVmAAAAAJ&amp;hl=en&amp;oi=ao</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Christos Xenophontos</t>
-  </si>
-  <si>
-    <t>University of Cyprus</t>
-  </si>
-  <si>
-    <t>Neural Networks for singular perturbations</t>
-  </si>
-  <si>
-    <t>In this talk we will give an introduction to Neural Networks (NNs) and describe how they can be used for emulating the solution to singularly perturbed problems. In addition, we will present results on the expressivity rate bounds for solution sets of a model class of singularly perturbed, elliptic two-point boundary value problems, in Sobolev norms, on the bounded interval (-1,1). The expression rate bounds in Sobolev norms in terms of the NN size are robust, i.e. uniform with respect to the singular perturbation parameter for several classes of DNN architectures. In particular, ReLU NNs, tanh- and sigmoid-activated NNs. The latter activations can represent “exponential boundary layer solution features” explicitly, in the last hidden layer of the DNN, i.e. in a shallow subnetwork, and afford improved robust expression rate bounds in terms of the NN size.</t>
-  </si>
-  <si>
-    <t>Hugo Luiz Oliveira</t>
-  </si>
-  <si>
-    <t>University of Campinas (Unicamp), Brazil</t>
-  </si>
-  <si>
-    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
-</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
-  </si>
-  <si>
-    <t>Silvia D'Angelo</t>
-  </si>
-  <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
-    <t>Clustering high-dimensional discrete data: a compressed approach</t>
-  </si>
-  <si>
-    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
-We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
-  </si>
-  <si>
-    <t>Eoin O’Brien</t>
-  </si>
-  <si>
-    <t>Maynooth University</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Philip Pearce</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
-  </si>
-  <si>
-    <t>Leah Keating</t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
+4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36.
+5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from:
+https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,7 +1781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2045,6 +2059,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2085,9 +2105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2125,7 +2145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2231,7 +2251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2373,7 +2393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2387,7 +2407,7 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2412,7 +2432,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2500,7 +2520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2567,7 +2587,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2630,7 +2650,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2691,7 +2711,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2758,7 +2778,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2827,7 +2847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2894,7 +2914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2947,7 +2967,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -3016,7 +3036,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -3077,7 +3097,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3140,7 +3160,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3209,7 +3229,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3270,7 +3290,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3339,7 +3359,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3402,7 +3422,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3473,7 +3493,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3524,7 +3544,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3575,7 +3595,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3622,7 +3642,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3647,7 +3667,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3800,7 +3820,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3849,7 +3869,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3898,7 +3918,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3947,7 +3967,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -3996,7 +4016,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -4045,7 +4065,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -4094,7 +4114,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4143,7 +4163,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4192,7 +4212,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4249,20 +4269,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4274,59 +4294,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4360,7 +4380,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4388,7 +4408,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4476,7 +4496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4528,7 +4548,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4586,7 +4606,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4642,7 +4662,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1">
+    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4698,7 +4718,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4752,7 +4772,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1">
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4811,7 +4831,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4873,7 +4893,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4927,7 +4947,7 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -4987,7 +5007,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -5048,7 +5068,7 @@
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -5101,7 +5121,7 @@
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5147,7 +5167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5181,101 +5201,101 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5302,16 +5322,16 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="18" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="19" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5338,7 +5358,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5349,7 +5369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
@@ -5426,7 +5446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="159">
         <v>45911</v>
       </c>
@@ -5489,7 +5509,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="160">
         <v>45917</v>
       </c>
@@ -5558,7 +5578,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="160">
         <v>45926</v>
       </c>
@@ -5616,7 +5636,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="160">
         <v>45939</v>
       </c>
@@ -5680,7 +5700,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="160">
         <v>45946</v>
       </c>
@@ -5737,7 +5757,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="160">
         <v>45953</v>
       </c>
@@ -5745,11 +5765,11 @@
         <v>190</v>
       </c>
       <c r="C8" s="160" t="str">
-        <f t="shared" ref="C8:C11" si="2">TEXT(A8, "mmm")</f>
+        <f t="shared" ref="C8:C12" si="2">TEXT(A8, "mmm")</f>
         <v>Oct</v>
       </c>
       <c r="D8" s="103" t="str">
-        <f t="shared" ref="D8:D11" si="3">TEXT(A8, "dddd")</f>
+        <f t="shared" ref="D8:D12" si="3">TEXT(A8, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E8" s="103">
@@ -5795,7 +5815,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="160">
         <v>45967</v>
       </c>
@@ -5857,7 +5877,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="160">
         <v>45974</v>
       </c>
@@ -5920,191 +5940,182 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="160">
+        <v>45980</v>
+      </c>
+      <c r="B11" s="160" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov</v>
+      </c>
+      <c r="D11" s="103" t="str">
+        <f t="shared" si="3"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E11" s="103">
+        <v>11</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" s="167" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="157"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="160">
         <f>A10+7</f>
         <v>45981</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B12" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="103" t="str">
+      <c r="C12" s="103" t="str">
         <f t="shared" si="2"/>
         <v>Nov</v>
       </c>
-      <c r="D11" s="103" t="str">
+      <c r="D12" s="103" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="E11" s="103">
+      <c r="E12" s="103">
         <f>E9+2</f>
         <v>11</v>
       </c>
-      <c r="F11" s="158" t="s">
+      <c r="F12" s="158" t="s">
         <v>301</v>
       </c>
-      <c r="G11" s="158" t="s">
+      <c r="G12" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="158" t="s">
+      <c r="H12" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="158" t="s">
+      <c r="I12" s="158" t="s">
         <v>302</v>
       </c>
-      <c r="J11" s="158" t="s">
+      <c r="J12" s="168" t="s">
+        <v>382</v>
+      </c>
+      <c r="K12" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="K11" s="165" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>258</v>
-      </c>
-      <c r="U11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="160">
-        <v>45986</v>
-      </c>
-      <c r="B12" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="103">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>307</v>
-      </c>
-      <c r="G12" s="158" t="s">
-        <v>308</v>
-      </c>
-      <c r="H12" s="158" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="158" t="s">
-        <v>309</v>
-      </c>
-      <c r="J12" s="158" t="s">
-        <v>310</v>
-      </c>
-      <c r="K12" s="165"/>
       <c r="L12" s="158"/>
       <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1">
+      <c r="N12" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>258</v>
+      </c>
+      <c r="U12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="160">
+        <v>45986</v>
+      </c>
+      <c r="B13" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="103">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="158" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="158" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" s="158" t="s">
+        <v>309</v>
+      </c>
+      <c r="K13" s="165"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="160">
         <v>45988</v>
       </c>
-      <c r="B13" s="160" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="160" t="str">
-        <f>TEXT(A13, "mmm")</f>
+      <c r="B14" s="160" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="160" t="str">
+        <f>TEXT(A14, "mmm")</f>
         <v>Nov</v>
       </c>
-      <c r="D13" s="103" t="str">
-        <f>TEXT(A13, "dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="E13" s="103">
-        <v>13</v>
-      </c>
-      <c r="F13" s="164" t="s">
-        <v>311</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" s="97" t="s">
-        <v>313</v>
-      </c>
-      <c r="J13" s="97" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" s="157" t="s">
-        <v>315</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="161">
-        <v>45995</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="161" t="str">
-        <f>TEXT(A14, "mmm")</f>
-        <v>Dec</v>
-      </c>
-      <c r="D14" s="106" t="str">
+      <c r="D14" s="103" t="str">
         <f>TEXT(A14, "dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="E14" s="106">
-        <f>E11+3</f>
-        <v>14</v>
+      <c r="E14" s="103">
+        <v>13</v>
       </c>
       <c r="F14" s="164" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="I14" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="J14" s="132" t="s">
-        <v>319</v>
+        <v>312</v>
+      </c>
+      <c r="J14" s="97" t="s">
+        <v>313</v>
       </c>
       <c r="K14" s="157" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L14" s="25"/>
-      <c r="M14" s="31" t="s">
-        <v>321</v>
-      </c>
+      <c r="M14" s="25"/>
       <c r="N14" s="16" t="s">
         <v>44</v>
       </c>
@@ -6112,58 +6123,116 @@
       <c r="P14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="18"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1">
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="161">
+        <v>45995</v>
+      </c>
+      <c r="B15" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="161" t="str">
+        <f>TEXT(A15, "mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="D15" s="106" t="str">
+        <f>TEXT(A15, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E15" s="106">
+        <f>E12+3</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="164" t="s">
+        <v>315</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" s="132" t="s">
+        <v>318</v>
+      </c>
+      <c r="K15" s="157" t="s">
+        <v>319</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="X16" s="20"/>
+      <c r="Y16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1"/>
-    <row r="20" spans="1:3" ht="15" customHeight="1"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15" customHeight="1"/>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E18" name="Range3_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E19" name="Range3_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:Y2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T14" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O14" name="Range7_1"/>
-    <protectedRange sqref="X15:Y15 F3:Y14" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T15" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O15" name="Range7_1"/>
+    <protectedRange sqref="X16:Y16 F3:Y15" name="Range8_1"/>
   </protectedRanges>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{CC4847BF-5CC0-41D9-9E80-86D0D78BEFCD}"/>
@@ -6172,14 +6241,15 @@
     <hyperlink ref="K7" r:id="rId4" xr:uid="{7120277C-1705-4DE0-ADA5-C41C5441CF52}"/>
     <hyperlink ref="K9" r:id="rId5" xr:uid="{4AC45F90-7175-4CE5-9D88-F653406BC232}"/>
     <hyperlink ref="K8" r:id="rId6" xr:uid="{5670CBAB-0F26-4CE3-B15B-6D1F054D4FCF}"/>
-    <hyperlink ref="K13" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
+    <hyperlink ref="K14" r:id="rId7" xr:uid="{22FAA2AA-5C27-49D1-BE58-6994B647E0B0}"/>
     <hyperlink ref="L10" r:id="rId8" xr:uid="{868EB6F0-D226-4BCB-8A71-EF764997CE08}"/>
     <hyperlink ref="M10" r:id="rId9" xr:uid="{294C464E-EF91-4638-871F-055BFBC562A3}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{D6157109-0314-4E19-ABD9-5C3848013F5D}"/>
-    <hyperlink ref="M14" r:id="rId11" xr:uid="{D19FB516-A72C-4F26-B04A-D73126013BC5}"/>
-    <hyperlink ref="K14" r:id="rId12" xr:uid="{FAA02F49-DD76-40A9-9606-6A1BED9FFDD6}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{D6157109-0314-4E19-ABD9-5C3848013F5D}"/>
+    <hyperlink ref="M15" r:id="rId11" xr:uid="{D19FB516-A72C-4F26-B04A-D73126013BC5}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{FAA02F49-DD76-40A9-9606-6A1BED9FFDD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -6187,11 +6257,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -6218,7 +6288,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6229,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6325,19 +6395,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6355,7 +6425,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6376,19 +6446,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6406,7 +6476,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -6427,29 +6497,29 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="16"/>
       <c r="O5" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -6461,7 +6531,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6482,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6491,10 +6561,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6512,7 +6582,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6533,19 +6603,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6563,7 +6633,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6584,19 +6654,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6614,7 +6684,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6635,19 +6705,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6665,24 +6735,24 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6708,231 +6778,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="54" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="136" t="s">
-        <v>335</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52" t="s">
+      <c r="B6" s="52" t="s">
         <v>339</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>340</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>341</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>342</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>343</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>344</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="50" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52" t="s">
+      <c r="B11" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="C11" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="50" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
+      <c r="B12" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="C12" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="52" t="s">
+      <c r="B13" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="C13" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
+      <c r="B14" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="C14" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52" t="s">
+      <c r="B15" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="C15" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="137" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="137" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="137" t="s">
+      <c r="C16" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="C16" s="139" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="52" t="s">
+      <c r="B17" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="52" t="s">
-        <v>364</v>
-      </c>
       <c r="B18" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6953,24 +7023,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="130" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -6978,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -6998,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -7008,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7029,7 +7099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -7039,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7060,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -7070,7 +7140,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7088,7 +7158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -7098,7 +7168,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7119,7 +7189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -7129,7 +7199,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7150,7 +7220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -7160,7 +7230,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7180,7 +7250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -7190,7 +7260,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7211,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -7221,7 +7291,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7242,7 +7312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7252,10 +7322,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7265,10 +7335,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7278,10 +7348,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7291,15 +7361,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7330,7 +7400,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7342,17 +7412,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="79" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7375,13 +7445,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7405,10 +7475,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7437,7 +7507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7464,7 +7534,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7475,7 +7545,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7490,10 +7560,10 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7520,7 +7590,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7537,17 +7607,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7573,10 +7643,10 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7593,13 +7663,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7616,7 +7686,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>
@@ -7628,7 +7698,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383F70AF-182B-4084-86F3-806EB002AE46}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B9DAC9-E9DC-4C52-84B9-FF978EEBF022}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="384">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1255,6 +1255,9 @@
 4. Walsh ME, Ferris H, Coughlan T, Hurson C, Ahern E, Sorensen J, et al. Trends in hip fracture care in the Republic of Ireland from 2013 to 2018: results from the Irish Hip Fracture Database. Osteoporos Int. 2021 Apr 1;32(4):727–36.
 5. Kelly P, Horan B, Murphy T, Ahern E, Brent L, Kelly F, et al. Irish Hip Fracture Database National Report 2022 [Internet]. National Office of Clinical Audit (NOCA); 2022 p. 1–88. Available from:
 https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8790-7654</t>
   </si>
 </sst>
 </file>
@@ -5325,10 +5328,10 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="19" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,7 +5978,9 @@
       </c>
       <c r="K11" s="157"/>
       <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
+      <c r="M11" s="156" t="s">
+        <v>383</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="35"/>
       <c r="P11" s="14"/>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B9DAC9-E9DC-4C52-84B9-FF978EEBF022}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5487EAA0-7362-4950-8DE5-5503B39B9EC1}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,239 +1000,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Alison O'Connor</t>
-  </si>
-  <si>
-    <t>Hip Fractures Trends in Older Adults in Ireland</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=dIpyVmAAAAAJ&amp;hl=en&amp;oi=ao</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Christos Xenophontos</t>
-  </si>
-  <si>
-    <t>University of Cyprus</t>
-  </si>
-  <si>
-    <t>Neural Networks for singular perturbations</t>
-  </si>
-  <si>
-    <t>In this talk we will give an introduction to Neural Networks (NNs) and describe how they can be used for emulating the solution to singularly perturbed problems. In addition, we will present results on the expressivity rate bounds for solution sets of a model class of singularly perturbed, elliptic two-point boundary value problems, in Sobolev norms, on the bounded interval (-1,1). The expression rate bounds in Sobolev norms in terms of the NN size are robust, i.e. uniform with respect to the singular perturbation parameter for several classes of DNN architectures. In particular, ReLU NNs, tanh- and sigmoid-activated NNs. The latter activations can represent “exponential boundary layer solution features” explicitly, in the last hidden layer of the DNN, i.e. in a shallow subnetwork, and afford improved robust expression rate bounds in terms of the NN size.</t>
-  </si>
-  <si>
-    <t>Hugo Luiz Oliveira</t>
-  </si>
-  <si>
-    <t>University of Campinas (Unicamp), Brazil</t>
-  </si>
-  <si>
-    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
-</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
-  </si>
-  <si>
-    <t>Silvia D'Angelo</t>
-  </si>
-  <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
-    <t>Clustering high-dimensional discrete data: a compressed approach</t>
-  </si>
-  <si>
-    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
-We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
-  </si>
-  <si>
-    <t>Eoin O’Brien</t>
-  </si>
-  <si>
-    <t>Maynooth University</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Philip Pearce</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
-  </si>
-  <si>
-    <t>Leah Keating</t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
-  </si>
-  <si>
     <t>12:30pm</t>
   </si>
   <si>
@@ -1244,6 +1011,15 @@
   <si>
     <t>Most real-world buckling problems, from Coke cans to metamaterials, involve metals or other hard materials that deform plastically. Yet, many studies focus primarily on geometric nonlinearities, often neglecting the material nonlinearities that play a crucial role in determining post-buckling behaviour. In this talk, we examine two systems in which we incorporate these effects through semi-empirical modelling of material nonlinearities: hard holey columns and the sequential ring-buckling of fluid-filled Coke cans.
 By including material nonlinearities in our models, we show that intuitive, mechanics-based approaches can successfully capture the complex behaviour observed in the buckling of hard materials.</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8790-7654</t>
+  </si>
+  <si>
+    <t>Alison O'Connor</t>
+  </si>
+  <si>
+    <t>Hip Fractures Trends in Older Adults in Ireland</t>
   </si>
   <si>
     <t>European healthcare systems are under pressure from rapidly ageing populations, with hip fractures representing one of the most costly and impactful injuries among older adults (1,2). Ireland faces the dual challenge of both a rapidly growing ageing population and one of the highest European rates in hip fracture incidence (3,4). Irish standards require admission to orthopaedic care within four hours, yet national audits show this target is rarely achieved (5). Improving hip fracture services requires not just clinical reform but also new ways of leveraging data.
@@ -1257,7 +1033,231 @@
 https://d7g406zpx7bgk.cloudfront.net/38cf762d5b/irish_hip_fracture_database_national_report_2022_final.pdf</t>
   </si>
   <si>
-    <t>https://orcid.org/0000-0002-8790-7654</t>
+    <t>https://scholar.google.com/citations?user=dIpyVmAAAAAJ&amp;hl=en&amp;oi=ao</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Christos Xenophontos</t>
+  </si>
+  <si>
+    <t>University of Cyprus</t>
+  </si>
+  <si>
+    <t>Neural Networks for singular perturbations</t>
+  </si>
+  <si>
+    <t>In this talk we will give an introduction to Neural Networks (NNs) and describe how they can be used for emulating the solution to singularly perturbed problems. In addition, we will present results on the expressivity rate bounds for solution sets of a model class of singularly perturbed, elliptic two-point boundary value problems, in Sobolev norms, on the bounded interval (-1,1). The expression rate bounds in Sobolev norms in terms of the NN size are robust, i.e. uniform with respect to the singular perturbation parameter for several classes of DNN architectures. In particular, ReLU NNs, tanh- and sigmoid-activated NNs. The latter activations can represent “exponential boundary layer solution features” explicitly, in the last hidden layer of the DNN, i.e. in a shallow subnetwork, and afford improved robust expression rate bounds in terms of the NN size.</t>
+  </si>
+  <si>
+    <t>Hugo Luiz Oliveira</t>
+  </si>
+  <si>
+    <t>University of Campinas (Unicamp), Brazil</t>
+  </si>
+  <si>
+    <t>Numerical and computational modelling of the Wheatley aortic valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent studies have indicated an increase in cardiovascular diseases in developing countries, particularly valvular disorders caused by rheumatic fever, which are affecting younger populations. In severe cases, when the natural valve cannot be repaired, replacing it with a prosthetic valve may be the most effective way to ensure the patient's survival. Existing artificial valves have limitations, such as early deterioration and the risk of clot formation. To address these issues, the Wheatley Valve introduces an innovative S-shaped leaflet design that enhances the washout effect in the aortic root, thereby reducing the risk of thrombus formation and the need for extensive antiplatelet therapy. In this talk, we will discuss the main elements needed to build a fluid-structure interaction computational model able to represent the real behaviour of the Wheatley valve and which can be readily extended to other valve designs.
+</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=nfeQtPQAAAAJ&amp;hl=pt-BR</t>
+  </si>
+  <si>
+    <t>Silvia D'Angelo</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>Clustering high-dimensional discrete data: a compressed approach</t>
+  </si>
+  <si>
+    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
+We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
+  </si>
+  <si>
+    <t>Eoin O’Brien</t>
+  </si>
+  <si>
+    <t>Maynooth University</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Philip Pearce</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
+  </si>
+  <si>
+    <t>Leah Keating</t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2108,9 +2108,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2148,7 +2148,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2254,7 +2254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2396,7 +2396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2410,7 +2410,7 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2435,7 +2435,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3645,7 +3645,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3670,7 +3670,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4272,20 +4272,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4297,59 +4297,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4383,7 +4383,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4411,7 +4411,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -5010,7 +5010,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -5124,7 +5124,7 @@
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5204,101 +5204,101 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5329,12 +5329,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5361,7 +5361,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="159">
         <v>45911</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="160">
         <v>45917</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="160">
         <v>45926</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="160">
         <v>45939</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="160">
         <v>45946</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="160">
         <v>45953</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="160">
         <v>45967</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="160">
         <v>45974</v>
       </c>
@@ -5943,12 +5943,12 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="160">
         <v>45980</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="C11" s="160" t="str">
         <f t="shared" si="2"/>
@@ -5962,7 +5962,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>269</v>
@@ -5971,15 +5971,15 @@
         <v>87</v>
       </c>
       <c r="I11" s="167" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="J11" s="167" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="K11" s="157"/>
       <c r="L11" s="156"/>
       <c r="M11" s="156" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="35"/>
@@ -5994,7 +5994,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1">
       <c r="A12" s="160">
         <f>A10+7</f>
         <v>45981</v>
@@ -6015,7 +6015,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="158" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G12" s="158" t="s">
         <v>68</v>
@@ -6024,13 +6024,13 @@
         <v>101</v>
       </c>
       <c r="I12" s="158" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="J12" s="168" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="K12" s="165" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L12" s="158"/>
       <c r="M12" s="158"/>
@@ -6047,7 +6047,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="160">
         <v>45986</v>
       </c>
@@ -6055,35 +6055,35 @@
         <v>28</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E13" s="103">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G13" s="158" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H13" s="158" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="158" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J13" s="158" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K13" s="165"/>
       <c r="L13" s="158"/>
       <c r="M13" s="158"/>
       <c r="N13" s="158"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="160">
         <v>45988</v>
       </c>
@@ -6099,25 +6099,25 @@
         <v>Thursday</v>
       </c>
       <c r="E14" s="103">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="164" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>211</v>
       </c>
       <c r="I14" s="97" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J14" s="97" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K14" s="157" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -6138,7 +6138,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="161">
         <v>45995</v>
       </c>
@@ -6154,30 +6154,29 @@
         <v>Thursday</v>
       </c>
       <c r="E15" s="106">
-        <f>E12+3</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="164" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>101</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J15" s="132" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K15" s="157" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="31" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N15" s="16" t="s">
         <v>44</v>
@@ -6202,35 +6201,35 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E19" name="Range3_1"/>
@@ -6266,7 +6265,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -6293,7 +6292,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6400,19 +6399,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6430,7 +6429,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6451,19 +6450,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6481,7 +6480,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A9" si="2">A4+14</f>
         <v>46079</v>
@@ -6502,29 +6501,29 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="16"/>
       <c r="O5" s="35" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -6536,7 +6535,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6557,7 +6556,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6566,10 +6565,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6587,7 +6586,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="75">
         <f t="shared" si="2"/>
         <v>46107</v>
@@ -6608,19 +6607,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6638,7 +6637,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="75">
         <f t="shared" si="2"/>
         <v>46121</v>
@@ -6659,19 +6658,19 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6689,7 +6688,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6710,19 +6709,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6740,24 +6739,24 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -6783,231 +6782,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="137" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>345</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="137" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>359</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>339</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7028,24 +7027,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7073,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -7083,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7104,7 +7103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -7114,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7135,7 +7134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -7145,7 +7144,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7163,7 +7162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -7173,7 +7172,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7194,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -7204,7 +7203,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7225,7 +7224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -7235,7 +7234,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7255,7 +7254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -7265,7 +7264,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7286,7 +7285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -7296,7 +7295,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7317,7 +7316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7327,10 +7326,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7340,10 +7339,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7353,10 +7352,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7366,15 +7365,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7405,7 +7404,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7417,17 +7416,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7450,13 +7449,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7480,10 +7479,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7539,7 +7538,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7565,10 +7564,10 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7595,7 +7594,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7612,17 +7611,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7648,10 +7647,10 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7668,13 +7667,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>
@@ -7703,7 +7702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5487EAA0-7362-4950-8DE5-5503B39B9EC1}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F8A83C1-E797-4F3B-8B18-E5D77FE7168E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5329,7 +5329,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -6052,7 +6052,7 @@
         <v>45986</v>
       </c>
       <c r="B13" s="166" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C13" s="103" t="s">
         <v>310</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F8A83C1-E797-4F3B-8B18-E5D77FE7168E}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3865784-6C8A-4BF9-8CED-4C26DB15F7DB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="386">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1116,6 +1116,15 @@
     <t>Leah Keating</t>
   </si>
   <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Howland </t>
+  </si>
+  <si>
     <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
   </si>
   <si>
@@ -1246,9 +1255,6 @@
   </si>
   <si>
     <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
   </si>
   <si>
     <t>Robery Garvey</t>
@@ -5327,7 +5333,7 @@
   </sheetPr>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
@@ -6259,16 +6265,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" customWidth="1"/>
@@ -6438,11 +6444,11 @@
         <v>190</v>
       </c>
       <c r="C4" s="26" t="str">
-        <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
+        <f t="shared" ref="C4:C10" si="0">TEXT(A4, "mmm")</f>
         <v>Feb</v>
       </c>
       <c r="D4" s="27" t="str">
-        <f t="shared" ref="D4:D9" si="1">TEXT(A4, "dddd")</f>
+        <f t="shared" ref="D4:D10" si="1">TEXT(A4, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E4">
@@ -6482,7 +6488,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="75">
-        <f t="shared" ref="A5:A9" si="2">A4+14</f>
+        <f t="shared" ref="A5:A10" si="2">A4+14</f>
         <v>46079</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6497,7 +6503,7 @@
         <v>Thursday</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E9" si="3">E4+2</f>
+        <f t="shared" ref="E5:E10" si="3">E4+2</f>
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -6588,7 +6594,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="75">
-        <f t="shared" si="2"/>
+        <f>A6+14</f>
         <v>46107</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6603,7 +6609,7 @@
         <v>Thursday</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f>E6+2</f>
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -6639,32 +6645,28 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="75">
-        <f t="shared" si="2"/>
-        <v>46121</v>
+        <v>46120</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Apr</v>
-      </c>
-      <c r="D8" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Thursday</v>
+      <c r="C8" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="I8" s="98" t="s">
         <v>329</v>
@@ -6688,10 +6690,10 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1">
+    <row r="9" spans="1:25">
       <c r="A9" s="75">
-        <f t="shared" si="2"/>
-        <v>46135</v>
+        <f>A7+14</f>
+        <v>46121</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>190</v>
@@ -6705,8 +6707,8 @@
         <v>Thursday</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>E7+2</f>
+        <v>11</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>330</v>
@@ -6739,19 +6741,65 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="18"/>
-    </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1">
+      <c r="A10" s="75">
+        <f t="shared" si="2"/>
+        <v>46135</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Apr</v>
+      </c>
+      <c r="D10" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="X11" s="20"/>
+      <c r="Y11" s="18"/>
+    </row>
+    <row r="12" spans="1:25" ht="12.75" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -6761,13 +6809,18 @@
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
     </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E13" name="Range3_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E14" name="Range3_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:L2 N2:Y2" name="Range4_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T9" name="Range6_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O9" name="Range7_1"/>
-    <protectedRange sqref="X10:Y10 F3:Y9" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T10" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O10" name="Range7_1"/>
+    <protectedRange sqref="X11:Y11 F3:Y10" name="Range8_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="M2" name="Range4_1_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6791,23 +6844,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6816,7 +6869,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6825,19 +6878,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
@@ -6845,10 +6898,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
@@ -6856,10 +6909,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
@@ -6867,75 +6920,75 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>359</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6943,29 +6996,29 @@
         <v>321</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
@@ -6973,26 +7026,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -7000,13 +7053,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7038,10 +7091,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -7052,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7082,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7113,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7144,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7172,7 +7225,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7234,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7264,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7295,7 +7348,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7326,7 +7379,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7339,7 +7392,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7365,7 +7418,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7418,12 +7471,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -7449,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7549,7 +7602,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7611,7 +7664,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
@@ -7667,7 +7720,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7690,7 +7743,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3865784-6C8A-4BF9-8CED-4C26DB15F7DB}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D012B5B-DAEC-4BB1-A813-804AB271D699}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="385">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>Leah Keating</t>
-  </si>
-  <si>
-    <t>April</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -6268,7 +6265,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6651,16 +6648,16 @@
         <v>190</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>336</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>337</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>77</v>
@@ -6844,23 +6841,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>341</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6869,7 +6866,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6878,19 +6875,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>347</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>348</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
@@ -6898,10 +6895,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>349</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>350</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
@@ -6909,10 +6906,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>351</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>352</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
@@ -6920,75 +6917,75 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>355</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="C11" s="50" t="s">
         <v>358</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>361</v>
-      </c>
       <c r="C12" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>363</v>
-      </c>
       <c r="C13" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>365</v>
-      </c>
       <c r="C14" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>367</v>
-      </c>
       <c r="C15" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6996,29 +6993,29 @@
         <v>321</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="139" t="s">
         <v>368</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>371</v>
-      </c>
       <c r="C17" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
@@ -7026,26 +7023,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -7053,13 +7050,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -7091,10 +7088,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="130" t="s">
         <v>376</v>
-      </c>
-      <c r="C1" s="130" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -7105,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7135,7 +7132,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7166,7 +7163,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7197,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7225,7 +7222,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7287,7 +7284,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7317,7 +7314,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7348,7 +7345,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7379,7 +7376,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7392,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7418,7 +7415,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7471,12 +7468,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -7502,7 +7499,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7602,7 +7599,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7664,7 +7661,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
@@ -7720,7 +7717,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7743,7 +7740,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -5331,7 +5331,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="19" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D012B5B-DAEC-4BB1-A813-804AB271D699}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A80FED-3B08-4A0A-80AB-9897C049654C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="386">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>Leah Keating</t>
+  </si>
+  <si>
+    <t>Stuart Thomson</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -6265,7 +6268,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6610,13 +6613,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="I7" s="98" t="s">
         <v>329</v>
@@ -6651,13 +6654,13 @@
         <v>209</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>77</v>
@@ -6841,23 +6844,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
@@ -6866,7 +6869,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
@@ -6875,19 +6878,19 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
@@ -6895,10 +6898,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
@@ -6906,10 +6909,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
@@ -6917,75 +6920,75 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>359</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6993,29 +6996,29 @@
         <v>321</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>369</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
@@ -7023,26 +7026,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -7050,13 +7053,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7088,10 +7091,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1">
@@ -7102,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7132,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7163,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7194,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7222,7 +7225,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7284,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7314,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7345,7 +7348,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7376,7 +7379,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7389,7 +7392,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7415,7 +7418,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7468,12 +7471,12 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
@@ -7499,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
@@ -7599,7 +7602,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7661,7 +7664,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
@@ -7717,7 +7720,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
@@ -7740,7 +7743,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A80FED-3B08-4A0A-80AB-9897C049654C}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9876F86D-7C6A-49EB-90BB-E77292EC6928}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="5175" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -1079,191 +1079,191 @@
     <t>Clustering high-dimensional discrete data: a compressed approach</t>
   </si>
   <si>
-    <t>Custering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
+    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
+  </si>
+  <si>
+    <t>Eoin O’Brien</t>
+  </si>
+  <si>
+    <t>Maynooth University</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Philip Pearce</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
+  </si>
+  <si>
+    <t>Leah Keating</t>
+  </si>
+  <si>
+    <t>Stuart Thomson</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Howland </t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
+  </si>
+  <si>
+    <t>Clustering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
 We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
-  </si>
-  <si>
-    <t>Eoin O’Brien</t>
-  </si>
-  <si>
-    <t>Maynooth University</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Philip Pearce</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
-  </si>
-  <si>
-    <t>Leah Keating</t>
-  </si>
-  <si>
-    <t>Stuart Thomson</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Howland </t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,9 +2114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2154,7 +2154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2260,7 +2260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2402,7 +2402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2416,7 +2416,7 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2441,7 +2441,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3651,7 +3651,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3676,7 +3676,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4278,20 +4278,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4303,59 +4303,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4389,7 +4389,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4417,7 +4417,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1">
+    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1">
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4902,7 +4902,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5210,101 +5210,101 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5333,14 +5333,14 @@
   </sheetPr>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="19" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5367,7 +5367,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="159">
         <v>45911</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="160">
         <v>45917</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="160">
         <v>45926</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="160">
         <v>45939</v>
       </c>
@@ -5709,7 +5709,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="160">
         <v>45946</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="160">
         <v>45953</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="160">
         <v>45967</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="160">
         <v>45974</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="160">
         <v>45980</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="160">
         <f>A10+7</f>
         <v>45981</v>
@@ -6053,7 +6053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="160">
         <v>45986</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="M13" s="158"/>
       <c r="N13" s="158"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="160">
         <v>45988</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="161">
         <v>45995</v>
       </c>
@@ -6175,14 +6175,14 @@
         <v>323</v>
       </c>
       <c r="J15" s="132" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" s="157" t="s">
         <v>324</v>
-      </c>
-      <c r="K15" s="157" t="s">
-        <v>325</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N15" s="16" t="s">
         <v>44</v>
@@ -6207,35 +6207,35 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15" customHeight="1"/>
-    <row r="26" spans="1:3" ht="15" customHeight="1"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E19" name="Range3_1"/>
@@ -6267,11 +6267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -6298,7 +6298,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6405,19 +6405,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6435,7 +6435,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6456,19 +6456,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6486,7 +6486,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A10" si="2">A4+14</f>
         <v>46079</v>
@@ -6507,29 +6507,29 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="16"/>
       <c r="O5" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -6541,7 +6541,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6562,7 +6562,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6571,10 +6571,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6592,7 +6592,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f>A6+14</f>
         <v>46107</v>
@@ -6613,7 +6613,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>52</v>
@@ -6622,10 +6622,10 @@
         <v>87</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6643,7 +6643,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>46120</v>
       </c>
@@ -6654,13 +6654,13 @@
         <v>209</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>77</v>
@@ -6669,10 +6669,10 @@
         <v>87</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6690,7 +6690,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <f>A7+14</f>
         <v>46121</v>
@@ -6711,19 +6711,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6741,7 +6741,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6762,19 +6762,19 @@
         <v>13</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J10" s="98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="5"/>
@@ -6792,24 +6792,24 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -6835,231 +6835,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="54" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="136" t="s">
-        <v>343</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52" t="s">
+      <c r="B6" s="52" t="s">
         <v>347</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>348</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>349</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>350</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>351</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>352</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="50" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52" t="s">
+      <c r="B11" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="C11" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="50" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
+      <c r="B12" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="C12" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="52" t="s">
+      <c r="B13" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="C13" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
+      <c r="B14" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="C14" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52" t="s">
+      <c r="B15" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>367</v>
-      </c>
       <c r="C15" s="50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
         <v>321</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="C16" s="139" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="52" t="s">
+      <c r="B17" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="52" t="s">
-        <v>372</v>
-      </c>
       <c r="B18" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -7080,24 +7080,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="C1" s="130" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -7135,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7156,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -7166,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7187,7 +7187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -7197,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7215,7 +7215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -7225,7 +7225,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7246,7 +7246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -7256,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7277,7 +7277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -7287,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7307,7 +7307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -7317,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7338,7 +7338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -7348,7 +7348,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7369,7 +7369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7379,10 +7379,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7392,10 +7392,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7405,10 +7405,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7418,15 +7418,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7457,7 +7457,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7469,17 +7469,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="79" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7502,13 +7502,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7532,10 +7532,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7617,10 +7617,10 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7664,17 +7664,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7700,10 +7700,10 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7720,13 +7720,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>
@@ -7755,7 +7755,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9876F86D-7C6A-49EB-90BB-E77292EC6928}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B81DEE-3F6B-4C66-BC5F-0097D43BB8BB}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="5175" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="387">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1079,191 +1079,194 @@
     <t>Clustering high-dimensional discrete data: a compressed approach</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
-  </si>
-  <si>
-    <t>Eoin O’Brien</t>
-  </si>
-  <si>
-    <t>Maynooth University</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Philip Pearce</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
-  </si>
-  <si>
-    <t>Leah Keating</t>
-  </si>
-  <si>
-    <t>Stuart Thomson</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Howland </t>
-  </si>
-  <si>
-    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Where are they from?</t>
-  </si>
-  <si>
-    <t>Adacemic Host</t>
-  </si>
-  <si>
-    <t>Colm</t>
-  </si>
-  <si>
-    <t>Niamh Cahill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niall Madden </t>
-  </si>
-  <si>
-    <t>Mehakpreet</t>
-  </si>
-  <si>
-    <t>Paul Weaver (invitation sent)</t>
-  </si>
-  <si>
-    <t>UL (Bernal)</t>
-  </si>
-  <si>
-    <t>Eleanor Doman</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Connor Hacket</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>David Henry (?)</t>
-  </si>
-  <si>
-    <t>Jess Enright</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>JS/Networks</t>
-  </si>
-  <si>
-    <t>Ben Swallows</t>
-  </si>
-  <si>
-    <t>St Andrews</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Andrew Finlay</t>
-  </si>
-  <si>
-    <t>Uni Michigan</t>
-  </si>
-  <si>
-    <t>Denis Allard</t>
-  </si>
-  <si>
-    <t>INRAE</t>
-  </si>
-  <si>
-    <t>Nicholas J Clark</t>
-  </si>
-  <si>
-    <t>University of Queensland</t>
-  </si>
-  <si>
-    <t>Andrew Zammit Mangion</t>
-  </si>
-  <si>
-    <t>University of Wollongong</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>Catherine Higgins</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Weaver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanne Fielding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
-  </si>
-  <si>
-    <t>Possible speaker for next semester</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken </t>
-  </si>
-  <si>
-    <t>Seminar Series AY2024-25 Sem 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
-  </si>
-  <si>
-    <t>Deptartmental contact</t>
-  </si>
-  <si>
-    <t>Robery Garvey</t>
-  </si>
-  <si>
-    <t>Tentative speaker</t>
-  </si>
-  <si>
-    <t>Leornard Henckel</t>
-  </si>
-  <si>
     <t>Clustering high-dimensional data is a challenging task, typically addressed in the context of continuous numerical data. Recent literature is exploring strategies to cluster high-dimensional categorical and discrete data, which finds numerous applications, such as RNA sequencing and text data analysis. We propose a fast and easy-to-implement approach to cluster high-dimensional discrete data, scalable to datasets with thousands of dimensions where other strategies may be computationally unfeasible. Our approach relies on reducing the dimension of the data by performing a deterministic compression to a drastically lower dimension. The method employs a lossy compression that reduces the data to a collection of continuous features.
 We demonstrate that such compressed features can be treated as approximately normally distributed, allowing the application of standard finite Gaussian mixture models for model-based clustering. We discuss the approach and study its performance on a series of simulated scenarios with different dimensions and levels of complexity, involving both categorical and count data. Additionally, we illustrate the method on real-world data.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=d-Wde0EAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.tcd.ie/scss/people/academic-staff/dangelos/ ; https://sites.google.com/view/silviadangelo/home</t>
+  </si>
+  <si>
+    <t>Eoin O’Brien</t>
+  </si>
+  <si>
+    <t>Maynooth University</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Philip Pearce</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Email sent to Castltroy park hotel on 13 NOv 2025</t>
+  </si>
+  <si>
+    <t>Leah Keating</t>
+  </si>
+  <si>
+    <t>Stuart Thomson</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Howland </t>
+  </si>
+  <si>
+    <t>Andrew Keane</t>
+  </si>
+  <si>
+    <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Where are they from?</t>
+  </si>
+  <si>
+    <t>Adacemic Host</t>
+  </si>
+  <si>
+    <t>Colm</t>
+  </si>
+  <si>
+    <t>Niamh Cahill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niall Madden </t>
+  </si>
+  <si>
+    <t>Mehakpreet</t>
+  </si>
+  <si>
+    <t>Paul Weaver (invitation sent)</t>
+  </si>
+  <si>
+    <t>UL (Bernal)</t>
+  </si>
+  <si>
+    <t>Eleanor Doman</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Connor Hacket</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>David Henry (?)</t>
+  </si>
+  <si>
+    <t>Jess Enright</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>JS/Networks</t>
+  </si>
+  <si>
+    <t>Ben Swallows</t>
+  </si>
+  <si>
+    <t>St Andrews</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Andrew Finlay</t>
+  </si>
+  <si>
+    <t>Uni Michigan</t>
+  </si>
+  <si>
+    <t>Denis Allard</t>
+  </si>
+  <si>
+    <t>INRAE</t>
+  </si>
+  <si>
+    <t>Nicholas J Clark</t>
+  </si>
+  <si>
+    <t>University of Queensland</t>
+  </si>
+  <si>
+    <t>Andrew Zammit Mangion</t>
+  </si>
+  <si>
+    <t>University of Wollongong</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Catherine Higgins</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Weaver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanne Fielding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doireann O'Kiely and Anthony </t>
+  </si>
+  <si>
+    <t>Possible speaker for next semester</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken </t>
+  </si>
+  <si>
+    <t>Seminar Series AY2024-25 Sem 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact david.osullivan@ul.ie &amp; mehakpreet.singh@ul.ie to book a speaker in. </t>
+  </si>
+  <si>
+    <t>Deptartmental contact</t>
+  </si>
+  <si>
+    <t>Robery Garvey</t>
+  </si>
+  <si>
+    <t>Tentative speaker</t>
+  </si>
+  <si>
+    <t>Leornard Henckel</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,9 +2117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2154,7 +2157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2260,7 +2263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2402,7 +2405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2416,7 +2419,7 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2441,7 +2444,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2596,7 +2599,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2659,7 +2662,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2720,7 +2723,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2787,7 +2790,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -3045,7 +3048,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -3106,7 +3109,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3169,7 +3172,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3238,7 +3241,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3368,7 +3371,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3431,7 +3434,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3502,7 +3505,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3553,7 +3556,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3604,7 +3607,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3651,7 +3654,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3676,7 +3679,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3829,7 +3832,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3878,7 +3881,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3927,7 +3930,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3976,7 +3979,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -4074,7 +4077,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -4123,7 +4126,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4172,7 +4175,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4221,7 +4224,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4278,20 +4281,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4303,59 +4306,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4389,7 +4392,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4417,7 +4420,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4557,7 +4560,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4615,7 +4618,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4671,7 +4674,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4727,7 +4730,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4781,7 +4784,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4840,7 +4843,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4902,7 +4905,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4956,7 +4959,7 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -5016,7 +5019,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -5077,7 +5080,7 @@
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -5130,7 +5133,7 @@
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5210,101 +5213,101 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5335,12 +5338,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="19" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5367,7 +5370,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="159">
         <v>45911</v>
       </c>
@@ -5518,7 +5521,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="160">
         <v>45917</v>
       </c>
@@ -5587,7 +5590,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="160">
         <v>45926</v>
       </c>
@@ -5645,7 +5648,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="160">
         <v>45939</v>
       </c>
@@ -5709,7 +5712,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="160">
         <v>45946</v>
       </c>
@@ -5766,7 +5769,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="160">
         <v>45953</v>
       </c>
@@ -5824,7 +5827,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="160">
         <v>45967</v>
       </c>
@@ -5886,7 +5889,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="160">
         <v>45974</v>
       </c>
@@ -5949,7 +5952,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="160">
         <v>45980</v>
       </c>
@@ -6000,7 +6003,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1">
       <c r="A12" s="160">
         <f>A10+7</f>
         <v>45981</v>
@@ -6053,7 +6056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="160">
         <v>45986</v>
       </c>
@@ -6089,7 +6092,7 @@
       <c r="M13" s="158"/>
       <c r="N13" s="158"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" customHeight="1">
       <c r="A14" s="160">
         <v>45988</v>
       </c>
@@ -6144,7 +6147,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="161">
         <v>45995</v>
       </c>
@@ -6175,14 +6178,14 @@
         <v>323</v>
       </c>
       <c r="J15" s="132" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="K15" s="157" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N15" s="16" t="s">
         <v>44</v>
@@ -6207,35 +6210,35 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E19" name="Range3_1"/>
@@ -6268,10 +6271,10 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -6298,7 +6301,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6405,19 +6408,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="40"/>
@@ -6435,7 +6438,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6456,19 +6459,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>328</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K4" s="102"/>
       <c r="L4" s="5"/>
@@ -6486,7 +6489,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A10" si="2">A4+14</f>
         <v>46079</v>
@@ -6507,29 +6510,29 @@
         <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" s="102"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="16"/>
       <c r="O5" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -6541,7 +6544,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6562,7 +6565,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>152</v>
@@ -6571,10 +6574,10 @@
         <v>95</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="5"/>
@@ -6592,7 +6595,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="75">
         <f>A6+14</f>
         <v>46107</v>
@@ -6613,7 +6616,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>52</v>
@@ -6622,10 +6625,10 @@
         <v>87</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J7" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="5"/>
@@ -6643,7 +6646,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="75">
         <v>46120</v>
       </c>
@@ -6654,13 +6657,13 @@
         <v>209</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>77</v>
@@ -6669,10 +6672,10 @@
         <v>87</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="5"/>
@@ -6690,7 +6693,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="75">
         <f>A7+14</f>
         <v>46121</v>
@@ -6711,19 +6714,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>328</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="5"/>
@@ -6741,7 +6744,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6762,19 +6765,19 @@
         <v>13</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I10" s="98" t="s">
-        <v>328</v>
-      </c>
       <c r="J10" s="98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="5"/>
@@ -6792,24 +6795,24 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -6835,231 +6838,231 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="55" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="136" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="138" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="52" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="52" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="52" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="52" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="52" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="52" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="52" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="52" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="52" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="52" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="137" t="s">
         <v>321</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="52" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B17" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="52" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C18" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="53" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>230</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>371</v>
-      </c>
       <c r="B24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B25" t="s">
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7080,24 +7083,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="131" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F2" s="75">
         <v>45911</v>
@@ -7125,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -7135,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F3" s="75">
         <v>45926</v>
@@ -7156,7 +7159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -7166,7 +7169,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F4" s="75">
         <v>45939</v>
@@ -7187,7 +7190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -7197,7 +7200,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F5" s="75">
         <v>45946</v>
@@ -7215,7 +7218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -7225,7 +7228,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F6" s="75">
         <v>45953</v>
@@ -7246,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -7256,7 +7259,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F7" s="75">
         <v>45967</v>
@@ -7277,7 +7280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -7287,7 +7290,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F8" s="75">
         <v>45974</v>
@@ -7307,7 +7310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -7317,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F9" s="75">
         <v>45981</v>
@@ -7338,7 +7341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -7348,7 +7351,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F10" s="75">
         <v>45995</v>
@@ -7369,7 +7372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7379,10 +7382,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7392,10 +7395,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7405,10 +7408,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7418,15 +7421,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7457,7 +7460,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7469,17 +7472,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="91" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="79" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7502,13 +7505,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7532,10 +7535,10 @@
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7591,7 +7594,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E9" s="94">
         <v>8</v>
@@ -7617,10 +7620,10 @@
         <v>206</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7647,7 +7650,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7664,17 +7667,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G11" s="87" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7700,10 +7703,10 @@
         <v>31</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7720,13 +7723,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>77</v>
@@ -7755,7 +7758,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" ht="18.75">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B81DEE-3F6B-4C66-BC5F-0097D43BB8BB}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDE6A3E-DD83-4B7E-A6DC-99A99AF9D719}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="5175" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="AY2024-2025 Sem 2" sheetId="6" r:id="rId3"/>
     <sheet name="AY2025-2026 Sem 1" sheetId="7" r:id="rId4"/>
     <sheet name="AY2025-2026 Sem 2" sheetId="9" r:id="rId5"/>
-    <sheet name="Possbile speaker (reserve list)" sheetId="4" r:id="rId6"/>
-    <sheet name="Open dates" sheetId="8" r:id="rId7"/>
-    <sheet name="Printed A2002" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="AY2026-2027 Sem 1" sheetId="10" r:id="rId6"/>
+    <sheet name="Possbile speaker (reserve list)" sheetId="4" r:id="rId7"/>
+    <sheet name="Open dates" sheetId="8" r:id="rId8"/>
+    <sheet name="Printed A2002" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="388">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1268,6 +1269,9 @@
   <si>
     <t>Leornard Henckel</t>
   </si>
+  <si>
+    <t>May</t>
+  </si>
 </sst>
 </file>
 
@@ -1276,7 +1280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +1347,12 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2117,9 +2127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2157,7 +2167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2263,7 +2273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2405,7 +2415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2419,7 +2429,7 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2444,7 +2454,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2599,7 +2609,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2662,7 +2672,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2723,7 +2733,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2790,7 +2800,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2926,7 +2936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2979,7 +2989,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -3048,7 +3058,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -3109,7 +3119,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3172,7 +3182,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3241,7 +3251,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3302,7 +3312,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3371,7 +3381,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3434,7 +3444,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3505,7 +3515,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3556,7 +3566,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3607,7 +3617,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3654,7 +3664,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3679,7 +3689,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3767,7 +3777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3832,7 +3842,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3881,7 +3891,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3930,7 +3940,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3979,7 +3989,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -4028,7 +4038,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -4077,7 +4087,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -4126,7 +4136,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4175,7 +4185,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4224,7 +4234,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4281,20 +4291,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4306,59 +4316,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4392,7 +4402,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4420,7 +4430,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4560,7 +4570,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45708</v>
       </c>
@@ -4618,7 +4628,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45722</v>
       </c>
@@ -4674,7 +4684,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1">
+    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45735</v>
       </c>
@@ -4730,7 +4740,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45750</v>
       </c>
@@ -4784,7 +4794,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1">
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45751</v>
       </c>
@@ -4843,7 +4853,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45757</v>
       </c>
@@ -4905,7 +4915,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45758</v>
       </c>
@@ -4959,7 +4969,7 @@
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45764</v>
       </c>
@@ -5019,7 +5029,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45771</v>
       </c>
@@ -5080,7 +5090,7 @@
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45785</v>
       </c>
@@ -5133,7 +5143,7 @@
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45799</v>
       </c>
@@ -5179,7 +5189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45805</v>
       </c>
@@ -5213,101 +5223,101 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
     </row>
   </sheetData>
@@ -5331,19 +5341,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243C2AD8-98F5-4435-96A3-1C2CAB922825}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="19" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -5370,7 +5377,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
@@ -5458,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="159">
         <v>45911</v>
       </c>
@@ -5521,7 +5528,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="160">
         <v>45917</v>
       </c>
@@ -5590,7 +5597,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="160">
         <v>45926</v>
       </c>
@@ -5648,7 +5655,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="160">
         <v>45939</v>
       </c>
@@ -5712,7 +5719,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="160">
         <v>45946</v>
       </c>
@@ -5769,7 +5776,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="160">
         <v>45953</v>
       </c>
@@ -5827,7 +5834,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="160">
         <v>45967</v>
       </c>
@@ -5889,7 +5896,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="160">
         <v>45974</v>
       </c>
@@ -5952,7 +5959,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="160">
         <v>45980</v>
       </c>
@@ -6003,7 +6010,7 @@
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="160">
         <f>A10+7</f>
         <v>45981</v>
@@ -6056,7 +6063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="160">
         <v>45986</v>
       </c>
@@ -6092,7 +6099,7 @@
       <c r="M13" s="158"/>
       <c r="N13" s="158"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="160">
         <v>45988</v>
       </c>
@@ -6147,7 +6154,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="161">
         <v>45995</v>
       </c>
@@ -6210,35 +6217,35 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1"/>
-    <row r="21" spans="1:3" ht="15" customHeight="1"/>
-    <row r="22" spans="1:3" ht="15" customHeight="1"/>
-    <row r="23" spans="1:3" ht="15" customHeight="1"/>
-    <row r="24" spans="1:3" ht="15" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15" customHeight="1"/>
-    <row r="26" spans="1:3" ht="15" customHeight="1"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E19" name="Range3_1"/>
@@ -6268,13 +6275,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D4156-0A06-4DBF-B1E7-3E12580121CB}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -6301,7 +6311,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6312,7 +6322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -6389,7 +6399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>46051</v>
       </c>
@@ -6438,7 +6448,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <f>A3+14</f>
         <v>46065</v>
@@ -6489,7 +6499,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A10" si="2">A4+14</f>
         <v>46079</v>
@@ -6544,7 +6554,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <f>A5+14</f>
         <v>46093</v>
@@ -6595,7 +6605,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f>A6+14</f>
         <v>46107</v>
@@ -6646,7 +6656,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>46120</v>
       </c>
@@ -6693,7 +6703,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <f>A7+14</f>
         <v>46121</v>
@@ -6744,7 +6754,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <f t="shared" si="2"/>
         <v>46135</v>
@@ -6795,24 +6805,24 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -6831,6 +6841,518 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A33E49C-EC2E-42B7-80E4-DD607C0B7A89}">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>46275</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f>TEXT(A3, "mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="D3" s="55" t="str">
+        <f>TEXT(A3, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <f>A3+14</f>
+        <v>46289</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f t="shared" ref="C4:C9" si="0">TEXT(A4, "mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="D4" s="27" t="str">
+        <f t="shared" ref="D4:D9" si="1">TEXT(A4, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E4">
+        <f>E3+2</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="102"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <f t="shared" ref="A5" si="2">A4+14</f>
+        <v>46303</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Oct</v>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="3">E4+2</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="102"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <f>A5+14</f>
+        <v>46317</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Oct</v>
+      </c>
+      <c r="D6" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K6" s="102"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <f>A6+14</f>
+        <v>46331</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E7">
+        <f>E6+2</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="102"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <f>A7+14</f>
+        <v>46345</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="102"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>46121</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="102"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="pQyTzP/d7t5ThMimBt5mu8gGozgAm1OwF6BMILsn5/kmtZ5mZf81NMi09wwU8mvtItxf0EVNWa6V4MCa0DKeSQ==" saltValue="NzZBiAQ1yFjat+SeIqh2Uw==" spinCount="100000" sqref="A3:E13" name="Range3_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="A2:L2 N2:Y2" name="Range4_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="B/N8xqtMc7pXr3rfrr4k91A6IFAPX6lxEHUr9qsJ3yHA+MBnFuw+x27DjsTYKp86iL5C7QQh1TPFTQHueWpZbw==" saltValue="c0IR/echnZmip5yS1t29Rw==" spinCount="100000" sqref="T3:T9" name="Range6_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="BKDH3ki5lE3XQdc5qZnIH6o8wW8E0PkHgMZFCkv/XYDEa+b/qenui0oReDIqPDXHceUVJ+rEgU3I9CDBHraDYg==" saltValue="ruXqG4NOhhm7cSLor8wHfw==" spinCount="100000" sqref="O2:O9" name="Range7_1"/>
+    <protectedRange sqref="X10:Y10 F3:Y9" name="Range8_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="JNB4nrqrfZD45ijUCOmyuk44ibTGOz2xPKKqUb8Fu6IzynfOW0Plt2J4MjvTXFpCm0cEkYqWWfoKwgUFnGztPw==" saltValue="gktf/myRKhBCN9s2pCislA==" spinCount="100000" sqref="M2" name="Range4_1_1"/>
+  </protectedRanges>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC079F-155A-491D-9189-1418FC903287}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -6838,19 +7360,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>341</v>
       </c>
@@ -6861,7 +7383,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
         <v>344</v>
       </c>
@@ -6870,7 +7392,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>345</v>
       </c>
@@ -6879,7 +7401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>346</v>
       </c>
@@ -6888,7 +7410,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>348</v>
       </c>
@@ -6899,7 +7421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>350</v>
       </c>
@@ -6910,7 +7432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>352</v>
       </c>
@@ -6921,14 +7443,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>354</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>355</v>
       </c>
@@ -6939,7 +7461,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>358</v>
       </c>
@@ -6950,7 +7472,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>361</v>
       </c>
@@ -6961,7 +7483,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>363</v>
       </c>
@@ -6972,7 +7494,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>365</v>
       </c>
@@ -6983,7 +7505,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>367</v>
       </c>
@@ -6994,7 +7516,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="137" t="s">
         <v>321</v>
       </c>
@@ -7005,7 +7527,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>371</v>
       </c>
@@ -7016,7 +7538,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>373</v>
       </c>
@@ -7027,7 +7549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>374</v>
       </c>
@@ -7038,12 +7560,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -7054,7 +7576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>374</v>
       </c>
@@ -7075,7 +7597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD19DE5-C22F-4D41-B540-76D70438E18B}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -7083,13 +7605,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>3</v>
       </c>
@@ -7100,7 +7622,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133">
         <v>45911</v>
       </c>
@@ -7128,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="133">
         <f>A2+7</f>
         <v>45918</v>
@@ -7159,7 +7681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="133">
         <f t="shared" ref="A4:A12" si="0">A3+7</f>
         <v>45925</v>
@@ -7190,7 +7712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -7218,7 +7740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -7249,7 +7771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -7280,7 +7802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -7310,7 +7832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>45960</v>
@@ -7341,7 +7863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -7372,7 +7894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -7385,7 +7907,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -7398,7 +7920,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="133">
         <f t="shared" ref="A13:A14" si="6">A12+7</f>
         <v>45988</v>
@@ -7411,7 +7933,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="133">
         <f t="shared" si="6"/>
         <v>45995</v>
@@ -7424,12 +7946,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="26"/>
     </row>
   </sheetData>
@@ -7452,7 +7974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BB5C5F-5790-4A91-A6E8-8841719DA1FC}">
   <dimension ref="A2:I20"/>
   <sheetViews>
@@ -7460,7 +7982,7 @@
       <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7472,17 +7994,17 @@
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
@@ -7511,7 +8033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>45694</v>
       </c>
@@ -7538,7 +8060,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>45708</v>
       </c>
@@ -7567,7 +8089,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>45722</v>
       </c>
@@ -7594,7 +8116,7 @@
       </c>
       <c r="I8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>45735</v>
       </c>
@@ -7623,7 +8145,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>45744</v>
       </c>
@@ -7650,7 +8172,7 @@
       </c>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>45750</v>
       </c>
@@ -7677,7 +8199,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>45758</v>
       </c>
@@ -7706,7 +8228,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>45764</v>
       </c>
@@ -7729,7 +8251,7 @@
       <c r="H13" s="87"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="88">
         <v>45771</v>
       </c>
@@ -7758,7 +8280,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="8:8" ht="18.75">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="79"/>
     </row>
   </sheetData>

--- a/data/MACSI seminar series.xlsx
+++ b/data/MACSI seminar series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/david_osullivan_ul_ie/Documents/Academic_work/_Misc/MACSI_Seminars/macsi-seminars.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDE6A3E-DD83-4B7E-A6DC-99A99AF9D719}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{12BE53B5-C8C7-44FE-8280-19C653D9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73E733D-756C-4FA8-A661-A90EE8D7A394}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AY2023-2024 Sem 2" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="388">
   <si>
     <t>Fill in as much of the green boxes as possible. Ideally, this would be before you have finished your visitors travel dates (just to avoid double booking).</t>
   </si>
@@ -1129,6 +1129,9 @@
     <t>Andrew Keane</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
     <t>This is a just a place for those who are interested but that dont have a specific date in mind. (Ideally, a couple of these are people that we could invite with relatively short notice to fill missing slots.)</t>
   </si>
   <si>
@@ -1268,9 +1271,6 @@
   </si>
   <si>
     <t>Leornard Henckel</t>
-  </si>
-  <si>
-    <t>May</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,9 +2127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2167,7 +2167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2273,7 +2273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2415,7 +2415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2429,7 +2429,7 @@
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -2454,7 +2454,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3" s="2">
         <v>45317</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="A4" s="2">
         <v>45323</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>45324</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>45331</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>45338</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45345</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>45359</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>45366</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45379</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="2">
         <v>45386</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1">
       <c r="A13" s="2">
         <v>45387</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>45394</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="17.25" customHeight="1">
       <c r="A15" s="2">
         <v>45398</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>45401</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>45421</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="26">
         <v>45474</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
     </row>
-    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="26">
         <v>45505</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -3664,7 +3664,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" customWidth="1"/>
@@ -3689,7 +3689,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="30.75" thickBot="1">
       <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45548</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>45555</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>45562</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>45576</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>45583</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>45596</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>45604</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>45611</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>45625</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>45632</v>
       </c>
@@ -4291,20 +4291,20 @@
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -4316,59 +4316,59 @@
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="60"/>
       <c r="B32" s="60"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="60"/>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="60"/>
       <c r="B37" s="60"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="60"/>
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
     </row>
@@ -4402,7 +4402,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -4430,7 +4430,7 @@
     <col min="25" max="25" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>45694</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>45708</v>
    